--- a/KOSPI_Futures.xlsx
+++ b/KOSPI_Futures.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE3F5BB2-B019-4810-BC20-FA386D8A2044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB61DCCE-9882-493D-81CA-F2DFE30D36ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/KOSPI_Futures.xlsx
+++ b/KOSPI_Futures.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB61DCCE-9882-493D-81CA-F2DFE30D36ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF28ED01-FA2E-4FE3-95F1-6190FA7F2FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="15">
   <si>
     <t>일자</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V1289"/>
+  <dimension ref="A1:V1087"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="A335" sqref="A335:XFD336"/>
+    <sheetView tabSelected="1" topLeftCell="A1070" workbookViewId="0">
+      <selection activeCell="A1289" sqref="A1088:XFD1289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -41560,7682 +41560,6 @@
         <v>267760</v>
       </c>
     </row>
-    <row r="1088" spans="1:12">
-      <c r="A1088" s="1">
-        <v>43039</v>
-      </c>
-      <c r="B1088" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1088">
-        <v>334.4</v>
-      </c>
-      <c r="D1088" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1088">
-        <v>3.6</v>
-      </c>
-      <c r="F1088">
-        <v>331</v>
-      </c>
-      <c r="G1088">
-        <v>334.85</v>
-      </c>
-      <c r="H1088">
-        <v>330.2</v>
-      </c>
-      <c r="I1088">
-        <v>333.57</v>
-      </c>
-      <c r="J1088">
-        <v>334.21</v>
-      </c>
-      <c r="K1088" s="3">
-        <v>207723</v>
-      </c>
-      <c r="L1088" s="3">
-        <v>259467</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:12">
-      <c r="A1089" s="1">
-        <v>43038</v>
-      </c>
-      <c r="B1089" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1089">
-        <v>330.8</v>
-      </c>
-      <c r="D1089" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1089">
-        <v>0.6</v>
-      </c>
-      <c r="F1089">
-        <v>331.95</v>
-      </c>
-      <c r="G1089">
-        <v>332.1</v>
-      </c>
-      <c r="H1089">
-        <v>330.3</v>
-      </c>
-      <c r="I1089">
-        <v>330.38</v>
-      </c>
-      <c r="J1089">
-        <v>331.03</v>
-      </c>
-      <c r="K1089" s="3">
-        <v>138515</v>
-      </c>
-      <c r="L1089" s="3">
-        <v>254957</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:12">
-      <c r="A1090" s="1">
-        <v>43035</v>
-      </c>
-      <c r="B1090" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1090">
-        <v>330.2</v>
-      </c>
-      <c r="D1090" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1090">
-        <v>3.1</v>
-      </c>
-      <c r="F1090">
-        <v>327.75</v>
-      </c>
-      <c r="G1090">
-        <v>330.35</v>
-      </c>
-      <c r="H1090">
-        <v>327.45</v>
-      </c>
-      <c r="I1090">
-        <v>329.23</v>
-      </c>
-      <c r="J1090">
-        <v>329.93</v>
-      </c>
-      <c r="K1090" s="3">
-        <v>159046</v>
-      </c>
-      <c r="L1090" s="3">
-        <v>257006</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:12">
-      <c r="A1091" s="1">
-        <v>43034</v>
-      </c>
-      <c r="B1091" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1091">
-        <v>327.10000000000002</v>
-      </c>
-      <c r="D1091" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1091">
-        <v>3</v>
-      </c>
-      <c r="F1091">
-        <v>329.85</v>
-      </c>
-      <c r="G1091">
-        <v>330.1</v>
-      </c>
-      <c r="H1091">
-        <v>327.10000000000002</v>
-      </c>
-      <c r="I1091">
-        <v>326.99</v>
-      </c>
-      <c r="J1091">
-        <v>327.7</v>
-      </c>
-      <c r="K1091" s="3">
-        <v>157991</v>
-      </c>
-      <c r="L1091" s="3">
-        <v>253237</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:12">
-      <c r="A1092" s="1">
-        <v>43033</v>
-      </c>
-      <c r="B1092" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1092">
-        <v>330.1</v>
-      </c>
-      <c r="D1092" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1092">
-        <v>0.2</v>
-      </c>
-      <c r="F1092">
-        <v>330.05</v>
-      </c>
-      <c r="G1092">
-        <v>330.65</v>
-      </c>
-      <c r="H1092">
-        <v>328.7</v>
-      </c>
-      <c r="I1092">
-        <v>329.31</v>
-      </c>
-      <c r="J1092">
-        <v>330.04</v>
-      </c>
-      <c r="K1092" s="3">
-        <v>174523</v>
-      </c>
-      <c r="L1092" s="3">
-        <v>256128</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:12">
-      <c r="A1093" s="1">
-        <v>43032</v>
-      </c>
-      <c r="B1093" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1093">
-        <v>329.9</v>
-      </c>
-      <c r="D1093" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1093">
-        <v>0.5</v>
-      </c>
-      <c r="F1093">
-        <v>330.2</v>
-      </c>
-      <c r="G1093">
-        <v>330.8</v>
-      </c>
-      <c r="H1093">
-        <v>329.8</v>
-      </c>
-      <c r="I1093">
-        <v>328.96</v>
-      </c>
-      <c r="J1093">
-        <v>329.7</v>
-      </c>
-      <c r="K1093" s="3">
-        <v>116091</v>
-      </c>
-      <c r="L1093" s="3">
-        <v>254240</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:12">
-      <c r="A1094" s="1">
-        <v>43031</v>
-      </c>
-      <c r="B1094" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1094">
-        <v>330.4</v>
-      </c>
-      <c r="D1094" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1094">
-        <v>0.8</v>
-      </c>
-      <c r="F1094">
-        <v>330.55</v>
-      </c>
-      <c r="G1094">
-        <v>331.1</v>
-      </c>
-      <c r="H1094">
-        <v>329.25</v>
-      </c>
-      <c r="I1094">
-        <v>329.45</v>
-      </c>
-      <c r="J1094">
-        <v>330.21</v>
-      </c>
-      <c r="K1094" s="3">
-        <v>178744</v>
-      </c>
-      <c r="L1094" s="3">
-        <v>248786</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:12">
-      <c r="A1095" s="1">
-        <v>43028</v>
-      </c>
-      <c r="B1095" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1095">
-        <v>329.6</v>
-      </c>
-      <c r="D1095" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1095">
-        <v>2.15</v>
-      </c>
-      <c r="F1095">
-        <v>327.60000000000002</v>
-      </c>
-      <c r="G1095">
-        <v>329.65</v>
-      </c>
-      <c r="H1095">
-        <v>327.60000000000002</v>
-      </c>
-      <c r="I1095">
-        <v>328.89</v>
-      </c>
-      <c r="J1095">
-        <v>329.69</v>
-      </c>
-      <c r="K1095" s="3">
-        <v>150556</v>
-      </c>
-      <c r="L1095" s="3">
-        <v>251869</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:12">
-      <c r="A1096" s="1">
-        <v>43027</v>
-      </c>
-      <c r="B1096" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1096">
-        <v>327.45</v>
-      </c>
-      <c r="D1096" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1096">
-        <v>1.75</v>
-      </c>
-      <c r="F1096">
-        <v>330.05</v>
-      </c>
-      <c r="G1096">
-        <v>330.25</v>
-      </c>
-      <c r="H1096">
-        <v>327.10000000000002</v>
-      </c>
-      <c r="I1096">
-        <v>326.47000000000003</v>
-      </c>
-      <c r="J1096">
-        <v>327.27999999999997</v>
-      </c>
-      <c r="K1096" s="3">
-        <v>172806</v>
-      </c>
-      <c r="L1096" s="3">
-        <v>248910</v>
-      </c>
-    </row>
-    <row r="1097" spans="1:12">
-      <c r="A1097" s="1">
-        <v>43026</v>
-      </c>
-      <c r="B1097" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1097">
-        <v>329.2</v>
-      </c>
-      <c r="D1097" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1097">
-        <v>0.05</v>
-      </c>
-      <c r="F1097">
-        <v>328.85</v>
-      </c>
-      <c r="G1097">
-        <v>330.1</v>
-      </c>
-      <c r="H1097">
-        <v>328.3</v>
-      </c>
-      <c r="I1097">
-        <v>328.4</v>
-      </c>
-      <c r="J1097">
-        <v>329.23</v>
-      </c>
-      <c r="K1097" s="3">
-        <v>136154</v>
-      </c>
-      <c r="L1097" s="3">
-        <v>247651</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:12">
-      <c r="A1098" s="1">
-        <v>43025</v>
-      </c>
-      <c r="B1098" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1098">
-        <v>329.15</v>
-      </c>
-      <c r="D1098" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1098">
-        <v>0.3</v>
-      </c>
-      <c r="F1098">
-        <v>328.9</v>
-      </c>
-      <c r="G1098">
-        <v>329.85</v>
-      </c>
-      <c r="H1098">
-        <v>328.7</v>
-      </c>
-      <c r="I1098">
-        <v>328.51</v>
-      </c>
-      <c r="J1098">
-        <v>329.36</v>
-      </c>
-      <c r="K1098" s="3">
-        <v>128127</v>
-      </c>
-      <c r="L1098" s="3">
-        <v>250060</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:12">
-      <c r="A1099" s="1">
-        <v>43024</v>
-      </c>
-      <c r="B1099" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1099">
-        <v>328.85</v>
-      </c>
-      <c r="D1099" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1099">
-        <v>0.2</v>
-      </c>
-      <c r="F1099">
-        <v>329</v>
-      </c>
-      <c r="G1099">
-        <v>330.25</v>
-      </c>
-      <c r="H1099">
-        <v>328.15</v>
-      </c>
-      <c r="I1099">
-        <v>327.82</v>
-      </c>
-      <c r="J1099">
-        <v>328.68</v>
-      </c>
-      <c r="K1099" s="3">
-        <v>132287</v>
-      </c>
-      <c r="L1099" s="3">
-        <v>255806</v>
-      </c>
-    </row>
-    <row r="1100" spans="1:12">
-      <c r="A1100" s="1">
-        <v>43021</v>
-      </c>
-      <c r="B1100" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1100">
-        <v>328.65</v>
-      </c>
-      <c r="D1100" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1100">
-        <v>0.35</v>
-      </c>
-      <c r="F1100">
-        <v>328.4</v>
-      </c>
-      <c r="G1100">
-        <v>329.3</v>
-      </c>
-      <c r="H1100">
-        <v>327.9</v>
-      </c>
-      <c r="I1100">
-        <v>327.35000000000002</v>
-      </c>
-      <c r="J1100">
-        <v>328.25</v>
-      </c>
-      <c r="K1100" s="3">
-        <v>126207</v>
-      </c>
-      <c r="L1100" s="3">
-        <v>256793</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:12">
-      <c r="A1101" s="1">
-        <v>43020</v>
-      </c>
-      <c r="B1101" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1101">
-        <v>329</v>
-      </c>
-      <c r="D1101" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1101">
-        <v>2.4</v>
-      </c>
-      <c r="F1101">
-        <v>326.95</v>
-      </c>
-      <c r="G1101">
-        <v>329.1</v>
-      </c>
-      <c r="H1101">
-        <v>326.8</v>
-      </c>
-      <c r="I1101">
-        <v>328.11</v>
-      </c>
-      <c r="J1101">
-        <v>329.03</v>
-      </c>
-      <c r="K1101" s="3">
-        <v>234844</v>
-      </c>
-      <c r="L1101" s="3">
-        <v>257555</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:12">
-      <c r="A1102" s="1">
-        <v>43019</v>
-      </c>
-      <c r="B1102" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1102">
-        <v>326.60000000000002</v>
-      </c>
-      <c r="D1102" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1102">
-        <v>3.1</v>
-      </c>
-      <c r="F1102">
-        <v>324.5</v>
-      </c>
-      <c r="G1102">
-        <v>326.89999999999998</v>
-      </c>
-      <c r="H1102">
-        <v>324.10000000000002</v>
-      </c>
-      <c r="I1102">
-        <v>326.12</v>
-      </c>
-      <c r="J1102">
-        <v>327.05</v>
-      </c>
-      <c r="K1102" s="3">
-        <v>203158</v>
-      </c>
-      <c r="L1102" s="3">
-        <v>262677</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:12">
-      <c r="A1103" s="1">
-        <v>43018</v>
-      </c>
-      <c r="B1103" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1103">
-        <v>323.5</v>
-      </c>
-      <c r="D1103" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1103">
-        <v>5.85</v>
-      </c>
-      <c r="F1103">
-        <v>322.3</v>
-      </c>
-      <c r="G1103">
-        <v>324.85000000000002</v>
-      </c>
-      <c r="H1103">
-        <v>321.39999999999998</v>
-      </c>
-      <c r="I1103">
-        <v>322.49</v>
-      </c>
-      <c r="J1103">
-        <v>323.43</v>
-      </c>
-      <c r="K1103" s="3">
-        <v>233665</v>
-      </c>
-      <c r="L1103" s="3">
-        <v>264135</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:12">
-      <c r="A1104" s="1">
-        <v>43007</v>
-      </c>
-      <c r="B1104" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1104">
-        <v>317.64999999999998</v>
-      </c>
-      <c r="D1104" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1104">
-        <v>2.7</v>
-      </c>
-      <c r="F1104">
-        <v>315.10000000000002</v>
-      </c>
-      <c r="G1104">
-        <v>317.64999999999998</v>
-      </c>
-      <c r="H1104">
-        <v>315.05</v>
-      </c>
-      <c r="I1104">
-        <v>316.27</v>
-      </c>
-      <c r="J1104">
-        <v>317.35000000000002</v>
-      </c>
-      <c r="K1104" s="3">
-        <v>198447</v>
-      </c>
-      <c r="L1104" s="3">
-        <v>254588</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:12">
-      <c r="A1105" s="1">
-        <v>43006</v>
-      </c>
-      <c r="B1105" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1105">
-        <v>314.95</v>
-      </c>
-      <c r="D1105" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1105">
-        <v>0.2</v>
-      </c>
-      <c r="F1105">
-        <v>314.8</v>
-      </c>
-      <c r="G1105">
-        <v>315.89999999999998</v>
-      </c>
-      <c r="H1105">
-        <v>313.95</v>
-      </c>
-      <c r="I1105">
-        <v>313.85000000000002</v>
-      </c>
-      <c r="J1105">
-        <v>314.94</v>
-      </c>
-      <c r="K1105" s="3">
-        <v>192313</v>
-      </c>
-      <c r="L1105" s="3">
-        <v>246372</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:12">
-      <c r="A1106" s="1">
-        <v>43005</v>
-      </c>
-      <c r="B1106" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1106">
-        <v>314.75</v>
-      </c>
-      <c r="D1106" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1106">
-        <v>0.4</v>
-      </c>
-      <c r="F1106">
-        <v>315.55</v>
-      </c>
-      <c r="G1106">
-        <v>315.60000000000002</v>
-      </c>
-      <c r="H1106">
-        <v>314.3</v>
-      </c>
-      <c r="I1106">
-        <v>313.82</v>
-      </c>
-      <c r="J1106">
-        <v>314.89999999999998</v>
-      </c>
-      <c r="K1106" s="3">
-        <v>129512</v>
-      </c>
-      <c r="L1106" s="3">
-        <v>256109</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:12">
-      <c r="A1107" s="1">
-        <v>43004</v>
-      </c>
-      <c r="B1107" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1107">
-        <v>315.14999999999998</v>
-      </c>
-      <c r="D1107" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1107">
-        <v>2</v>
-      </c>
-      <c r="F1107">
-        <v>315.8</v>
-      </c>
-      <c r="G1107">
-        <v>316.5</v>
-      </c>
-      <c r="H1107">
-        <v>314.64999999999998</v>
-      </c>
-      <c r="I1107">
-        <v>314.29000000000002</v>
-      </c>
-      <c r="J1107">
-        <v>315.39</v>
-      </c>
-      <c r="K1107" s="3">
-        <v>205195</v>
-      </c>
-      <c r="L1107" s="3">
-        <v>259067</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:12">
-      <c r="A1108" s="1">
-        <v>43003</v>
-      </c>
-      <c r="B1108" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1108">
-        <v>317.14999999999998</v>
-      </c>
-      <c r="D1108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1108">
-        <v>0.05</v>
-      </c>
-      <c r="F1108">
-        <v>317.64999999999998</v>
-      </c>
-      <c r="G1108">
-        <v>317.95</v>
-      </c>
-      <c r="H1108">
-        <v>316.2</v>
-      </c>
-      <c r="I1108">
-        <v>316.39999999999998</v>
-      </c>
-      <c r="J1108">
-        <v>317.52</v>
-      </c>
-      <c r="K1108" s="3">
-        <v>154007</v>
-      </c>
-      <c r="L1108" s="3">
-        <v>263048</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:12">
-      <c r="A1109" s="1">
-        <v>43000</v>
-      </c>
-      <c r="B1109" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1109">
-        <v>317.10000000000002</v>
-      </c>
-      <c r="D1109" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1109">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F1109">
-        <v>318.95</v>
-      </c>
-      <c r="G1109">
-        <v>320.10000000000002</v>
-      </c>
-      <c r="H1109">
-        <v>316.39999999999998</v>
-      </c>
-      <c r="I1109">
-        <v>316.70999999999998</v>
-      </c>
-      <c r="J1109">
-        <v>317.88</v>
-      </c>
-      <c r="K1109" s="3">
-        <v>235346</v>
-      </c>
-      <c r="L1109" s="3">
-        <v>263204</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:12">
-      <c r="A1110" s="1">
-        <v>42999</v>
-      </c>
-      <c r="B1110" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1110">
-        <v>319.39999999999998</v>
-      </c>
-      <c r="D1110" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1110">
-        <v>0.25</v>
-      </c>
-      <c r="F1110">
-        <v>318.7</v>
-      </c>
-      <c r="G1110">
-        <v>319.85000000000002</v>
-      </c>
-      <c r="H1110">
-        <v>318.35000000000002</v>
-      </c>
-      <c r="I1110">
-        <v>318.25</v>
-      </c>
-      <c r="J1110">
-        <v>319.44</v>
-      </c>
-      <c r="K1110" s="3">
-        <v>155468</v>
-      </c>
-      <c r="L1110" s="3">
-        <v>264875</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:12">
-      <c r="A1111" s="1">
-        <v>42998</v>
-      </c>
-      <c r="B1111" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1111">
-        <v>319.14999999999998</v>
-      </c>
-      <c r="D1111" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1111">
-        <v>0.25</v>
-      </c>
-      <c r="F1111">
-        <v>320.10000000000002</v>
-      </c>
-      <c r="G1111">
-        <v>321.60000000000002</v>
-      </c>
-      <c r="H1111">
-        <v>318.14999999999998</v>
-      </c>
-      <c r="I1111">
-        <v>318.48</v>
-      </c>
-      <c r="J1111">
-        <v>319.69</v>
-      </c>
-      <c r="K1111" s="3">
-        <v>181751</v>
-      </c>
-      <c r="L1111" s="3">
-        <v>266237</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:12">
-      <c r="A1112" s="1">
-        <v>42997</v>
-      </c>
-      <c r="B1112" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1112">
-        <v>319.39999999999998</v>
-      </c>
-      <c r="D1112" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1112">
-        <v>0.65</v>
-      </c>
-      <c r="F1112">
-        <v>319.64999999999998</v>
-      </c>
-      <c r="G1112">
-        <v>320.2</v>
-      </c>
-      <c r="H1112">
-        <v>319.10000000000002</v>
-      </c>
-      <c r="I1112">
-        <v>318.51</v>
-      </c>
-      <c r="J1112">
-        <v>319.73</v>
-      </c>
-      <c r="K1112" s="3">
-        <v>125392</v>
-      </c>
-      <c r="L1112" s="3">
-        <v>266153</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:12">
-      <c r="A1113" s="1">
-        <v>42996</v>
-      </c>
-      <c r="B1113" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1113">
-        <v>320.05</v>
-      </c>
-      <c r="D1113" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1113">
-        <v>5.5</v>
-      </c>
-      <c r="F1113">
-        <v>314.85000000000002</v>
-      </c>
-      <c r="G1113">
-        <v>320.05</v>
-      </c>
-      <c r="H1113">
-        <v>314.64999999999998</v>
-      </c>
-      <c r="I1113">
-        <v>318.93</v>
-      </c>
-      <c r="J1113">
-        <v>320.17</v>
-      </c>
-      <c r="K1113" s="3">
-        <v>208085</v>
-      </c>
-      <c r="L1113" s="3">
-        <v>271074</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:12">
-      <c r="A1114" s="1">
-        <v>42993</v>
-      </c>
-      <c r="B1114" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1114">
-        <v>314.55</v>
-      </c>
-      <c r="D1114" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1114">
-        <v>0.95</v>
-      </c>
-      <c r="F1114">
-        <v>312.55</v>
-      </c>
-      <c r="G1114">
-        <v>314.60000000000002</v>
-      </c>
-      <c r="H1114">
-        <v>311.75</v>
-      </c>
-      <c r="I1114">
-        <v>313.69</v>
-      </c>
-      <c r="J1114">
-        <v>314.95999999999998</v>
-      </c>
-      <c r="K1114" s="3">
-        <v>194080</v>
-      </c>
-      <c r="L1114" s="3">
-        <v>262386</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:12">
-      <c r="A1115" s="1">
-        <v>42992</v>
-      </c>
-      <c r="B1115" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1115">
-        <v>311.60000000000002</v>
-      </c>
-      <c r="D1115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1115">
-        <v>1.7</v>
-      </c>
-      <c r="F1115">
-        <v>310.75</v>
-      </c>
-      <c r="G1115">
-        <v>311.7</v>
-      </c>
-      <c r="H1115">
-        <v>309.75</v>
-      </c>
-      <c r="I1115">
-        <v>312.52</v>
-      </c>
-      <c r="J1115">
-        <v>312.52999999999997</v>
-      </c>
-      <c r="K1115" s="3">
-        <v>223114</v>
-      </c>
-      <c r="L1115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:12">
-      <c r="A1116" s="1">
-        <v>42991</v>
-      </c>
-      <c r="B1116" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1116">
-        <v>309.89999999999998</v>
-      </c>
-      <c r="D1116" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1116">
-        <v>0.65</v>
-      </c>
-      <c r="F1116">
-        <v>311</v>
-      </c>
-      <c r="G1116">
-        <v>312.35000000000002</v>
-      </c>
-      <c r="H1116">
-        <v>309.75</v>
-      </c>
-      <c r="I1116">
-        <v>310</v>
-      </c>
-      <c r="J1116">
-        <v>310.02999999999997</v>
-      </c>
-      <c r="K1116" s="3">
-        <v>215527</v>
-      </c>
-      <c r="L1116" s="3">
-        <v>168432</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:12">
-      <c r="A1117" s="1">
-        <v>42990</v>
-      </c>
-      <c r="B1117" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1117">
-        <v>310.55</v>
-      </c>
-      <c r="D1117" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1117">
-        <v>0.05</v>
-      </c>
-      <c r="F1117">
-        <v>311.85000000000002</v>
-      </c>
-      <c r="G1117">
-        <v>311.89999999999998</v>
-      </c>
-      <c r="H1117">
-        <v>309.85000000000002</v>
-      </c>
-      <c r="I1117">
-        <v>310.42</v>
-      </c>
-      <c r="J1117">
-        <v>310.45999999999998</v>
-      </c>
-      <c r="K1117" s="3">
-        <v>154358</v>
-      </c>
-      <c r="L1117" s="3">
-        <v>210183</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:12">
-      <c r="A1118" s="1">
-        <v>42989</v>
-      </c>
-      <c r="B1118" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1118">
-        <v>310.60000000000002</v>
-      </c>
-      <c r="D1118" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1118">
-        <v>3</v>
-      </c>
-      <c r="F1118">
-        <v>308.85000000000002</v>
-      </c>
-      <c r="G1118">
-        <v>311.5</v>
-      </c>
-      <c r="H1118">
-        <v>308.64999999999998</v>
-      </c>
-      <c r="I1118">
-        <v>309.83</v>
-      </c>
-      <c r="J1118">
-        <v>309.88</v>
-      </c>
-      <c r="K1118" s="3">
-        <v>199611</v>
-      </c>
-      <c r="L1118" s="3">
-        <v>254940</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:12">
-      <c r="A1119" s="1">
-        <v>42986</v>
-      </c>
-      <c r="B1119" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1119">
-        <v>307.60000000000002</v>
-      </c>
-      <c r="D1119" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1119">
-        <v>0.05</v>
-      </c>
-      <c r="F1119">
-        <v>307.8</v>
-      </c>
-      <c r="G1119">
-        <v>308.10000000000002</v>
-      </c>
-      <c r="H1119">
-        <v>306.85000000000002</v>
-      </c>
-      <c r="I1119">
-        <v>307.43</v>
-      </c>
-      <c r="J1119">
-        <v>307.52</v>
-      </c>
-      <c r="K1119" s="3">
-        <v>117186</v>
-      </c>
-      <c r="L1119" s="3">
-        <v>289040</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:12">
-      <c r="A1120" s="1">
-        <v>42985</v>
-      </c>
-      <c r="B1120" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1120">
-        <v>307.55</v>
-      </c>
-      <c r="D1120" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1120">
-        <v>3.9</v>
-      </c>
-      <c r="F1120">
-        <v>304.55</v>
-      </c>
-      <c r="G1120">
-        <v>307.7</v>
-      </c>
-      <c r="H1120">
-        <v>304.3</v>
-      </c>
-      <c r="I1120">
-        <v>306.97000000000003</v>
-      </c>
-      <c r="J1120">
-        <v>307.07</v>
-      </c>
-      <c r="K1120" s="3">
-        <v>197147</v>
-      </c>
-      <c r="L1120" s="3">
-        <v>290655</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:12">
-      <c r="A1121" s="1">
-        <v>42984</v>
-      </c>
-      <c r="B1121" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1121">
-        <v>303.64999999999998</v>
-      </c>
-      <c r="D1121" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1121">
-        <v>0.4</v>
-      </c>
-      <c r="F1121">
-        <v>304.10000000000002</v>
-      </c>
-      <c r="G1121">
-        <v>304.2</v>
-      </c>
-      <c r="H1121">
-        <v>302.7</v>
-      </c>
-      <c r="I1121">
-        <v>303.18</v>
-      </c>
-      <c r="J1121">
-        <v>303.29000000000002</v>
-      </c>
-      <c r="K1121" s="3">
-        <v>161567</v>
-      </c>
-      <c r="L1121" s="3">
-        <v>287299</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:12">
-      <c r="A1122" s="1">
-        <v>42983</v>
-      </c>
-      <c r="B1122" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1122">
-        <v>304.05</v>
-      </c>
-      <c r="D1122" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1122">
-        <v>0.8</v>
-      </c>
-      <c r="F1122">
-        <v>305.95</v>
-      </c>
-      <c r="G1122">
-        <v>306</v>
-      </c>
-      <c r="H1122">
-        <v>303.5</v>
-      </c>
-      <c r="I1122">
-        <v>304.06</v>
-      </c>
-      <c r="J1122">
-        <v>304.19</v>
-      </c>
-      <c r="K1122" s="3">
-        <v>191694</v>
-      </c>
-      <c r="L1122" s="3">
-        <v>287878</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:12">
-      <c r="A1123" s="1">
-        <v>42982</v>
-      </c>
-      <c r="B1123" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1123">
-        <v>304.85000000000002</v>
-      </c>
-      <c r="D1123" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1123">
-        <v>2.8</v>
-      </c>
-      <c r="F1123">
-        <v>303.10000000000002</v>
-      </c>
-      <c r="G1123">
-        <v>306.60000000000002</v>
-      </c>
-      <c r="H1123">
-        <v>303</v>
-      </c>
-      <c r="I1123">
-        <v>304.19</v>
-      </c>
-      <c r="J1123">
-        <v>304.33</v>
-      </c>
-      <c r="K1123" s="3">
-        <v>219499</v>
-      </c>
-      <c r="L1123" s="3">
-        <v>290176</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:12">
-      <c r="A1124" s="1">
-        <v>42979</v>
-      </c>
-      <c r="B1124" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1124">
-        <v>307.64999999999998</v>
-      </c>
-      <c r="D1124" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1124">
-        <v>0.35</v>
-      </c>
-      <c r="F1124">
-        <v>309.10000000000002</v>
-      </c>
-      <c r="G1124">
-        <v>309.5</v>
-      </c>
-      <c r="H1124">
-        <v>306.85000000000002</v>
-      </c>
-      <c r="I1124">
-        <v>307.77999999999997</v>
-      </c>
-      <c r="J1124">
-        <v>307.95999999999998</v>
-      </c>
-      <c r="K1124" s="3">
-        <v>175475</v>
-      </c>
-      <c r="L1124" s="3">
-        <v>282351</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:12">
-      <c r="A1125" s="1">
-        <v>42978</v>
-      </c>
-      <c r="B1125" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1125">
-        <v>308</v>
-      </c>
-      <c r="D1125" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1125">
-        <v>2.35</v>
-      </c>
-      <c r="F1125">
-        <v>309.89999999999998</v>
-      </c>
-      <c r="G1125">
-        <v>310.55</v>
-      </c>
-      <c r="H1125">
-        <v>307.39999999999998</v>
-      </c>
-      <c r="I1125">
-        <v>308.27999999999997</v>
-      </c>
-      <c r="J1125">
-        <v>308.47000000000003</v>
-      </c>
-      <c r="K1125" s="3">
-        <v>173453</v>
-      </c>
-      <c r="L1125" s="3">
-        <v>280351</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:12">
-      <c r="A1126" s="1">
-        <v>42977</v>
-      </c>
-      <c r="B1126" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1126">
-        <v>310.35000000000002</v>
-      </c>
-      <c r="D1126" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1126">
-        <v>1.85</v>
-      </c>
-      <c r="F1126">
-        <v>309.5</v>
-      </c>
-      <c r="G1126">
-        <v>310.35000000000002</v>
-      </c>
-      <c r="H1126">
-        <v>308.64999999999998</v>
-      </c>
-      <c r="I1126">
-        <v>309.64999999999998</v>
-      </c>
-      <c r="J1126">
-        <v>309.86</v>
-      </c>
-      <c r="K1126" s="3">
-        <v>119325</v>
-      </c>
-      <c r="L1126" s="3">
-        <v>286335</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:12">
-      <c r="A1127" s="1">
-        <v>42976</v>
-      </c>
-      <c r="B1127" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1127">
-        <v>308.5</v>
-      </c>
-      <c r="D1127" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1127">
-        <v>1.05</v>
-      </c>
-      <c r="F1127">
-        <v>307.95</v>
-      </c>
-      <c r="G1127">
-        <v>309.10000000000002</v>
-      </c>
-      <c r="H1127">
-        <v>304.45</v>
-      </c>
-      <c r="I1127">
-        <v>308.64</v>
-      </c>
-      <c r="J1127">
-        <v>308.86</v>
-      </c>
-      <c r="K1127" s="3">
-        <v>278950</v>
-      </c>
-      <c r="L1127" s="3">
-        <v>285540</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:12">
-      <c r="A1128" s="1">
-        <v>42975</v>
-      </c>
-      <c r="B1128" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1128">
-        <v>309.55</v>
-      </c>
-      <c r="D1128" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1128">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="F1128">
-        <v>311.10000000000002</v>
-      </c>
-      <c r="G1128">
-        <v>312.05</v>
-      </c>
-      <c r="H1128">
-        <v>309.35000000000002</v>
-      </c>
-      <c r="I1128">
-        <v>309.52999999999997</v>
-      </c>
-      <c r="J1128">
-        <v>309.76</v>
-      </c>
-      <c r="K1128" s="3">
-        <v>161149</v>
-      </c>
-      <c r="L1128" s="3">
-        <v>289825</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:12">
-      <c r="A1129" s="1">
-        <v>42972</v>
-      </c>
-      <c r="B1129" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1129">
-        <v>311.60000000000002</v>
-      </c>
-      <c r="D1129" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1129">
-        <v>0.15</v>
-      </c>
-      <c r="F1129">
-        <v>312.25</v>
-      </c>
-      <c r="G1129">
-        <v>312.55</v>
-      </c>
-      <c r="H1129">
-        <v>310.75</v>
-      </c>
-      <c r="I1129">
-        <v>311.20999999999998</v>
-      </c>
-      <c r="J1129">
-        <v>311.48</v>
-      </c>
-      <c r="K1129" s="3">
-        <v>179932</v>
-      </c>
-      <c r="L1129" s="3">
-        <v>289382</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:12">
-      <c r="A1130" s="1">
-        <v>42971</v>
-      </c>
-      <c r="B1130" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1130">
-        <v>311.45</v>
-      </c>
-      <c r="D1130" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1130">
-        <v>1.5</v>
-      </c>
-      <c r="F1130">
-        <v>310</v>
-      </c>
-      <c r="G1130">
-        <v>312.05</v>
-      </c>
-      <c r="H1130">
-        <v>309.95</v>
-      </c>
-      <c r="I1130">
-        <v>310.73</v>
-      </c>
-      <c r="J1130">
-        <v>311.02</v>
-      </c>
-      <c r="K1130" s="3">
-        <v>168399</v>
-      </c>
-      <c r="L1130" s="3">
-        <v>288918</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:12">
-      <c r="A1131" s="1">
-        <v>42970</v>
-      </c>
-      <c r="B1131" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1131">
-        <v>309.95</v>
-      </c>
-      <c r="D1131" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1131">
-        <v>0.1</v>
-      </c>
-      <c r="F1131">
-        <v>311.5</v>
-      </c>
-      <c r="G1131">
-        <v>311.7</v>
-      </c>
-      <c r="H1131">
-        <v>309.25</v>
-      </c>
-      <c r="I1131">
-        <v>309.70999999999998</v>
-      </c>
-      <c r="J1131">
-        <v>310.01</v>
-      </c>
-      <c r="K1131" s="3">
-        <v>148411</v>
-      </c>
-      <c r="L1131" s="3">
-        <v>291378</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:12">
-      <c r="A1132" s="1">
-        <v>42969</v>
-      </c>
-      <c r="B1132" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1132">
-        <v>310.05</v>
-      </c>
-      <c r="D1132" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1132">
-        <v>1.65</v>
-      </c>
-      <c r="F1132">
-        <v>308.89999999999998</v>
-      </c>
-      <c r="G1132">
-        <v>310.35000000000002</v>
-      </c>
-      <c r="H1132">
-        <v>308.89999999999998</v>
-      </c>
-      <c r="I1132">
-        <v>309.33999999999997</v>
-      </c>
-      <c r="J1132">
-        <v>309.64999999999998</v>
-      </c>
-      <c r="K1132" s="3">
-        <v>153587</v>
-      </c>
-      <c r="L1132" s="3">
-        <v>288561</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:12">
-      <c r="A1133" s="1">
-        <v>42968</v>
-      </c>
-      <c r="B1133" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1133">
-        <v>308.39999999999998</v>
-      </c>
-      <c r="D1133" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1133">
-        <v>0.7</v>
-      </c>
-      <c r="F1133">
-        <v>309.75</v>
-      </c>
-      <c r="G1133">
-        <v>309.8</v>
-      </c>
-      <c r="H1133">
-        <v>307.89999999999998</v>
-      </c>
-      <c r="I1133">
-        <v>308.14</v>
-      </c>
-      <c r="J1133">
-        <v>308.45999999999998</v>
-      </c>
-      <c r="K1133" s="3">
-        <v>147682</v>
-      </c>
-      <c r="L1133" s="3">
-        <v>288256</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:12">
-      <c r="A1134" s="1">
-        <v>42965</v>
-      </c>
-      <c r="B1134" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1134">
-        <v>309.10000000000002</v>
-      </c>
-      <c r="D1134" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1134">
-        <v>0.15</v>
-      </c>
-      <c r="F1134">
-        <v>306.5</v>
-      </c>
-      <c r="G1134">
-        <v>309.3</v>
-      </c>
-      <c r="H1134">
-        <v>306.3</v>
-      </c>
-      <c r="I1134">
-        <v>308.39</v>
-      </c>
-      <c r="J1134">
-        <v>308.75</v>
-      </c>
-      <c r="K1134" s="3">
-        <v>178616</v>
-      </c>
-      <c r="L1134" s="3">
-        <v>290254</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:12">
-      <c r="A1135" s="1">
-        <v>42964</v>
-      </c>
-      <c r="B1135" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1135">
-        <v>309.25</v>
-      </c>
-      <c r="D1135" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1135">
-        <v>1.65</v>
-      </c>
-      <c r="F1135">
-        <v>308.2</v>
-      </c>
-      <c r="G1135">
-        <v>309.85000000000002</v>
-      </c>
-      <c r="H1135">
-        <v>307.3</v>
-      </c>
-      <c r="I1135">
-        <v>309.02</v>
-      </c>
-      <c r="J1135">
-        <v>309.39999999999998</v>
-      </c>
-      <c r="K1135" s="3">
-        <v>193569</v>
-      </c>
-      <c r="L1135" s="3">
-        <v>290598</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:12">
-      <c r="A1136" s="1">
-        <v>42963</v>
-      </c>
-      <c r="B1136" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1136">
-        <v>307.60000000000002</v>
-      </c>
-      <c r="D1136" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1136">
-        <v>1.65</v>
-      </c>
-      <c r="F1136">
-        <v>308.75</v>
-      </c>
-      <c r="G1136">
-        <v>309.14999999999998</v>
-      </c>
-      <c r="H1136">
-        <v>307.10000000000002</v>
-      </c>
-      <c r="I1136">
-        <v>307.16000000000003</v>
-      </c>
-      <c r="J1136">
-        <v>307.55</v>
-      </c>
-      <c r="K1136" s="3">
-        <v>171426</v>
-      </c>
-      <c r="L1136" s="3">
-        <v>288252</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:12">
-      <c r="A1137" s="1">
-        <v>42961</v>
-      </c>
-      <c r="B1137" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1137">
-        <v>305.95</v>
-      </c>
-      <c r="D1137" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1137">
-        <v>3.1</v>
-      </c>
-      <c r="F1137">
-        <v>305.2</v>
-      </c>
-      <c r="G1137">
-        <v>306.39999999999998</v>
-      </c>
-      <c r="H1137">
-        <v>304.45</v>
-      </c>
-      <c r="I1137">
-        <v>304.93</v>
-      </c>
-      <c r="J1137">
-        <v>305.33999999999997</v>
-      </c>
-      <c r="K1137" s="3">
-        <v>179096</v>
-      </c>
-      <c r="L1137" s="3">
-        <v>281911</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:12">
-      <c r="A1138" s="1">
-        <v>42958</v>
-      </c>
-      <c r="B1138" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1138">
-        <v>302.85000000000002</v>
-      </c>
-      <c r="D1138" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1138">
-        <v>5.75</v>
-      </c>
-      <c r="F1138">
-        <v>303.89999999999998</v>
-      </c>
-      <c r="G1138">
-        <v>305.39999999999998</v>
-      </c>
-      <c r="H1138">
-        <v>302.3</v>
-      </c>
-      <c r="I1138">
-        <v>302.72000000000003</v>
-      </c>
-      <c r="J1138">
-        <v>303.17</v>
-      </c>
-      <c r="K1138" s="3">
-        <v>289680</v>
-      </c>
-      <c r="L1138" s="3">
-        <v>284492</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:12">
-      <c r="A1139" s="1">
-        <v>42957</v>
-      </c>
-      <c r="B1139" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1139">
-        <v>308.60000000000002</v>
-      </c>
-      <c r="D1139" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1139">
-        <v>1.4</v>
-      </c>
-      <c r="F1139">
-        <v>309</v>
-      </c>
-      <c r="G1139">
-        <v>310.35000000000002</v>
-      </c>
-      <c r="H1139">
-        <v>306.39999999999998</v>
-      </c>
-      <c r="I1139">
-        <v>308.37</v>
-      </c>
-      <c r="J1139">
-        <v>308.83999999999997</v>
-      </c>
-      <c r="K1139" s="3">
-        <v>375099</v>
-      </c>
-      <c r="L1139" s="3">
-        <v>270127</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:12">
-      <c r="A1140" s="1">
-        <v>42956</v>
-      </c>
-      <c r="B1140" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1140">
-        <v>310</v>
-      </c>
-      <c r="D1140" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1140">
-        <v>4.2</v>
-      </c>
-      <c r="F1140">
-        <v>311.7</v>
-      </c>
-      <c r="G1140">
-        <v>312.7</v>
-      </c>
-      <c r="H1140">
-        <v>309.64999999999998</v>
-      </c>
-      <c r="I1140">
-        <v>309.52</v>
-      </c>
-      <c r="J1140">
-        <v>310.01</v>
-      </c>
-      <c r="K1140" s="3">
-        <v>272029</v>
-      </c>
-      <c r="L1140" s="3">
-        <v>268711</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:12">
-      <c r="A1141" s="1">
-        <v>42955</v>
-      </c>
-      <c r="B1141" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1141">
-        <v>314.2</v>
-      </c>
-      <c r="D1141" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1141">
-        <v>0.05</v>
-      </c>
-      <c r="F1141">
-        <v>315.10000000000002</v>
-      </c>
-      <c r="G1141">
-        <v>316.2</v>
-      </c>
-      <c r="H1141">
-        <v>312.25</v>
-      </c>
-      <c r="I1141">
-        <v>313.39999999999998</v>
-      </c>
-      <c r="J1141">
-        <v>313.91000000000003</v>
-      </c>
-      <c r="K1141" s="3">
-        <v>258916</v>
-      </c>
-      <c r="L1141" s="3">
-        <v>267006</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:12">
-      <c r="A1142" s="1">
-        <v>42954</v>
-      </c>
-      <c r="B1142" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1142">
-        <v>314.25</v>
-      </c>
-      <c r="D1142" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1142">
-        <v>0.05</v>
-      </c>
-      <c r="F1142">
-        <v>314.64999999999998</v>
-      </c>
-      <c r="G1142">
-        <v>316.3</v>
-      </c>
-      <c r="H1142">
-        <v>314.10000000000002</v>
-      </c>
-      <c r="I1142">
-        <v>313.95999999999998</v>
-      </c>
-      <c r="J1142">
-        <v>314.48</v>
-      </c>
-      <c r="K1142" s="3">
-        <v>190281</v>
-      </c>
-      <c r="L1142" s="3">
-        <v>268272</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:12">
-      <c r="A1143" s="1">
-        <v>42951</v>
-      </c>
-      <c r="B1143" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1143">
-        <v>314.2</v>
-      </c>
-      <c r="D1143" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1143">
-        <v>1.2</v>
-      </c>
-      <c r="F1143">
-        <v>312.89999999999998</v>
-      </c>
-      <c r="G1143">
-        <v>314.89999999999998</v>
-      </c>
-      <c r="H1143">
-        <v>312.55</v>
-      </c>
-      <c r="I1143">
-        <v>313.45999999999998</v>
-      </c>
-      <c r="J1143">
-        <v>314.02</v>
-      </c>
-      <c r="K1143" s="3">
-        <v>218550</v>
-      </c>
-      <c r="L1143" s="3">
-        <v>267775</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:12">
-      <c r="A1144" s="1">
-        <v>42950</v>
-      </c>
-      <c r="B1144" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1144">
-        <v>313</v>
-      </c>
-      <c r="D1144" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1144">
-        <v>5.5</v>
-      </c>
-      <c r="F1144">
-        <v>317.55</v>
-      </c>
-      <c r="G1144">
-        <v>317.64999999999998</v>
-      </c>
-      <c r="H1144">
-        <v>310.7</v>
-      </c>
-      <c r="I1144">
-        <v>312.29000000000002</v>
-      </c>
-      <c r="J1144">
-        <v>312.87</v>
-      </c>
-      <c r="K1144" s="3">
-        <v>369407</v>
-      </c>
-      <c r="L1144" s="3">
-        <v>273271</v>
-      </c>
-    </row>
-    <row r="1145" spans="1:12">
-      <c r="A1145" s="1">
-        <v>42949</v>
-      </c>
-      <c r="B1145" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1145">
-        <v>318.5</v>
-      </c>
-      <c r="D1145" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1145">
-        <v>0.6</v>
-      </c>
-      <c r="F1145">
-        <v>318.75</v>
-      </c>
-      <c r="G1145">
-        <v>319.45</v>
-      </c>
-      <c r="H1145">
-        <v>318.10000000000002</v>
-      </c>
-      <c r="I1145">
-        <v>317.69</v>
-      </c>
-      <c r="J1145">
-        <v>318.29000000000002</v>
-      </c>
-      <c r="K1145" s="3">
-        <v>129388</v>
-      </c>
-      <c r="L1145" s="3">
-        <v>270284</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:12">
-      <c r="A1146" s="1">
-        <v>42948</v>
-      </c>
-      <c r="B1146" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1146">
-        <v>317.89999999999998</v>
-      </c>
-      <c r="D1146" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1146">
-        <v>3</v>
-      </c>
-      <c r="F1146">
-        <v>314.14999999999998</v>
-      </c>
-      <c r="G1146">
-        <v>319.45</v>
-      </c>
-      <c r="H1146">
-        <v>313.85000000000002</v>
-      </c>
-      <c r="I1146">
-        <v>317.04000000000002</v>
-      </c>
-      <c r="J1146">
-        <v>317.64999999999998</v>
-      </c>
-      <c r="K1146" s="3">
-        <v>268590</v>
-      </c>
-      <c r="L1146" s="3">
-        <v>270320</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:12">
-      <c r="A1147" s="1">
-        <v>42947</v>
-      </c>
-      <c r="B1147" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1147">
-        <v>314.89999999999998</v>
-      </c>
-      <c r="D1147" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1147">
-        <v>1</v>
-      </c>
-      <c r="F1147">
-        <v>313.35000000000002</v>
-      </c>
-      <c r="G1147">
-        <v>315.5</v>
-      </c>
-      <c r="H1147">
-        <v>313.25</v>
-      </c>
-      <c r="I1147">
-        <v>314.60000000000002</v>
-      </c>
-      <c r="J1147">
-        <v>315.22000000000003</v>
-      </c>
-      <c r="K1147" s="3">
-        <v>199083</v>
-      </c>
-      <c r="L1147" s="3">
-        <v>275522</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:12">
-      <c r="A1148" s="1">
-        <v>42944</v>
-      </c>
-      <c r="B1148" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1148">
-        <v>313.89999999999998</v>
-      </c>
-      <c r="D1148" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1148">
-        <v>7.3</v>
-      </c>
-      <c r="F1148">
-        <v>320</v>
-      </c>
-      <c r="G1148">
-        <v>320.2</v>
-      </c>
-      <c r="H1148">
-        <v>313.89999999999998</v>
-      </c>
-      <c r="I1148">
-        <v>314.13</v>
-      </c>
-      <c r="J1148">
-        <v>314.79000000000002</v>
-      </c>
-      <c r="K1148" s="3">
-        <v>315478</v>
-      </c>
-      <c r="L1148" s="3">
-        <v>277258</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:12">
-      <c r="A1149" s="1">
-        <v>42943</v>
-      </c>
-      <c r="B1149" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1149">
-        <v>321.2</v>
-      </c>
-      <c r="D1149" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1149">
-        <v>0.9</v>
-      </c>
-      <c r="F1149">
-        <v>321.2</v>
-      </c>
-      <c r="G1149">
-        <v>322.14999999999998</v>
-      </c>
-      <c r="H1149">
-        <v>320.35000000000002</v>
-      </c>
-      <c r="I1149">
-        <v>320.51</v>
-      </c>
-      <c r="J1149">
-        <v>321.2</v>
-      </c>
-      <c r="K1149" s="3">
-        <v>178263</v>
-      </c>
-      <c r="L1149" s="3">
-        <v>276357</v>
-      </c>
-    </row>
-    <row r="1150" spans="1:12">
-      <c r="A1150" s="1">
-        <v>42942</v>
-      </c>
-      <c r="B1150" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1150">
-        <v>320.3</v>
-      </c>
-      <c r="D1150" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1150">
-        <v>0.7</v>
-      </c>
-      <c r="F1150">
-        <v>321.45</v>
-      </c>
-      <c r="G1150">
-        <v>321.60000000000002</v>
-      </c>
-      <c r="H1150">
-        <v>319.5</v>
-      </c>
-      <c r="I1150">
-        <v>319.45999999999998</v>
-      </c>
-      <c r="J1150">
-        <v>320.16000000000003</v>
-      </c>
-      <c r="K1150" s="3">
-        <v>206966</v>
-      </c>
-      <c r="L1150" s="3">
-        <v>275822</v>
-      </c>
-    </row>
-    <row r="1151" spans="1:12">
-      <c r="A1151" s="1">
-        <v>42941</v>
-      </c>
-      <c r="B1151" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1151">
-        <v>321</v>
-      </c>
-      <c r="D1151" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1151">
-        <v>1.6</v>
-      </c>
-      <c r="F1151">
-        <v>322.55</v>
-      </c>
-      <c r="G1151">
-        <v>322.75</v>
-      </c>
-      <c r="H1151">
-        <v>320.7</v>
-      </c>
-      <c r="I1151">
-        <v>320.14999999999998</v>
-      </c>
-      <c r="J1151">
-        <v>320.87</v>
-      </c>
-      <c r="K1151" s="3">
-        <v>139018</v>
-      </c>
-      <c r="L1151" s="3">
-        <v>276333</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:12">
-      <c r="A1152" s="1">
-        <v>42940</v>
-      </c>
-      <c r="B1152" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1152">
-        <v>322.60000000000002</v>
-      </c>
-      <c r="D1152" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1152">
-        <v>0.15</v>
-      </c>
-      <c r="F1152">
-        <v>322.55</v>
-      </c>
-      <c r="G1152">
-        <v>322.64999999999998</v>
-      </c>
-      <c r="H1152">
-        <v>321.64999999999998</v>
-      </c>
-      <c r="I1152">
-        <v>322.01</v>
-      </c>
-      <c r="J1152">
-        <v>322.75</v>
-      </c>
-      <c r="K1152" s="3">
-        <v>98286</v>
-      </c>
-      <c r="L1152" s="3">
-        <v>275880</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:12">
-      <c r="A1153" s="1">
-        <v>42937</v>
-      </c>
-      <c r="B1153" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1153">
-        <v>322.45</v>
-      </c>
-      <c r="D1153" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1153">
-        <v>1.5</v>
-      </c>
-      <c r="F1153">
-        <v>320.7</v>
-      </c>
-      <c r="G1153">
-        <v>322.64999999999998</v>
-      </c>
-      <c r="H1153">
-        <v>320.7</v>
-      </c>
-      <c r="I1153">
-        <v>321.79000000000002</v>
-      </c>
-      <c r="J1153">
-        <v>322.57</v>
-      </c>
-      <c r="K1153" s="3">
-        <v>153155</v>
-      </c>
-      <c r="L1153" s="3">
-        <v>276442</v>
-      </c>
-    </row>
-    <row r="1154" spans="1:12">
-      <c r="A1154" s="1">
-        <v>42936</v>
-      </c>
-      <c r="B1154" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1154">
-        <v>320.95</v>
-      </c>
-      <c r="D1154" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1154">
-        <v>0.9</v>
-      </c>
-      <c r="F1154">
-        <v>320.55</v>
-      </c>
-      <c r="G1154">
-        <v>321.55</v>
-      </c>
-      <c r="H1154">
-        <v>319.55</v>
-      </c>
-      <c r="I1154">
-        <v>320.61</v>
-      </c>
-      <c r="J1154">
-        <v>321.41000000000003</v>
-      </c>
-      <c r="K1154" s="3">
-        <v>122473</v>
-      </c>
-      <c r="L1154" s="3">
-        <v>272556</v>
-      </c>
-    </row>
-    <row r="1155" spans="1:12">
-      <c r="A1155" s="1">
-        <v>42935</v>
-      </c>
-      <c r="B1155" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1155">
-        <v>320.05</v>
-      </c>
-      <c r="D1155" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1155">
-        <v>0.65</v>
-      </c>
-      <c r="F1155">
-        <v>319.8</v>
-      </c>
-      <c r="G1155">
-        <v>320.05</v>
-      </c>
-      <c r="H1155">
-        <v>318.39999999999998</v>
-      </c>
-      <c r="I1155">
-        <v>318.91000000000003</v>
-      </c>
-      <c r="J1155">
-        <v>319.72000000000003</v>
-      </c>
-      <c r="K1155" s="3">
-        <v>145202</v>
-      </c>
-      <c r="L1155" s="3">
-        <v>271271</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:12">
-      <c r="A1156" s="1">
-        <v>42934</v>
-      </c>
-      <c r="B1156" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1156">
-        <v>319.39999999999998</v>
-      </c>
-      <c r="D1156" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1156">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F1156">
-        <v>319.14999999999998</v>
-      </c>
-      <c r="G1156">
-        <v>319.39999999999998</v>
-      </c>
-      <c r="H1156">
-        <v>318.45</v>
-      </c>
-      <c r="I1156">
-        <v>318.64999999999998</v>
-      </c>
-      <c r="J1156">
-        <v>319.47000000000003</v>
-      </c>
-      <c r="K1156" s="3">
-        <v>113234</v>
-      </c>
-      <c r="L1156" s="3">
-        <v>270474</v>
-      </c>
-    </row>
-    <row r="1157" spans="1:12">
-      <c r="A1157" s="1">
-        <v>42933</v>
-      </c>
-      <c r="B1157" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1157">
-        <v>318.85000000000002</v>
-      </c>
-      <c r="D1157" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1157">
-        <v>0.8</v>
-      </c>
-      <c r="F1157">
-        <v>320.05</v>
-      </c>
-      <c r="G1157">
-        <v>320.3</v>
-      </c>
-      <c r="H1157">
-        <v>318.64999999999998</v>
-      </c>
-      <c r="I1157">
-        <v>318.52</v>
-      </c>
-      <c r="J1157">
-        <v>319.36</v>
-      </c>
-      <c r="K1157" s="3">
-        <v>140600</v>
-      </c>
-      <c r="L1157" s="3">
-        <v>273543</v>
-      </c>
-    </row>
-    <row r="1158" spans="1:12">
-      <c r="A1158" s="1">
-        <v>42930</v>
-      </c>
-      <c r="B1158" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1158">
-        <v>318.05</v>
-      </c>
-      <c r="D1158" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1158">
-        <v>0.15</v>
-      </c>
-      <c r="F1158">
-        <v>318.35000000000002</v>
-      </c>
-      <c r="G1158">
-        <v>318.8</v>
-      </c>
-      <c r="H1158">
-        <v>317.64999999999998</v>
-      </c>
-      <c r="I1158">
-        <v>317.35000000000002</v>
-      </c>
-      <c r="J1158">
-        <v>318.23</v>
-      </c>
-      <c r="K1158" s="3">
-        <v>130849</v>
-      </c>
-      <c r="L1158" s="3">
-        <v>273056</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:12">
-      <c r="A1159" s="1">
-        <v>42929</v>
-      </c>
-      <c r="B1159" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1159">
-        <v>317.89999999999998</v>
-      </c>
-      <c r="D1159" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1159">
-        <v>3.95</v>
-      </c>
-      <c r="F1159">
-        <v>315.85000000000002</v>
-      </c>
-      <c r="G1159">
-        <v>319.10000000000002</v>
-      </c>
-      <c r="H1159">
-        <v>315.75</v>
-      </c>
-      <c r="I1159">
-        <v>316.35000000000002</v>
-      </c>
-      <c r="J1159">
-        <v>317.24</v>
-      </c>
-      <c r="K1159" s="3">
-        <v>289039</v>
-      </c>
-      <c r="L1159" s="3">
-        <v>270548</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:12">
-      <c r="A1160" s="1">
-        <v>42928</v>
-      </c>
-      <c r="B1160" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1160">
-        <v>313.95</v>
-      </c>
-      <c r="D1160" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1160">
-        <v>0.1</v>
-      </c>
-      <c r="F1160">
-        <v>314.10000000000002</v>
-      </c>
-      <c r="G1160">
-        <v>314.85000000000002</v>
-      </c>
-      <c r="H1160">
-        <v>313.75</v>
-      </c>
-      <c r="I1160">
-        <v>313.58</v>
-      </c>
-      <c r="J1160">
-        <v>314.48</v>
-      </c>
-      <c r="K1160" s="3">
-        <v>145850</v>
-      </c>
-      <c r="L1160" s="3">
-        <v>272883</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:12">
-      <c r="A1161" s="1">
-        <v>42927</v>
-      </c>
-      <c r="B1161" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1161">
-        <v>314.05</v>
-      </c>
-      <c r="D1161" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1161">
-        <v>1.9</v>
-      </c>
-      <c r="F1161">
-        <v>312.75</v>
-      </c>
-      <c r="G1161">
-        <v>314.35000000000002</v>
-      </c>
-      <c r="H1161">
-        <v>312.35000000000002</v>
-      </c>
-      <c r="I1161">
-        <v>313.58999999999997</v>
-      </c>
-      <c r="J1161">
-        <v>314.5</v>
-      </c>
-      <c r="K1161" s="3">
-        <v>172693</v>
-      </c>
-      <c r="L1161" s="3">
-        <v>273081</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:12">
-      <c r="A1162" s="1">
-        <v>42926</v>
-      </c>
-      <c r="B1162" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1162">
-        <v>312.14999999999998</v>
-      </c>
-      <c r="D1162" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1162">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F1162">
-        <v>312.39999999999998</v>
-      </c>
-      <c r="G1162">
-        <v>313.3</v>
-      </c>
-      <c r="H1162">
-        <v>311.5</v>
-      </c>
-      <c r="I1162">
-        <v>311.45999999999998</v>
-      </c>
-      <c r="J1162">
-        <v>312.38</v>
-      </c>
-      <c r="K1162" s="3">
-        <v>159039</v>
-      </c>
-      <c r="L1162" s="3">
-        <v>274729</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:12">
-      <c r="A1163" s="1">
-        <v>42923</v>
-      </c>
-      <c r="B1163" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1163">
-        <v>311.60000000000002</v>
-      </c>
-      <c r="D1163" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1163">
-        <v>0.85</v>
-      </c>
-      <c r="F1163">
-        <v>311.05</v>
-      </c>
-      <c r="G1163">
-        <v>312.14999999999998</v>
-      </c>
-      <c r="H1163">
-        <v>310.45</v>
-      </c>
-      <c r="I1163">
-        <v>310.66000000000003</v>
-      </c>
-      <c r="J1163">
-        <v>311.62</v>
-      </c>
-      <c r="K1163" s="3">
-        <v>158128</v>
-      </c>
-      <c r="L1163" s="3">
-        <v>273210</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:12">
-      <c r="A1164" s="1">
-        <v>42922</v>
-      </c>
-      <c r="B1164" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1164">
-        <v>312.45</v>
-      </c>
-      <c r="D1164" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1164">
-        <v>0</v>
-      </c>
-      <c r="F1164">
-        <v>313.25</v>
-      </c>
-      <c r="G1164">
-        <v>313.3</v>
-      </c>
-      <c r="H1164">
-        <v>311.55</v>
-      </c>
-      <c r="I1164">
-        <v>311.88</v>
-      </c>
-      <c r="J1164">
-        <v>312.86</v>
-      </c>
-      <c r="K1164" s="3">
-        <v>155525</v>
-      </c>
-      <c r="L1164" s="3">
-        <v>271114</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:12">
-      <c r="A1165" s="1">
-        <v>42921</v>
-      </c>
-      <c r="B1165" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1165">
-        <v>312.45</v>
-      </c>
-      <c r="D1165" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1165">
-        <v>1.45</v>
-      </c>
-      <c r="F1165">
-        <v>310.60000000000002</v>
-      </c>
-      <c r="G1165">
-        <v>312.8</v>
-      </c>
-      <c r="H1165">
-        <v>310.35000000000002</v>
-      </c>
-      <c r="I1165">
-        <v>311.77</v>
-      </c>
-      <c r="J1165">
-        <v>312.76</v>
-      </c>
-      <c r="K1165" s="3">
-        <v>177293</v>
-      </c>
-      <c r="L1165" s="3">
-        <v>266732</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:12">
-      <c r="A1166" s="1">
-        <v>42920</v>
-      </c>
-      <c r="B1166" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1166">
-        <v>311</v>
-      </c>
-      <c r="D1166" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1166">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F1166">
-        <v>313.3</v>
-      </c>
-      <c r="G1166">
-        <v>313.60000000000002</v>
-      </c>
-      <c r="H1166">
-        <v>310.85000000000002</v>
-      </c>
-      <c r="I1166">
-        <v>310.45999999999998</v>
-      </c>
-      <c r="J1166">
-        <v>311.45999999999998</v>
-      </c>
-      <c r="K1166" s="3">
-        <v>214043</v>
-      </c>
-      <c r="L1166" s="3">
-        <v>269927</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:12">
-      <c r="A1167" s="1">
-        <v>42919</v>
-      </c>
-      <c r="B1167" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1167">
-        <v>313.3</v>
-      </c>
-      <c r="D1167" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1167">
-        <v>0.4</v>
-      </c>
-      <c r="F1167">
-        <v>313.25</v>
-      </c>
-      <c r="G1167">
-        <v>313.64999999999998</v>
-      </c>
-      <c r="H1167">
-        <v>311.8</v>
-      </c>
-      <c r="I1167">
-        <v>312.39</v>
-      </c>
-      <c r="J1167">
-        <v>313.42</v>
-      </c>
-      <c r="K1167" s="3">
-        <v>144305</v>
-      </c>
-      <c r="L1167" s="3">
-        <v>267581</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:12">
-      <c r="A1168" s="1">
-        <v>42916</v>
-      </c>
-      <c r="B1168" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1168">
-        <v>312.89999999999998</v>
-      </c>
-      <c r="D1168" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1168">
-        <v>0.8</v>
-      </c>
-      <c r="F1168">
-        <v>311.45</v>
-      </c>
-      <c r="G1168">
-        <v>312.89999999999998</v>
-      </c>
-      <c r="H1168">
-        <v>311.2</v>
-      </c>
-      <c r="I1168">
-        <v>311.76</v>
-      </c>
-      <c r="J1168">
-        <v>312.83</v>
-      </c>
-      <c r="K1168" s="3">
-        <v>155268</v>
-      </c>
-      <c r="L1168" s="3">
-        <v>265111</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:12">
-      <c r="A1169" s="1">
-        <v>42915</v>
-      </c>
-      <c r="B1169" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1169">
-        <v>313.7</v>
-      </c>
-      <c r="D1169" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1169">
-        <v>2.1</v>
-      </c>
-      <c r="F1169">
-        <v>313.2</v>
-      </c>
-      <c r="G1169">
-        <v>314.60000000000002</v>
-      </c>
-      <c r="H1169">
-        <v>313.10000000000002</v>
-      </c>
-      <c r="I1169">
-        <v>312.56</v>
-      </c>
-      <c r="J1169">
-        <v>313.64999999999998</v>
-      </c>
-      <c r="K1169" s="3">
-        <v>158749</v>
-      </c>
-      <c r="L1169" s="3">
-        <v>266482</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:12">
-      <c r="A1170" s="1">
-        <v>42914</v>
-      </c>
-      <c r="B1170" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1170">
-        <v>311.60000000000002</v>
-      </c>
-      <c r="D1170" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1170">
-        <v>0.85</v>
-      </c>
-      <c r="F1170">
-        <v>311</v>
-      </c>
-      <c r="G1170">
-        <v>312.35000000000002</v>
-      </c>
-      <c r="H1170">
-        <v>310.85000000000002</v>
-      </c>
-      <c r="I1170">
-        <v>310.83999999999997</v>
-      </c>
-      <c r="J1170">
-        <v>311.76</v>
-      </c>
-      <c r="K1170" s="3">
-        <v>157937</v>
-      </c>
-      <c r="L1170" s="3">
-        <v>265494</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:12">
-      <c r="A1171" s="1">
-        <v>42913</v>
-      </c>
-      <c r="B1171" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1171">
-        <v>312.45</v>
-      </c>
-      <c r="D1171" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1171">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F1171">
-        <v>311.75</v>
-      </c>
-      <c r="G1171">
-        <v>313.3</v>
-      </c>
-      <c r="H1171">
-        <v>311.60000000000002</v>
-      </c>
-      <c r="I1171">
-        <v>312.12</v>
-      </c>
-      <c r="J1171">
-        <v>313.06</v>
-      </c>
-      <c r="K1171" s="3">
-        <v>138270</v>
-      </c>
-      <c r="L1171" s="3">
-        <v>266892</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:12">
-      <c r="A1172" s="1">
-        <v>42912</v>
-      </c>
-      <c r="B1172" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1172">
-        <v>311.89999999999998</v>
-      </c>
-      <c r="D1172" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1172">
-        <v>1.3</v>
-      </c>
-      <c r="F1172">
-        <v>311</v>
-      </c>
-      <c r="G1172">
-        <v>312.64999999999998</v>
-      </c>
-      <c r="H1172">
-        <v>310.7</v>
-      </c>
-      <c r="I1172">
-        <v>311.89</v>
-      </c>
-      <c r="J1172">
-        <v>312.83999999999997</v>
-      </c>
-      <c r="K1172" s="3">
-        <v>159320</v>
-      </c>
-      <c r="L1172" s="3">
-        <v>269716</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:12">
-      <c r="A1173" s="1">
-        <v>42909</v>
-      </c>
-      <c r="B1173" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1173">
-        <v>310.60000000000002</v>
-      </c>
-      <c r="D1173" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1173">
-        <v>0.7</v>
-      </c>
-      <c r="F1173">
-        <v>309.7</v>
-      </c>
-      <c r="G1173">
-        <v>311.2</v>
-      </c>
-      <c r="H1173">
-        <v>309.5</v>
-      </c>
-      <c r="I1173">
-        <v>310.26</v>
-      </c>
-      <c r="J1173">
-        <v>311.25</v>
-      </c>
-      <c r="K1173" s="3">
-        <v>161929</v>
-      </c>
-      <c r="L1173" s="3">
-        <v>265767</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:12">
-      <c r="A1174" s="1">
-        <v>42908</v>
-      </c>
-      <c r="B1174" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1174">
-        <v>309.89999999999998</v>
-      </c>
-      <c r="D1174" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1174">
-        <v>1.75</v>
-      </c>
-      <c r="F1174">
-        <v>308.7</v>
-      </c>
-      <c r="G1174">
-        <v>310</v>
-      </c>
-      <c r="H1174">
-        <v>307.8</v>
-      </c>
-      <c r="I1174">
-        <v>309.47000000000003</v>
-      </c>
-      <c r="J1174">
-        <v>310.47000000000003</v>
-      </c>
-      <c r="K1174" s="3">
-        <v>150447</v>
-      </c>
-      <c r="L1174" s="3">
-        <v>264953</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:12">
-      <c r="A1175" s="1">
-        <v>42907</v>
-      </c>
-      <c r="B1175" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1175">
-        <v>308.14999999999998</v>
-      </c>
-      <c r="D1175" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1175">
-        <v>1.3</v>
-      </c>
-      <c r="F1175">
-        <v>308</v>
-      </c>
-      <c r="G1175">
-        <v>308.45</v>
-      </c>
-      <c r="H1175">
-        <v>306.64999999999998</v>
-      </c>
-      <c r="I1175">
-        <v>307.52</v>
-      </c>
-      <c r="J1175">
-        <v>308.52999999999997</v>
-      </c>
-      <c r="K1175" s="3">
-        <v>193274</v>
-      </c>
-      <c r="L1175" s="3">
-        <v>263024</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:12">
-      <c r="A1176" s="1">
-        <v>42906</v>
-      </c>
-      <c r="B1176" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1176">
-        <v>309.45</v>
-      </c>
-      <c r="D1176" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1176">
-        <v>0.3</v>
-      </c>
-      <c r="F1176">
-        <v>310.5</v>
-      </c>
-      <c r="G1176">
-        <v>310.8</v>
-      </c>
-      <c r="H1176">
-        <v>309.14999999999998</v>
-      </c>
-      <c r="I1176">
-        <v>309.31</v>
-      </c>
-      <c r="J1176">
-        <v>310.33999999999997</v>
-      </c>
-      <c r="K1176" s="3">
-        <v>156753</v>
-      </c>
-      <c r="L1176" s="3">
-        <v>258117</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:12">
-      <c r="A1177" s="1">
-        <v>42905</v>
-      </c>
-      <c r="B1177" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1177">
-        <v>309.14999999999998</v>
-      </c>
-      <c r="D1177" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1177">
-        <v>1.8</v>
-      </c>
-      <c r="F1177">
-        <v>307.2</v>
-      </c>
-      <c r="G1177">
-        <v>309.8</v>
-      </c>
-      <c r="H1177">
-        <v>306.60000000000002</v>
-      </c>
-      <c r="I1177">
-        <v>308.61</v>
-      </c>
-      <c r="J1177">
-        <v>309.64999999999998</v>
-      </c>
-      <c r="K1177" s="3">
-        <v>164387</v>
-      </c>
-      <c r="L1177" s="3">
-        <v>259524</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:12">
-      <c r="A1178" s="1">
-        <v>42902</v>
-      </c>
-      <c r="B1178" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1178">
-        <v>307.35000000000002</v>
-      </c>
-      <c r="D1178" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1178">
-        <v>0.35</v>
-      </c>
-      <c r="F1178">
-        <v>307.10000000000002</v>
-      </c>
-      <c r="G1178">
-        <v>308</v>
-      </c>
-      <c r="H1178">
-        <v>306.5</v>
-      </c>
-      <c r="I1178">
-        <v>306.79000000000002</v>
-      </c>
-      <c r="J1178">
-        <v>307.87</v>
-      </c>
-      <c r="K1178" s="3">
-        <v>144347</v>
-      </c>
-      <c r="L1178" s="3">
-        <v>256380</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:12">
-      <c r="A1179" s="1">
-        <v>42901</v>
-      </c>
-      <c r="B1179" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1179">
-        <v>307</v>
-      </c>
-      <c r="D1179" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1179">
-        <v>1.75</v>
-      </c>
-      <c r="F1179">
-        <v>308.3</v>
-      </c>
-      <c r="G1179">
-        <v>309.35000000000002</v>
-      </c>
-      <c r="H1179">
-        <v>305.5</v>
-      </c>
-      <c r="I1179">
-        <v>306.69</v>
-      </c>
-      <c r="J1179">
-        <v>307.79000000000002</v>
-      </c>
-      <c r="K1179" s="3">
-        <v>225509</v>
-      </c>
-      <c r="L1179" s="3">
-        <v>259812</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:12">
-      <c r="A1180" s="1">
-        <v>42900</v>
-      </c>
-      <c r="B1180" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1180">
-        <v>308.75</v>
-      </c>
-      <c r="D1180" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1180">
-        <v>0.35</v>
-      </c>
-      <c r="F1180">
-        <v>309.60000000000002</v>
-      </c>
-      <c r="G1180">
-        <v>310.7</v>
-      </c>
-      <c r="H1180">
-        <v>307.64999999999998</v>
-      </c>
-      <c r="I1180">
-        <v>307.95</v>
-      </c>
-      <c r="J1180">
-        <v>309.07</v>
-      </c>
-      <c r="K1180" s="3">
-        <v>181232</v>
-      </c>
-      <c r="L1180" s="3">
-        <v>262154</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:12">
-      <c r="A1181" s="1">
-        <v>42899</v>
-      </c>
-      <c r="B1181" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1181">
-        <v>308.39999999999998</v>
-      </c>
-      <c r="D1181" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1181">
-        <v>1.75</v>
-      </c>
-      <c r="F1181">
-        <v>306.95</v>
-      </c>
-      <c r="G1181">
-        <v>308.85000000000002</v>
-      </c>
-      <c r="H1181">
-        <v>306.7</v>
-      </c>
-      <c r="I1181">
-        <v>308.02</v>
-      </c>
-      <c r="J1181">
-        <v>309.14999999999998</v>
-      </c>
-      <c r="K1181" s="3">
-        <v>132844</v>
-      </c>
-      <c r="L1181" s="3">
-        <v>264290</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:12">
-      <c r="A1182" s="1">
-        <v>42898</v>
-      </c>
-      <c r="B1182" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1182">
-        <v>306.64999999999998</v>
-      </c>
-      <c r="D1182" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1182">
-        <v>3.25</v>
-      </c>
-      <c r="F1182">
-        <v>308</v>
-      </c>
-      <c r="G1182">
-        <v>308.85000000000002</v>
-      </c>
-      <c r="H1182">
-        <v>306.3</v>
-      </c>
-      <c r="I1182">
-        <v>306.24</v>
-      </c>
-      <c r="J1182">
-        <v>307.38</v>
-      </c>
-      <c r="K1182" s="3">
-        <v>173022</v>
-      </c>
-      <c r="L1182" s="3">
-        <v>262079</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:12">
-      <c r="A1183" s="1">
-        <v>42895</v>
-      </c>
-      <c r="B1183" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1183">
-        <v>309.89999999999998</v>
-      </c>
-      <c r="D1183" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1183">
-        <v>1.9</v>
-      </c>
-      <c r="F1183">
-        <v>307.89999999999998</v>
-      </c>
-      <c r="G1183">
-        <v>310.60000000000002</v>
-      </c>
-      <c r="H1183">
-        <v>307.64999999999998</v>
-      </c>
-      <c r="I1183">
-        <v>309.38</v>
-      </c>
-      <c r="J1183">
-        <v>310.57</v>
-      </c>
-      <c r="K1183" s="3">
-        <v>202655</v>
-      </c>
-      <c r="L1183" s="3">
-        <v>270549</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:12">
-      <c r="A1184" s="1">
-        <v>42894</v>
-      </c>
-      <c r="B1184" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1184">
-        <v>306.75</v>
-      </c>
-      <c r="D1184" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1184">
-        <v>1.25</v>
-      </c>
-      <c r="F1184">
-        <v>305.75</v>
-      </c>
-      <c r="G1184">
-        <v>306.85000000000002</v>
-      </c>
-      <c r="H1184">
-        <v>304.14999999999998</v>
-      </c>
-      <c r="I1184">
-        <v>306.25</v>
-      </c>
-      <c r="J1184">
-        <v>306.26</v>
-      </c>
-      <c r="K1184" s="3">
-        <v>200755</v>
-      </c>
-      <c r="L1184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:12">
-      <c r="A1185" s="1">
-        <v>42893</v>
-      </c>
-      <c r="B1185" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1185">
-        <v>305.5</v>
-      </c>
-      <c r="D1185" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1185">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F1185">
-        <v>307.05</v>
-      </c>
-      <c r="G1185">
-        <v>307.64999999999998</v>
-      </c>
-      <c r="H1185">
-        <v>305.39999999999998</v>
-      </c>
-      <c r="I1185">
-        <v>305.68</v>
-      </c>
-      <c r="J1185">
-        <v>305.7</v>
-      </c>
-      <c r="K1185" s="3">
-        <v>174047</v>
-      </c>
-      <c r="L1185" s="3">
-        <v>142640</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:12">
-      <c r="A1186" s="1">
-        <v>42891</v>
-      </c>
-      <c r="B1186" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1186">
-        <v>307.7</v>
-      </c>
-      <c r="D1186" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1186">
-        <v>0.15</v>
-      </c>
-      <c r="F1186">
-        <v>308.05</v>
-      </c>
-      <c r="G1186">
-        <v>308.7</v>
-      </c>
-      <c r="H1186">
-        <v>306.95</v>
-      </c>
-      <c r="I1186">
-        <v>307.33</v>
-      </c>
-      <c r="J1186">
-        <v>307.38</v>
-      </c>
-      <c r="K1186" s="3">
-        <v>153637</v>
-      </c>
-      <c r="L1186" s="3">
-        <v>213910</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:12">
-      <c r="A1187" s="1">
-        <v>42888</v>
-      </c>
-      <c r="B1187" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1187">
-        <v>307.85000000000002</v>
-      </c>
-      <c r="D1187" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1187">
-        <v>3.6</v>
-      </c>
-      <c r="F1187">
-        <v>305.2</v>
-      </c>
-      <c r="G1187">
-        <v>308.10000000000002</v>
-      </c>
-      <c r="H1187">
-        <v>305.05</v>
-      </c>
-      <c r="I1187">
-        <v>307.83</v>
-      </c>
-      <c r="J1187">
-        <v>307.92</v>
-      </c>
-      <c r="K1187" s="3">
-        <v>210515</v>
-      </c>
-      <c r="L1187" s="3">
-        <v>266052</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:12">
-      <c r="A1188" s="1">
-        <v>42887</v>
-      </c>
-      <c r="B1188" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1188">
-        <v>304.25</v>
-      </c>
-      <c r="D1188" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1188">
-        <v>0.9</v>
-      </c>
-      <c r="F1188">
-        <v>304.7</v>
-      </c>
-      <c r="G1188">
-        <v>305.45</v>
-      </c>
-      <c r="H1188">
-        <v>303.14999999999998</v>
-      </c>
-      <c r="I1188">
-        <v>304.02999999999997</v>
-      </c>
-      <c r="J1188">
-        <v>304.13</v>
-      </c>
-      <c r="K1188" s="3">
-        <v>194357</v>
-      </c>
-      <c r="L1188" s="3">
-        <v>287440</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:12">
-      <c r="A1189" s="1">
-        <v>42886</v>
-      </c>
-      <c r="B1189" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1189">
-        <v>305.14999999999998</v>
-      </c>
-      <c r="D1189" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1189">
-        <v>0.7</v>
-      </c>
-      <c r="F1189">
-        <v>304.14999999999998</v>
-      </c>
-      <c r="G1189">
-        <v>306.39999999999998</v>
-      </c>
-      <c r="H1189">
-        <v>303.8</v>
-      </c>
-      <c r="I1189">
-        <v>304.67</v>
-      </c>
-      <c r="J1189">
-        <v>304.77999999999997</v>
-      </c>
-      <c r="K1189" s="3">
-        <v>198417</v>
-      </c>
-      <c r="L1189" s="3">
-        <v>292887</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:12">
-      <c r="A1190" s="1">
-        <v>42885</v>
-      </c>
-      <c r="B1190" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1190">
-        <v>304.45</v>
-      </c>
-      <c r="D1190" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1190">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="F1190">
-        <v>307</v>
-      </c>
-      <c r="G1190">
-        <v>307.14999999999998</v>
-      </c>
-      <c r="H1190">
-        <v>303.2</v>
-      </c>
-      <c r="I1190">
-        <v>304.58999999999997</v>
-      </c>
-      <c r="J1190">
-        <v>304.72000000000003</v>
-      </c>
-      <c r="K1190" s="3">
-        <v>238132</v>
-      </c>
-      <c r="L1190" s="3">
-        <v>285997</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:12">
-      <c r="A1191" s="1">
-        <v>42884</v>
-      </c>
-      <c r="B1191" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1191">
-        <v>306.89999999999998</v>
-      </c>
-      <c r="D1191" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1191">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F1191">
-        <v>308.2</v>
-      </c>
-      <c r="G1191">
-        <v>309.5</v>
-      </c>
-      <c r="H1191">
-        <v>305.25</v>
-      </c>
-      <c r="I1191">
-        <v>306.52</v>
-      </c>
-      <c r="J1191">
-        <v>306.66000000000003</v>
-      </c>
-      <c r="K1191" s="3">
-        <v>229693</v>
-      </c>
-      <c r="L1191" s="3">
-        <v>288932</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:12">
-      <c r="A1192" s="1">
-        <v>42881</v>
-      </c>
-      <c r="B1192" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1192">
-        <v>307.45</v>
-      </c>
-      <c r="D1192" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1192">
-        <v>1.85</v>
-      </c>
-      <c r="F1192">
-        <v>305.60000000000002</v>
-      </c>
-      <c r="G1192">
-        <v>308.75</v>
-      </c>
-      <c r="H1192">
-        <v>305.2</v>
-      </c>
-      <c r="I1192">
-        <v>306.95999999999998</v>
-      </c>
-      <c r="J1192">
-        <v>307.14</v>
-      </c>
-      <c r="K1192" s="3">
-        <v>264607</v>
-      </c>
-      <c r="L1192" s="3">
-        <v>284204</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:12">
-      <c r="A1193" s="1">
-        <v>42880</v>
-      </c>
-      <c r="B1193" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1193">
-        <v>305.60000000000002</v>
-      </c>
-      <c r="D1193" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1193">
-        <v>3.6</v>
-      </c>
-      <c r="F1193">
-        <v>303.35000000000002</v>
-      </c>
-      <c r="G1193">
-        <v>305.60000000000002</v>
-      </c>
-      <c r="H1193">
-        <v>302.39999999999998</v>
-      </c>
-      <c r="I1193">
-        <v>305.22000000000003</v>
-      </c>
-      <c r="J1193">
-        <v>305.41000000000003</v>
-      </c>
-      <c r="K1193" s="3">
-        <v>227780</v>
-      </c>
-      <c r="L1193" s="3">
-        <v>284755</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:12">
-      <c r="A1194" s="1">
-        <v>42879</v>
-      </c>
-      <c r="B1194" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1194">
-        <v>302</v>
-      </c>
-      <c r="D1194" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1194">
-        <v>0.85</v>
-      </c>
-      <c r="F1194">
-        <v>302.25</v>
-      </c>
-      <c r="G1194">
-        <v>302.95</v>
-      </c>
-      <c r="H1194">
-        <v>301.39999999999998</v>
-      </c>
-      <c r="I1194">
-        <v>301.70999999999998</v>
-      </c>
-      <c r="J1194">
-        <v>301.91000000000003</v>
-      </c>
-      <c r="K1194" s="3">
-        <v>140933</v>
-      </c>
-      <c r="L1194" s="3">
-        <v>281928</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:12">
-      <c r="A1195" s="1">
-        <v>42878</v>
-      </c>
-      <c r="B1195" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1195">
-        <v>301.14999999999998</v>
-      </c>
-      <c r="D1195" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1195">
-        <v>0.45</v>
-      </c>
-      <c r="F1195">
-        <v>301.14999999999998</v>
-      </c>
-      <c r="G1195">
-        <v>303.8</v>
-      </c>
-      <c r="H1195">
-        <v>300.7</v>
-      </c>
-      <c r="I1195">
-        <v>301.36</v>
-      </c>
-      <c r="J1195">
-        <v>301.57</v>
-      </c>
-      <c r="K1195" s="3">
-        <v>236516</v>
-      </c>
-      <c r="L1195" s="3">
-        <v>280062</v>
-      </c>
-    </row>
-    <row r="1196" spans="1:12">
-      <c r="A1196" s="1">
-        <v>42877</v>
-      </c>
-      <c r="B1196" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1196">
-        <v>300.7</v>
-      </c>
-      <c r="D1196" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1196">
-        <v>2.35</v>
-      </c>
-      <c r="F1196">
-        <v>300.35000000000002</v>
-      </c>
-      <c r="G1196">
-        <v>300.89999999999998</v>
-      </c>
-      <c r="H1196">
-        <v>299</v>
-      </c>
-      <c r="I1196">
-        <v>300.63</v>
-      </c>
-      <c r="J1196">
-        <v>300.86</v>
-      </c>
-      <c r="K1196" s="3">
-        <v>164910</v>
-      </c>
-      <c r="L1196" s="3">
-        <v>279364</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:12">
-      <c r="A1197" s="1">
-        <v>42874</v>
-      </c>
-      <c r="B1197" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1197">
-        <v>298.35000000000002</v>
-      </c>
-      <c r="D1197" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1197">
-        <v>0.4</v>
-      </c>
-      <c r="F1197">
-        <v>298.5</v>
-      </c>
-      <c r="G1197">
-        <v>299.25</v>
-      </c>
-      <c r="H1197">
-        <v>297.85000000000002</v>
-      </c>
-      <c r="I1197">
-        <v>298.08</v>
-      </c>
-      <c r="J1197">
-        <v>298.33999999999997</v>
-      </c>
-      <c r="K1197" s="3">
-        <v>136439</v>
-      </c>
-      <c r="L1197" s="3">
-        <v>279096</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:12">
-      <c r="A1198" s="1">
-        <v>42873</v>
-      </c>
-      <c r="B1198" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1198">
-        <v>298.75</v>
-      </c>
-      <c r="D1198" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1198">
-        <v>0.85</v>
-      </c>
-      <c r="F1198">
-        <v>296.39999999999998</v>
-      </c>
-      <c r="G1198">
-        <v>298.89999999999998</v>
-      </c>
-      <c r="H1198">
-        <v>295.8</v>
-      </c>
-      <c r="I1198">
-        <v>298.47000000000003</v>
-      </c>
-      <c r="J1198">
-        <v>298.74</v>
-      </c>
-      <c r="K1198" s="3">
-        <v>207089</v>
-      </c>
-      <c r="L1198" s="3">
-        <v>276084</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:12">
-      <c r="A1199" s="1">
-        <v>42872</v>
-      </c>
-      <c r="B1199" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1199">
-        <v>299.60000000000002</v>
-      </c>
-      <c r="D1199" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1199">
-        <v>0.25</v>
-      </c>
-      <c r="F1199">
-        <v>298.89999999999998</v>
-      </c>
-      <c r="G1199">
-        <v>300.14999999999998</v>
-      </c>
-      <c r="H1199">
-        <v>298.2</v>
-      </c>
-      <c r="I1199">
-        <v>299.33999999999997</v>
-      </c>
-      <c r="J1199">
-        <v>299.63</v>
-      </c>
-      <c r="K1199" s="3">
-        <v>185296</v>
-      </c>
-      <c r="L1199" s="3">
-        <v>275875</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:12">
-      <c r="A1200" s="1">
-        <v>42871</v>
-      </c>
-      <c r="B1200" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1200">
-        <v>299.35000000000002</v>
-      </c>
-      <c r="D1200" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1200">
-        <v>0.4</v>
-      </c>
-      <c r="F1200">
-        <v>301.25</v>
-      </c>
-      <c r="G1200">
-        <v>302.10000000000002</v>
-      </c>
-      <c r="H1200">
-        <v>298.3</v>
-      </c>
-      <c r="I1200">
-        <v>299.67</v>
-      </c>
-      <c r="J1200">
-        <v>299.97000000000003</v>
-      </c>
-      <c r="K1200" s="3">
-        <v>202872</v>
-      </c>
-      <c r="L1200" s="3">
-        <v>276360</v>
-      </c>
-    </row>
-    <row r="1201" spans="1:12">
-      <c r="A1201" s="1">
-        <v>42870</v>
-      </c>
-      <c r="B1201" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1201">
-        <v>299.75</v>
-      </c>
-      <c r="D1201" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1201">
-        <v>1</v>
-      </c>
-      <c r="F1201">
-        <v>299.05</v>
-      </c>
-      <c r="G1201">
-        <v>300.3</v>
-      </c>
-      <c r="H1201">
-        <v>297.85000000000002</v>
-      </c>
-      <c r="I1201">
-        <v>298.87</v>
-      </c>
-      <c r="J1201">
-        <v>299.18</v>
-      </c>
-      <c r="K1201" s="3">
-        <v>158822</v>
-      </c>
-      <c r="L1201" s="3">
-        <v>275692</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:12">
-      <c r="A1202" s="1">
-        <v>42867</v>
-      </c>
-      <c r="B1202" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1202">
-        <v>298.75</v>
-      </c>
-      <c r="D1202" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1202">
-        <v>1.45</v>
-      </c>
-      <c r="F1202">
-        <v>300.2</v>
-      </c>
-      <c r="G1202">
-        <v>300.5</v>
-      </c>
-      <c r="H1202">
-        <v>298.2</v>
-      </c>
-      <c r="I1202">
-        <v>298.25</v>
-      </c>
-      <c r="J1202">
-        <v>298.60000000000002</v>
-      </c>
-      <c r="K1202" s="3">
-        <v>196177</v>
-      </c>
-      <c r="L1202" s="3">
-        <v>276395</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:12">
-      <c r="A1203" s="1">
-        <v>42866</v>
-      </c>
-      <c r="B1203" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1203">
-        <v>300.2</v>
-      </c>
-      <c r="D1203" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1203">
-        <v>3.65</v>
-      </c>
-      <c r="F1203">
-        <v>298.10000000000002</v>
-      </c>
-      <c r="G1203">
-        <v>300.60000000000002</v>
-      </c>
-      <c r="H1203">
-        <v>296.85000000000002</v>
-      </c>
-      <c r="I1203">
-        <v>299.75</v>
-      </c>
-      <c r="J1203">
-        <v>300.12</v>
-      </c>
-      <c r="K1203" s="3">
-        <v>380171</v>
-      </c>
-      <c r="L1203" s="3">
-        <v>282684</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:12">
-      <c r="A1204" s="1">
-        <v>42865</v>
-      </c>
-      <c r="B1204" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1204">
-        <v>296.55</v>
-      </c>
-      <c r="D1204" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1204">
-        <v>4.25</v>
-      </c>
-      <c r="F1204">
-        <v>300.8</v>
-      </c>
-      <c r="G1204">
-        <v>305.60000000000002</v>
-      </c>
-      <c r="H1204">
-        <v>295.85000000000002</v>
-      </c>
-      <c r="I1204">
-        <v>296.19</v>
-      </c>
-      <c r="J1204">
-        <v>296.57</v>
-      </c>
-      <c r="K1204" s="3">
-        <v>514035</v>
-      </c>
-      <c r="L1204" s="3">
-        <v>298022</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:12">
-      <c r="A1205" s="1">
-        <v>42863</v>
-      </c>
-      <c r="B1205" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1205">
-        <v>300.8</v>
-      </c>
-      <c r="D1205" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1205">
-        <v>7.95</v>
-      </c>
-      <c r="F1205">
-        <v>293.05</v>
-      </c>
-      <c r="G1205">
-        <v>300.8</v>
-      </c>
-      <c r="H1205">
-        <v>292.95</v>
-      </c>
-      <c r="I1205">
-        <v>299.86</v>
-      </c>
-      <c r="J1205">
-        <v>300.27</v>
-      </c>
-      <c r="K1205" s="3">
-        <v>303136</v>
-      </c>
-      <c r="L1205" s="3">
-        <v>300394</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:12">
-      <c r="A1206" s="1">
-        <v>42859</v>
-      </c>
-      <c r="B1206" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1206">
-        <v>292.85000000000002</v>
-      </c>
-      <c r="D1206" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1206">
-        <v>2.7</v>
-      </c>
-      <c r="F1206">
-        <v>290.95</v>
-      </c>
-      <c r="G1206">
-        <v>292.85000000000002</v>
-      </c>
-      <c r="H1206">
-        <v>290.8</v>
-      </c>
-      <c r="I1206">
-        <v>292.47000000000003</v>
-      </c>
-      <c r="J1206">
-        <v>292.92</v>
-      </c>
-      <c r="K1206" s="3">
-        <v>154661</v>
-      </c>
-      <c r="L1206" s="3">
-        <v>292409</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:12">
-      <c r="A1207" s="1">
-        <v>42857</v>
-      </c>
-      <c r="B1207" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1207">
-        <v>290.14999999999998</v>
-      </c>
-      <c r="D1207" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1207">
-        <v>2.25</v>
-      </c>
-      <c r="F1207">
-        <v>289.10000000000002</v>
-      </c>
-      <c r="G1207">
-        <v>291.64999999999998</v>
-      </c>
-      <c r="H1207">
-        <v>288.64999999999998</v>
-      </c>
-      <c r="I1207">
-        <v>289.64999999999998</v>
-      </c>
-      <c r="J1207">
-        <v>290.12</v>
-      </c>
-      <c r="K1207" s="3">
-        <v>209155</v>
-      </c>
-      <c r="L1207" s="3">
-        <v>286564</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:12">
-      <c r="A1208" s="1">
-        <v>42853</v>
-      </c>
-      <c r="B1208" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1208">
-        <v>287.89999999999998</v>
-      </c>
-      <c r="D1208" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1208">
-        <v>0.45</v>
-      </c>
-      <c r="F1208">
-        <v>287.5</v>
-      </c>
-      <c r="G1208">
-        <v>288.89999999999998</v>
-      </c>
-      <c r="H1208">
-        <v>287.3</v>
-      </c>
-      <c r="I1208">
-        <v>287.20999999999998</v>
-      </c>
-      <c r="J1208">
-        <v>287.73</v>
-      </c>
-      <c r="K1208" s="3">
-        <v>180746</v>
-      </c>
-      <c r="L1208" s="3">
-        <v>288184</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:12">
-      <c r="A1209" s="1">
-        <v>42852</v>
-      </c>
-      <c r="B1209" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1209">
-        <v>287.45</v>
-      </c>
-      <c r="D1209" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1209">
-        <v>0.9</v>
-      </c>
-      <c r="F1209">
-        <v>286.55</v>
-      </c>
-      <c r="G1209">
-        <v>287.55</v>
-      </c>
-      <c r="H1209">
-        <v>286.14999999999998</v>
-      </c>
-      <c r="I1209">
-        <v>287.33999999999997</v>
-      </c>
-      <c r="J1209">
-        <v>287.87</v>
-      </c>
-      <c r="K1209" s="3">
-        <v>152103</v>
-      </c>
-      <c r="L1209" s="3">
-        <v>289044</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:12">
-      <c r="A1210" s="1">
-        <v>42851</v>
-      </c>
-      <c r="B1210" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1210">
-        <v>286.55</v>
-      </c>
-      <c r="D1210" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1210">
-        <v>1.25</v>
-      </c>
-      <c r="F1210">
-        <v>286.10000000000002</v>
-      </c>
-      <c r="G1210">
-        <v>287.35000000000002</v>
-      </c>
-      <c r="H1210">
-        <v>285.85000000000002</v>
-      </c>
-      <c r="I1210">
-        <v>286.77999999999997</v>
-      </c>
-      <c r="J1210">
-        <v>287.32</v>
-      </c>
-      <c r="K1210" s="3">
-        <v>183116</v>
-      </c>
-      <c r="L1210" s="3">
-        <v>294588</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:12">
-      <c r="A1211" s="1">
-        <v>42850</v>
-      </c>
-      <c r="B1211" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1211">
-        <v>285.3</v>
-      </c>
-      <c r="D1211" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1211">
-        <v>3.35</v>
-      </c>
-      <c r="F1211">
-        <v>282.14999999999998</v>
-      </c>
-      <c r="G1211">
-        <v>285.39999999999998</v>
-      </c>
-      <c r="H1211">
-        <v>282.10000000000002</v>
-      </c>
-      <c r="I1211">
-        <v>285.41000000000003</v>
-      </c>
-      <c r="J1211">
-        <v>285.95999999999998</v>
-      </c>
-      <c r="K1211" s="3">
-        <v>205637</v>
-      </c>
-      <c r="L1211" s="3">
-        <v>288494</v>
-      </c>
-    </row>
-    <row r="1212" spans="1:12">
-      <c r="A1212" s="1">
-        <v>42849</v>
-      </c>
-      <c r="B1212" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1212">
-        <v>281.95</v>
-      </c>
-      <c r="D1212" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1212">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F1212">
-        <v>282</v>
-      </c>
-      <c r="G1212">
-        <v>282.60000000000002</v>
-      </c>
-      <c r="H1212">
-        <v>281.3</v>
-      </c>
-      <c r="I1212">
-        <v>281.95999999999998</v>
-      </c>
-      <c r="J1212">
-        <v>282.52</v>
-      </c>
-      <c r="K1212" s="3">
-        <v>127054</v>
-      </c>
-      <c r="L1212" s="3">
-        <v>271683</v>
-      </c>
-    </row>
-    <row r="1213" spans="1:12">
-      <c r="A1213" s="1">
-        <v>42846</v>
-      </c>
-      <c r="B1213" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1213">
-        <v>280.8</v>
-      </c>
-      <c r="D1213" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1213">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="F1213">
-        <v>279.39999999999998</v>
-      </c>
-      <c r="G1213">
-        <v>281.14999999999998</v>
-      </c>
-      <c r="H1213">
-        <v>279</v>
-      </c>
-      <c r="I1213">
-        <v>280.05</v>
-      </c>
-      <c r="J1213">
-        <v>280.64</v>
-      </c>
-      <c r="K1213" s="3">
-        <v>172513</v>
-      </c>
-      <c r="L1213" s="3">
-        <v>269608</v>
-      </c>
-    </row>
-    <row r="1214" spans="1:12">
-      <c r="A1214" s="1">
-        <v>42845</v>
-      </c>
-      <c r="B1214" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1214">
-        <v>278.35000000000002</v>
-      </c>
-      <c r="D1214" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1214">
-        <v>1.4</v>
-      </c>
-      <c r="F1214">
-        <v>276.45</v>
-      </c>
-      <c r="G1214">
-        <v>278.35000000000002</v>
-      </c>
-      <c r="H1214">
-        <v>276</v>
-      </c>
-      <c r="I1214">
-        <v>277.76</v>
-      </c>
-      <c r="J1214">
-        <v>278.36</v>
-      </c>
-      <c r="K1214" s="3">
-        <v>170331</v>
-      </c>
-      <c r="L1214" s="3">
-        <v>268360</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:12">
-      <c r="A1215" s="1">
-        <v>42844</v>
-      </c>
-      <c r="B1215" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1215">
-        <v>276.95</v>
-      </c>
-      <c r="D1215" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1215">
-        <v>1.5</v>
-      </c>
-      <c r="F1215">
-        <v>277.75</v>
-      </c>
-      <c r="G1215">
-        <v>278.55</v>
-      </c>
-      <c r="H1215">
-        <v>276.25</v>
-      </c>
-      <c r="I1215">
-        <v>276.49</v>
-      </c>
-      <c r="J1215">
-        <v>277.10000000000002</v>
-      </c>
-      <c r="K1215" s="3">
-        <v>205736</v>
-      </c>
-      <c r="L1215" s="3">
-        <v>267697</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:12">
-      <c r="A1216" s="1">
-        <v>42843</v>
-      </c>
-      <c r="B1216" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1216">
-        <v>278.45</v>
-      </c>
-      <c r="D1216" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1216">
-        <v>0.3</v>
-      </c>
-      <c r="F1216">
-        <v>279.89999999999998</v>
-      </c>
-      <c r="G1216">
-        <v>280.10000000000002</v>
-      </c>
-      <c r="H1216">
-        <v>277.55</v>
-      </c>
-      <c r="I1216">
-        <v>278.23</v>
-      </c>
-      <c r="J1216">
-        <v>278.86</v>
-      </c>
-      <c r="K1216" s="3">
-        <v>188528</v>
-      </c>
-      <c r="L1216" s="3">
-        <v>268091</v>
-      </c>
-    </row>
-    <row r="1217" spans="1:12">
-      <c r="A1217" s="1">
-        <v>42842</v>
-      </c>
-      <c r="B1217" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1217">
-        <v>278.75</v>
-      </c>
-      <c r="D1217" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1217">
-        <v>0.95</v>
-      </c>
-      <c r="F1217">
-        <v>278.45</v>
-      </c>
-      <c r="G1217">
-        <v>279.60000000000002</v>
-      </c>
-      <c r="H1217">
-        <v>277.85000000000002</v>
-      </c>
-      <c r="I1217">
-        <v>278.10000000000002</v>
-      </c>
-      <c r="J1217">
-        <v>278.74</v>
-      </c>
-      <c r="K1217" s="3">
-        <v>164557</v>
-      </c>
-      <c r="L1217" s="3">
-        <v>268967</v>
-      </c>
-    </row>
-    <row r="1218" spans="1:12">
-      <c r="A1218" s="1">
-        <v>42839</v>
-      </c>
-      <c r="B1218" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1218">
-        <v>277.8</v>
-      </c>
-      <c r="D1218" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1218">
-        <v>1.45</v>
-      </c>
-      <c r="F1218">
-        <v>278.14999999999998</v>
-      </c>
-      <c r="G1218">
-        <v>278.55</v>
-      </c>
-      <c r="H1218">
-        <v>276.2</v>
-      </c>
-      <c r="I1218">
-        <v>277.31</v>
-      </c>
-      <c r="J1218">
-        <v>277.99</v>
-      </c>
-      <c r="K1218" s="3">
-        <v>196643</v>
-      </c>
-      <c r="L1218" s="3">
-        <v>267428</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:12">
-      <c r="A1219" s="1">
-        <v>42838</v>
-      </c>
-      <c r="B1219" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1219">
-        <v>279.25</v>
-      </c>
-      <c r="D1219" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1219">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F1219">
-        <v>276.95</v>
-      </c>
-      <c r="G1219">
-        <v>279.25</v>
-      </c>
-      <c r="H1219">
-        <v>276.3</v>
-      </c>
-      <c r="I1219">
-        <v>279.12</v>
-      </c>
-      <c r="J1219">
-        <v>279.81</v>
-      </c>
-      <c r="K1219" s="3">
-        <v>277366</v>
-      </c>
-      <c r="L1219" s="3">
-        <v>267918</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:12">
-      <c r="A1220" s="1">
-        <v>42837</v>
-      </c>
-      <c r="B1220" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1220">
-        <v>277.05</v>
-      </c>
-      <c r="D1220" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1220">
-        <v>1.05</v>
-      </c>
-      <c r="F1220">
-        <v>276.39999999999998</v>
-      </c>
-      <c r="G1220">
-        <v>277.05</v>
-      </c>
-      <c r="H1220">
-        <v>275.75</v>
-      </c>
-      <c r="I1220">
-        <v>276.20999999999998</v>
-      </c>
-      <c r="J1220">
-        <v>276.91000000000003</v>
-      </c>
-      <c r="K1220" s="3">
-        <v>166666</v>
-      </c>
-      <c r="L1220" s="3">
-        <v>268442</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:12">
-      <c r="A1221" s="1">
-        <v>42836</v>
-      </c>
-      <c r="B1221" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1221">
-        <v>276</v>
-      </c>
-      <c r="D1221" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1221">
-        <v>1.75</v>
-      </c>
-      <c r="F1221">
-        <v>276.95</v>
-      </c>
-      <c r="G1221">
-        <v>277.75</v>
-      </c>
-      <c r="H1221">
-        <v>275.45</v>
-      </c>
-      <c r="I1221">
-        <v>275.49</v>
-      </c>
-      <c r="J1221">
-        <v>276.2</v>
-      </c>
-      <c r="K1221" s="3">
-        <v>232163</v>
-      </c>
-      <c r="L1221" s="3">
-        <v>272159</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:12">
-      <c r="A1222" s="1">
-        <v>42835</v>
-      </c>
-      <c r="B1222" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1222">
-        <v>277.75</v>
-      </c>
-      <c r="D1222" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1222">
-        <v>1.6</v>
-      </c>
-      <c r="F1222">
-        <v>279.3</v>
-      </c>
-      <c r="G1222">
-        <v>279.39999999999998</v>
-      </c>
-      <c r="H1222">
-        <v>277.10000000000002</v>
-      </c>
-      <c r="I1222">
-        <v>277.20999999999998</v>
-      </c>
-      <c r="J1222">
-        <v>277.94</v>
-      </c>
-      <c r="K1222" s="3">
-        <v>214420</v>
-      </c>
-      <c r="L1222" s="3">
-        <v>275348</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:12">
-      <c r="A1223" s="1">
-        <v>42832</v>
-      </c>
-      <c r="B1223" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1223">
-        <v>279.35000000000002</v>
-      </c>
-      <c r="D1223" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1223">
-        <v>0.65</v>
-      </c>
-      <c r="F1223">
-        <v>280.25</v>
-      </c>
-      <c r="G1223">
-        <v>280.45</v>
-      </c>
-      <c r="H1223">
-        <v>278.14999999999998</v>
-      </c>
-      <c r="I1223">
-        <v>279.01</v>
-      </c>
-      <c r="J1223">
-        <v>279.77999999999997</v>
-      </c>
-      <c r="K1223" s="3">
-        <v>253113</v>
-      </c>
-      <c r="L1223" s="3">
-        <v>276059</v>
-      </c>
-    </row>
-    <row r="1224" spans="1:12">
-      <c r="A1224" s="1">
-        <v>42831</v>
-      </c>
-      <c r="B1224" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1224">
-        <v>280</v>
-      </c>
-      <c r="D1224" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1224">
-        <v>0.95</v>
-      </c>
-      <c r="F1224">
-        <v>280</v>
-      </c>
-      <c r="G1224">
-        <v>280.10000000000002</v>
-      </c>
-      <c r="H1224">
-        <v>278.5</v>
-      </c>
-      <c r="I1224">
-        <v>279.47000000000003</v>
-      </c>
-      <c r="J1224">
-        <v>280.26</v>
-      </c>
-      <c r="K1224" s="3">
-        <v>224077</v>
-      </c>
-      <c r="L1224" s="3">
-        <v>274139</v>
-      </c>
-    </row>
-    <row r="1225" spans="1:12">
-      <c r="A1225" s="1">
-        <v>42830</v>
-      </c>
-      <c r="B1225" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1225">
-        <v>280.95</v>
-      </c>
-      <c r="D1225" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1225">
-        <v>0.5</v>
-      </c>
-      <c r="F1225">
-        <v>281.5</v>
-      </c>
-      <c r="G1225">
-        <v>281.85000000000002</v>
-      </c>
-      <c r="H1225">
-        <v>279.14999999999998</v>
-      </c>
-      <c r="I1225">
-        <v>280.74</v>
-      </c>
-      <c r="J1225">
-        <v>281.54000000000002</v>
-      </c>
-      <c r="K1225" s="3">
-        <v>223520</v>
-      </c>
-      <c r="L1225" s="3">
-        <v>271057</v>
-      </c>
-    </row>
-    <row r="1226" spans="1:12">
-      <c r="A1226" s="1">
-        <v>42829</v>
-      </c>
-      <c r="B1226" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1226">
-        <v>281.45</v>
-      </c>
-      <c r="D1226" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1226">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F1226">
-        <v>281.8</v>
-      </c>
-      <c r="G1226">
-        <v>282.35000000000002</v>
-      </c>
-      <c r="H1226">
-        <v>280.85000000000002</v>
-      </c>
-      <c r="I1226">
-        <v>280.92</v>
-      </c>
-      <c r="J1226">
-        <v>281.74</v>
-      </c>
-      <c r="K1226" s="3">
-        <v>119074</v>
-      </c>
-      <c r="L1226" s="3">
-        <v>273362</v>
-      </c>
-    </row>
-    <row r="1227" spans="1:12">
-      <c r="A1227" s="1">
-        <v>42828</v>
-      </c>
-      <c r="B1227" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1227">
-        <v>282</v>
-      </c>
-      <c r="D1227" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1227">
-        <v>0.3</v>
-      </c>
-      <c r="F1227">
-        <v>282.10000000000002</v>
-      </c>
-      <c r="G1227">
-        <v>283.2</v>
-      </c>
-      <c r="H1227">
-        <v>281.55</v>
-      </c>
-      <c r="I1227">
-        <v>281.60000000000002</v>
-      </c>
-      <c r="J1227">
-        <v>282.43</v>
-      </c>
-      <c r="K1227" s="3">
-        <v>121690</v>
-      </c>
-      <c r="L1227" s="3">
-        <v>270502</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:12">
-      <c r="A1228" s="1">
-        <v>42825</v>
-      </c>
-      <c r="B1228" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1228">
-        <v>281.7</v>
-      </c>
-      <c r="D1228" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1228">
-        <v>0.45</v>
-      </c>
-      <c r="F1228">
-        <v>282.3</v>
-      </c>
-      <c r="G1228">
-        <v>282.60000000000002</v>
-      </c>
-      <c r="H1228">
-        <v>281.25</v>
-      </c>
-      <c r="I1228">
-        <v>280.64</v>
-      </c>
-      <c r="J1228">
-        <v>281.51</v>
-      </c>
-      <c r="K1228" s="3">
-        <v>123251</v>
-      </c>
-      <c r="L1228" s="3">
-        <v>269932</v>
-      </c>
-    </row>
-    <row r="1229" spans="1:12">
-      <c r="A1229" s="1">
-        <v>42824</v>
-      </c>
-      <c r="B1229" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1229">
-        <v>282.14999999999998</v>
-      </c>
-      <c r="D1229" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1229">
-        <v>0.05</v>
-      </c>
-      <c r="F1229">
-        <v>282.55</v>
-      </c>
-      <c r="G1229">
-        <v>283.60000000000002</v>
-      </c>
-      <c r="H1229">
-        <v>281.45</v>
-      </c>
-      <c r="I1229">
-        <v>281.66000000000003</v>
-      </c>
-      <c r="J1229">
-        <v>282.54000000000002</v>
-      </c>
-      <c r="K1229" s="3">
-        <v>146596</v>
-      </c>
-      <c r="L1229" s="3">
-        <v>269326</v>
-      </c>
-    </row>
-    <row r="1230" spans="1:12">
-      <c r="A1230" s="1">
-        <v>42823</v>
-      </c>
-      <c r="B1230" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1230">
-        <v>282.2</v>
-      </c>
-      <c r="D1230" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1230">
-        <v>0.65</v>
-      </c>
-      <c r="F1230">
-        <v>282.7</v>
-      </c>
-      <c r="G1230">
-        <v>282.8</v>
-      </c>
-      <c r="H1230">
-        <v>281.45</v>
-      </c>
-      <c r="I1230">
-        <v>281.86</v>
-      </c>
-      <c r="J1230">
-        <v>282.75</v>
-      </c>
-      <c r="K1230" s="3">
-        <v>107890</v>
-      </c>
-      <c r="L1230" s="3">
-        <v>270368</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:12">
-      <c r="A1231" s="1">
-        <v>42822</v>
-      </c>
-      <c r="B1231" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1231">
-        <v>281.55</v>
-      </c>
-      <c r="D1231" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1231">
-        <v>0.8</v>
-      </c>
-      <c r="F1231">
-        <v>282.14999999999998</v>
-      </c>
-      <c r="G1231">
-        <v>282.39999999999998</v>
-      </c>
-      <c r="H1231">
-        <v>281</v>
-      </c>
-      <c r="I1231">
-        <v>281.25</v>
-      </c>
-      <c r="J1231">
-        <v>282.16000000000003</v>
-      </c>
-      <c r="K1231" s="3">
-        <v>98671</v>
-      </c>
-      <c r="L1231" s="3">
-        <v>270019</v>
-      </c>
-    </row>
-    <row r="1232" spans="1:12">
-      <c r="A1232" s="1">
-        <v>42821</v>
-      </c>
-      <c r="B1232" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1232">
-        <v>280.75</v>
-      </c>
-      <c r="D1232" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1232">
-        <v>2.1</v>
-      </c>
-      <c r="F1232">
-        <v>281.2</v>
-      </c>
-      <c r="G1232">
-        <v>282.2</v>
-      </c>
-      <c r="H1232">
-        <v>280.35000000000002</v>
-      </c>
-      <c r="I1232">
-        <v>280.36</v>
-      </c>
-      <c r="J1232">
-        <v>281.27999999999997</v>
-      </c>
-      <c r="K1232" s="3">
-        <v>124532</v>
-      </c>
-      <c r="L1232" s="3">
-        <v>271581</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:12">
-      <c r="A1233" s="1">
-        <v>42818</v>
-      </c>
-      <c r="B1233" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1233">
-        <v>282.85000000000002</v>
-      </c>
-      <c r="D1233" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1233">
-        <v>0.35</v>
-      </c>
-      <c r="F1233">
-        <v>283.3</v>
-      </c>
-      <c r="G1233">
-        <v>284.35000000000002</v>
-      </c>
-      <c r="H1233">
-        <v>282.05</v>
-      </c>
-      <c r="I1233">
-        <v>282.31</v>
-      </c>
-      <c r="J1233">
-        <v>283.27</v>
-      </c>
-      <c r="K1233" s="3">
-        <v>91096</v>
-      </c>
-      <c r="L1233" s="3">
-        <v>137084</v>
-      </c>
-    </row>
-    <row r="1234" spans="1:12">
-      <c r="A1234" s="1">
-        <v>42817</v>
-      </c>
-      <c r="B1234" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1234">
-        <v>283.2</v>
-      </c>
-      <c r="D1234" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1234">
-        <v>0.65</v>
-      </c>
-      <c r="F1234">
-        <v>283.8</v>
-      </c>
-      <c r="G1234">
-        <v>284.5</v>
-      </c>
-      <c r="H1234">
-        <v>282.8</v>
-      </c>
-      <c r="I1234">
-        <v>282.81</v>
-      </c>
-      <c r="J1234">
-        <v>283.79000000000002</v>
-      </c>
-      <c r="K1234" s="3">
-        <v>99723</v>
-      </c>
-      <c r="L1234" s="3">
-        <v>138490</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:12">
-      <c r="A1235" s="1">
-        <v>42816</v>
-      </c>
-      <c r="B1235" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1235">
-        <v>282.55</v>
-      </c>
-      <c r="D1235" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1235">
-        <v>1.5</v>
-      </c>
-      <c r="F1235">
-        <v>281.85000000000002</v>
-      </c>
-      <c r="G1235">
-        <v>282.85000000000002</v>
-      </c>
-      <c r="H1235">
-        <v>281.35000000000002</v>
-      </c>
-      <c r="I1235">
-        <v>282.63</v>
-      </c>
-      <c r="J1235">
-        <v>283.62</v>
-      </c>
-      <c r="K1235" s="3">
-        <v>99394</v>
-      </c>
-      <c r="L1235" s="3">
-        <v>139425</v>
-      </c>
-    </row>
-    <row r="1236" spans="1:12">
-      <c r="A1236" s="1">
-        <v>42815</v>
-      </c>
-      <c r="B1236" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1236">
-        <v>284.05</v>
-      </c>
-      <c r="D1236" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1236">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F1236">
-        <v>282.14999999999998</v>
-      </c>
-      <c r="G1236">
-        <v>284.8</v>
-      </c>
-      <c r="H1236">
-        <v>281.60000000000002</v>
-      </c>
-      <c r="I1236">
-        <v>283.83999999999997</v>
-      </c>
-      <c r="J1236">
-        <v>284.85000000000002</v>
-      </c>
-      <c r="K1236" s="3">
-        <v>112590</v>
-      </c>
-      <c r="L1236" s="3">
-        <v>141556</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:12">
-      <c r="A1237" s="1">
-        <v>42814</v>
-      </c>
-      <c r="B1237" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1237">
-        <v>281.5</v>
-      </c>
-      <c r="D1237" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1237">
-        <v>0.05</v>
-      </c>
-      <c r="F1237">
-        <v>281.60000000000002</v>
-      </c>
-      <c r="G1237">
-        <v>281.64999999999998</v>
-      </c>
-      <c r="H1237">
-        <v>280.25</v>
-      </c>
-      <c r="I1237">
-        <v>280.75</v>
-      </c>
-      <c r="J1237">
-        <v>281.76</v>
-      </c>
-      <c r="K1237" s="3">
-        <v>55022</v>
-      </c>
-      <c r="L1237" s="3">
-        <v>138927</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:12">
-      <c r="A1238" s="1">
-        <v>42811</v>
-      </c>
-      <c r="B1238" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1238">
-        <v>281.45</v>
-      </c>
-      <c r="D1238" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1238">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F1238">
-        <v>280.5</v>
-      </c>
-      <c r="G1238">
-        <v>281.95</v>
-      </c>
-      <c r="H1238">
-        <v>280.14999999999998</v>
-      </c>
-      <c r="I1238">
-        <v>281.86</v>
-      </c>
-      <c r="J1238">
-        <v>282.92</v>
-      </c>
-      <c r="K1238" s="3">
-        <v>86150</v>
-      </c>
-      <c r="L1238" s="3">
-        <v>140183</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:12">
-      <c r="A1239" s="1">
-        <v>42810</v>
-      </c>
-      <c r="B1239" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1239">
-        <v>280.3</v>
-      </c>
-      <c r="D1239" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1239">
-        <v>1.7</v>
-      </c>
-      <c r="F1239">
-        <v>281.3</v>
-      </c>
-      <c r="G1239">
-        <v>281.95</v>
-      </c>
-      <c r="H1239">
-        <v>279.8</v>
-      </c>
-      <c r="I1239">
-        <v>280.11</v>
-      </c>
-      <c r="J1239">
-        <v>281.17</v>
-      </c>
-      <c r="K1239" s="3">
-        <v>96353</v>
-      </c>
-      <c r="L1239" s="3">
-        <v>140941</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:12">
-      <c r="A1240" s="1">
-        <v>42809</v>
-      </c>
-      <c r="B1240" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1240">
-        <v>278.60000000000002</v>
-      </c>
-      <c r="D1240" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1240">
-        <v>0.6</v>
-      </c>
-      <c r="F1240">
-        <v>277.85000000000002</v>
-      </c>
-      <c r="G1240">
-        <v>278.64999999999998</v>
-      </c>
-      <c r="H1240">
-        <v>277.45</v>
-      </c>
-      <c r="I1240">
-        <v>277.89</v>
-      </c>
-      <c r="J1240">
-        <v>278.95999999999998</v>
-      </c>
-      <c r="K1240" s="3">
-        <v>59483</v>
-      </c>
-      <c r="L1240" s="3">
-        <v>141294</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:12">
-      <c r="A1241" s="1">
-        <v>42808</v>
-      </c>
-      <c r="B1241" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1241">
-        <v>278</v>
-      </c>
-      <c r="D1241" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1241">
-        <v>2.25</v>
-      </c>
-      <c r="F1241">
-        <v>276.75</v>
-      </c>
-      <c r="G1241">
-        <v>278.14999999999998</v>
-      </c>
-      <c r="H1241">
-        <v>276.45</v>
-      </c>
-      <c r="I1241">
-        <v>277.89</v>
-      </c>
-      <c r="J1241">
-        <v>278.97000000000003</v>
-      </c>
-      <c r="K1241" s="3">
-        <v>85012</v>
-      </c>
-      <c r="L1241" s="3">
-        <v>139279</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:12">
-      <c r="A1242" s="1">
-        <v>42807</v>
-      </c>
-      <c r="B1242" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1242">
-        <v>275.75</v>
-      </c>
-      <c r="D1242" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1242">
-        <v>3.2</v>
-      </c>
-      <c r="F1242">
-        <v>272.95</v>
-      </c>
-      <c r="G1242">
-        <v>276.45</v>
-      </c>
-      <c r="H1242">
-        <v>272.8</v>
-      </c>
-      <c r="I1242">
-        <v>275.41000000000003</v>
-      </c>
-      <c r="J1242">
-        <v>276.5</v>
-      </c>
-      <c r="K1242" s="3">
-        <v>98339</v>
-      </c>
-      <c r="L1242" s="3">
-        <v>135916</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:12">
-      <c r="A1243" s="1">
-        <v>42804</v>
-      </c>
-      <c r="B1243" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1243">
-        <v>272.55</v>
-      </c>
-      <c r="D1243" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1243">
-        <v>0.9</v>
-      </c>
-      <c r="F1243">
-        <v>271.64999999999998</v>
-      </c>
-      <c r="G1243">
-        <v>273.3</v>
-      </c>
-      <c r="H1243">
-        <v>270.55</v>
-      </c>
-      <c r="I1243">
-        <v>272.29000000000002</v>
-      </c>
-      <c r="J1243">
-        <v>273.41000000000003</v>
-      </c>
-      <c r="K1243" s="3">
-        <v>126919</v>
-      </c>
-      <c r="L1243" s="3">
-        <v>130803</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:12">
-      <c r="A1244" s="1">
-        <v>42803</v>
-      </c>
-      <c r="B1244" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1244">
-        <v>271.45</v>
-      </c>
-      <c r="D1244" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1244">
-        <v>0.75</v>
-      </c>
-      <c r="F1244">
-        <v>272.3</v>
-      </c>
-      <c r="G1244">
-        <v>272.85000000000002</v>
-      </c>
-      <c r="H1244">
-        <v>271.45</v>
-      </c>
-      <c r="I1244">
-        <v>271.62</v>
-      </c>
-      <c r="J1244">
-        <v>271.63</v>
-      </c>
-      <c r="K1244" s="3">
-        <v>90974</v>
-      </c>
-      <c r="L1244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:12">
-      <c r="A1245" s="1">
-        <v>42802</v>
-      </c>
-      <c r="B1245" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1245">
-        <v>272.2</v>
-      </c>
-      <c r="D1245" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1245">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F1245">
-        <v>271.39999999999998</v>
-      </c>
-      <c r="G1245">
-        <v>272.95</v>
-      </c>
-      <c r="H1245">
-        <v>271</v>
-      </c>
-      <c r="I1245">
-        <v>272.29000000000002</v>
-      </c>
-      <c r="J1245">
-        <v>272.31</v>
-      </c>
-      <c r="K1245" s="3">
-        <v>94589</v>
-      </c>
-      <c r="L1245" s="3">
-        <v>61582</v>
-      </c>
-    </row>
-    <row r="1246" spans="1:12">
-      <c r="A1246" s="1">
-        <v>42801</v>
-      </c>
-      <c r="B1246" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1246">
-        <v>271.64999999999998</v>
-      </c>
-      <c r="D1246" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1246">
-        <v>1.4</v>
-      </c>
-      <c r="F1246">
-        <v>270.55</v>
-      </c>
-      <c r="G1246">
-        <v>272.3</v>
-      </c>
-      <c r="H1246">
-        <v>270.14999999999998</v>
-      </c>
-      <c r="I1246">
-        <v>271.87</v>
-      </c>
-      <c r="J1246">
-        <v>271.89999999999998</v>
-      </c>
-      <c r="K1246" s="3">
-        <v>94891</v>
-      </c>
-      <c r="L1246" s="3">
-        <v>83068</v>
-      </c>
-    </row>
-    <row r="1247" spans="1:12">
-      <c r="A1247" s="1">
-        <v>42800</v>
-      </c>
-      <c r="B1247" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1247">
-        <v>270.25</v>
-      </c>
-      <c r="D1247" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1247">
-        <v>0.6</v>
-      </c>
-      <c r="F1247">
-        <v>268.89999999999998</v>
-      </c>
-      <c r="G1247">
-        <v>270.45</v>
-      </c>
-      <c r="H1247">
-        <v>268.35000000000002</v>
-      </c>
-      <c r="I1247">
-        <v>270.41000000000003</v>
-      </c>
-      <c r="J1247">
-        <v>270.45</v>
-      </c>
-      <c r="K1247" s="3">
-        <v>86951</v>
-      </c>
-      <c r="L1247" s="3">
-        <v>116748</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:12">
-      <c r="A1248" s="1">
-        <v>42797</v>
-      </c>
-      <c r="B1248" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1248">
-        <v>269.64999999999998</v>
-      </c>
-      <c r="D1248" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1248">
-        <v>3.05</v>
-      </c>
-      <c r="F1248">
-        <v>271.39999999999998</v>
-      </c>
-      <c r="G1248">
-        <v>271.60000000000002</v>
-      </c>
-      <c r="H1248">
-        <v>269</v>
-      </c>
-      <c r="I1248">
-        <v>269.77</v>
-      </c>
-      <c r="J1248">
-        <v>269.85000000000002</v>
-      </c>
-      <c r="K1248" s="3">
-        <v>121319</v>
-      </c>
-      <c r="L1248" s="3">
-        <v>131939</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:12">
-      <c r="A1249" s="1">
-        <v>42796</v>
-      </c>
-      <c r="B1249" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1249">
-        <v>272.7</v>
-      </c>
-      <c r="D1249" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1249">
-        <v>2.95</v>
-      </c>
-      <c r="F1249">
-        <v>271.89999999999998</v>
-      </c>
-      <c r="G1249">
-        <v>273.39999999999998</v>
-      </c>
-      <c r="H1249">
-        <v>271.35000000000002</v>
-      </c>
-      <c r="I1249">
-        <v>272.64999999999998</v>
-      </c>
-      <c r="J1249">
-        <v>272.74</v>
-      </c>
-      <c r="K1249" s="3">
-        <v>126583</v>
-      </c>
-      <c r="L1249" s="3">
-        <v>133284</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:12">
-      <c r="A1250" s="1">
-        <v>42794</v>
-      </c>
-      <c r="B1250" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1250">
-        <v>269.75</v>
-      </c>
-      <c r="D1250" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1250">
-        <v>0.25</v>
-      </c>
-      <c r="F1250">
-        <v>269.7</v>
-      </c>
-      <c r="G1250">
-        <v>270.60000000000002</v>
-      </c>
-      <c r="H1250">
-        <v>269.39999999999998</v>
-      </c>
-      <c r="I1250">
-        <v>270.06</v>
-      </c>
-      <c r="J1250">
-        <v>270.17</v>
-      </c>
-      <c r="K1250" s="3">
-        <v>60882</v>
-      </c>
-      <c r="L1250" s="3">
-        <v>135660</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:12">
-      <c r="A1251" s="1">
-        <v>42793</v>
-      </c>
-      <c r="B1251" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1251">
-        <v>269.5</v>
-      </c>
-      <c r="D1251" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1251">
-        <v>1.05</v>
-      </c>
-      <c r="F1251">
-        <v>270.64999999999998</v>
-      </c>
-      <c r="G1251">
-        <v>271.05</v>
-      </c>
-      <c r="H1251">
-        <v>268.89999999999998</v>
-      </c>
-      <c r="I1251">
-        <v>268.97000000000003</v>
-      </c>
-      <c r="J1251">
-        <v>269.08999999999997</v>
-      </c>
-      <c r="K1251" s="3">
-        <v>91505</v>
-      </c>
-      <c r="L1251" s="3">
-        <v>136338</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:12">
-      <c r="A1252" s="1">
-        <v>42790</v>
-      </c>
-      <c r="B1252" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1252">
-        <v>270.55</v>
-      </c>
-      <c r="D1252" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1252">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="F1252">
-        <v>272.64999999999998</v>
-      </c>
-      <c r="G1252">
-        <v>273.05</v>
-      </c>
-      <c r="H1252">
-        <v>270.2</v>
-      </c>
-      <c r="I1252">
-        <v>270.38</v>
-      </c>
-      <c r="J1252">
-        <v>270.54000000000002</v>
-      </c>
-      <c r="K1252" s="3">
-        <v>104613</v>
-      </c>
-      <c r="L1252" s="3">
-        <v>135760</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:12">
-      <c r="A1253" s="1">
-        <v>42789</v>
-      </c>
-      <c r="B1253" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1253">
-        <v>273</v>
-      </c>
-      <c r="D1253" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1253">
-        <v>0.35</v>
-      </c>
-      <c r="F1253">
-        <v>272.64999999999998</v>
-      </c>
-      <c r="G1253">
-        <v>273.10000000000002</v>
-      </c>
-      <c r="H1253">
-        <v>272.25</v>
-      </c>
-      <c r="I1253">
-        <v>272.89</v>
-      </c>
-      <c r="J1253">
-        <v>273.06</v>
-      </c>
-      <c r="K1253" s="3">
-        <v>47579</v>
-      </c>
-      <c r="L1253" s="3">
-        <v>139605</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:12">
-      <c r="A1254" s="1">
-        <v>42788</v>
-      </c>
-      <c r="B1254" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1254">
-        <v>272.64999999999998</v>
-      </c>
-      <c r="D1254" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1254">
-        <v>0.4</v>
-      </c>
-      <c r="F1254">
-        <v>272.60000000000002</v>
-      </c>
-      <c r="G1254">
-        <v>273.2</v>
-      </c>
-      <c r="H1254">
-        <v>272.35000000000002</v>
-      </c>
-      <c r="I1254">
-        <v>272.85000000000002</v>
-      </c>
-      <c r="J1254">
-        <v>273.02999999999997</v>
-      </c>
-      <c r="K1254" s="3">
-        <v>55389</v>
-      </c>
-      <c r="L1254" s="3">
-        <v>139222</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:12">
-      <c r="A1255" s="1">
-        <v>42787</v>
-      </c>
-      <c r="B1255" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1255">
-        <v>272.25</v>
-      </c>
-      <c r="D1255" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1255">
-        <v>2.5</v>
-      </c>
-      <c r="F1255">
-        <v>270</v>
-      </c>
-      <c r="G1255">
-        <v>273.5</v>
-      </c>
-      <c r="H1255">
-        <v>269.8</v>
-      </c>
-      <c r="I1255">
-        <v>272.11</v>
-      </c>
-      <c r="J1255">
-        <v>272.3</v>
-      </c>
-      <c r="K1255" s="3">
-        <v>118696</v>
-      </c>
-      <c r="L1255" s="3">
-        <v>143215</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:12">
-      <c r="A1256" s="1">
-        <v>42786</v>
-      </c>
-      <c r="B1256" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1256">
-        <v>269.75</v>
-      </c>
-      <c r="D1256" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1256">
-        <v>0.75</v>
-      </c>
-      <c r="F1256">
-        <v>269.14999999999998</v>
-      </c>
-      <c r="G1256">
-        <v>269.95</v>
-      </c>
-      <c r="H1256">
-        <v>268.7</v>
-      </c>
-      <c r="I1256">
-        <v>269.73</v>
-      </c>
-      <c r="J1256">
-        <v>269.93</v>
-      </c>
-      <c r="K1256" s="3">
-        <v>55584</v>
-      </c>
-      <c r="L1256" s="3">
-        <v>134954</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:12">
-      <c r="A1257" s="1">
-        <v>42783</v>
-      </c>
-      <c r="B1257" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1257">
-        <v>269</v>
-      </c>
-      <c r="D1257" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1257">
-        <v>0.25</v>
-      </c>
-      <c r="F1257">
-        <v>267.89999999999998</v>
-      </c>
-      <c r="G1257">
-        <v>269.25</v>
-      </c>
-      <c r="H1257">
-        <v>267.85000000000002</v>
-      </c>
-      <c r="I1257">
-        <v>268.83999999999997</v>
-      </c>
-      <c r="J1257">
-        <v>269.08</v>
-      </c>
-      <c r="K1257" s="3">
-        <v>66308</v>
-      </c>
-      <c r="L1257" s="3">
-        <v>135738</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:12">
-      <c r="A1258" s="1">
-        <v>42782</v>
-      </c>
-      <c r="B1258" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1258">
-        <v>268.75</v>
-      </c>
-      <c r="D1258" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1258">
-        <v>0.15</v>
-      </c>
-      <c r="F1258">
-        <v>269.5</v>
-      </c>
-      <c r="G1258">
-        <v>270.35000000000002</v>
-      </c>
-      <c r="H1258">
-        <v>268.55</v>
-      </c>
-      <c r="I1258">
-        <v>268.93</v>
-      </c>
-      <c r="J1258">
-        <v>269.18</v>
-      </c>
-      <c r="K1258" s="3">
-        <v>87305</v>
-      </c>
-      <c r="L1258" s="3">
-        <v>135414</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:12">
-      <c r="A1259" s="1">
-        <v>42781</v>
-      </c>
-      <c r="B1259" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1259">
-        <v>268.89999999999998</v>
-      </c>
-      <c r="D1259" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1259">
-        <v>0.9</v>
-      </c>
-      <c r="F1259">
-        <v>267.95</v>
-      </c>
-      <c r="G1259">
-        <v>269.5</v>
-      </c>
-      <c r="H1259">
-        <v>267.45</v>
-      </c>
-      <c r="I1259">
-        <v>268.81</v>
-      </c>
-      <c r="J1259">
-        <v>269.07</v>
-      </c>
-      <c r="K1259" s="3">
-        <v>83858</v>
-      </c>
-      <c r="L1259" s="3">
-        <v>136596</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:12">
-      <c r="A1260" s="1">
-        <v>42780</v>
-      </c>
-      <c r="B1260" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1260">
-        <v>268</v>
-      </c>
-      <c r="D1260" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1260">
-        <v>0.85</v>
-      </c>
-      <c r="F1260">
-        <v>269.75</v>
-      </c>
-      <c r="G1260">
-        <v>269.75</v>
-      </c>
-      <c r="H1260">
-        <v>267.45</v>
-      </c>
-      <c r="I1260">
-        <v>267.89999999999998</v>
-      </c>
-      <c r="J1260">
-        <v>268.17</v>
-      </c>
-      <c r="K1260" s="3">
-        <v>89158</v>
-      </c>
-      <c r="L1260" s="3">
-        <v>137570</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:12">
-      <c r="A1261" s="1">
-        <v>42779</v>
-      </c>
-      <c r="B1261" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1261">
-        <v>268.85000000000002</v>
-      </c>
-      <c r="D1261" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1261">
-        <v>0.1</v>
-      </c>
-      <c r="F1261">
-        <v>268.55</v>
-      </c>
-      <c r="G1261">
-        <v>269.14999999999998</v>
-      </c>
-      <c r="H1261">
-        <v>268.2</v>
-      </c>
-      <c r="I1261">
-        <v>268.81</v>
-      </c>
-      <c r="J1261">
-        <v>269.08999999999997</v>
-      </c>
-      <c r="K1261" s="3">
-        <v>54749</v>
-      </c>
-      <c r="L1261" s="3">
-        <v>134995</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:12">
-      <c r="A1262" s="1">
-        <v>42776</v>
-      </c>
-      <c r="B1262" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1262">
-        <v>268.75</v>
-      </c>
-      <c r="D1262" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1262">
-        <v>0.25</v>
-      </c>
-      <c r="F1262">
-        <v>269.55</v>
-      </c>
-      <c r="G1262">
-        <v>270.25</v>
-      </c>
-      <c r="H1262">
-        <v>268.7</v>
-      </c>
-      <c r="I1262">
-        <v>268.66000000000003</v>
-      </c>
-      <c r="J1262">
-        <v>268.98</v>
-      </c>
-      <c r="K1262" s="3">
-        <v>83528</v>
-      </c>
-      <c r="L1262" s="3">
-        <v>134809</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:12">
-      <c r="A1263" s="1">
-        <v>42775</v>
-      </c>
-      <c r="B1263" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1263">
-        <v>268.5</v>
-      </c>
-      <c r="D1263" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1263">
-        <v>0.25</v>
-      </c>
-      <c r="F1263">
-        <v>268.3</v>
-      </c>
-      <c r="G1263">
-        <v>269.2</v>
-      </c>
-      <c r="H1263">
-        <v>267.45</v>
-      </c>
-      <c r="I1263">
-        <v>267.69</v>
-      </c>
-      <c r="J1263">
-        <v>268.02</v>
-      </c>
-      <c r="K1263" s="3">
-        <v>130324</v>
-      </c>
-      <c r="L1263" s="3">
-        <v>133609</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:12">
-      <c r="A1264" s="1">
-        <v>42774</v>
-      </c>
-      <c r="B1264" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1264">
-        <v>268.25</v>
-      </c>
-      <c r="D1264" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1264">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F1264">
-        <v>268.85000000000002</v>
-      </c>
-      <c r="G1264">
-        <v>268.89999999999998</v>
-      </c>
-      <c r="H1264">
-        <v>266.14999999999998</v>
-      </c>
-      <c r="I1264">
-        <v>267.72000000000003</v>
-      </c>
-      <c r="J1264">
-        <v>268.06</v>
-      </c>
-      <c r="K1264" s="3">
-        <v>162962</v>
-      </c>
-      <c r="L1264" s="3">
-        <v>133655</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:12">
-      <c r="A1265" s="1">
-        <v>42773</v>
-      </c>
-      <c r="B1265" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1265">
-        <v>269.35000000000002</v>
-      </c>
-      <c r="D1265" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1265">
-        <v>0.7</v>
-      </c>
-      <c r="F1265">
-        <v>270.35000000000002</v>
-      </c>
-      <c r="G1265">
-        <v>270.35000000000002</v>
-      </c>
-      <c r="H1265">
-        <v>268.85000000000002</v>
-      </c>
-      <c r="I1265">
-        <v>268.97000000000003</v>
-      </c>
-      <c r="J1265">
-        <v>269.32</v>
-      </c>
-      <c r="K1265" s="3">
-        <v>91244</v>
-      </c>
-      <c r="L1265" s="3">
-        <v>137262</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:12">
-      <c r="A1266" s="1">
-        <v>42772</v>
-      </c>
-      <c r="B1266" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1266">
-        <v>270.05</v>
-      </c>
-      <c r="D1266" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1266">
-        <v>0.25</v>
-      </c>
-      <c r="F1266">
-        <v>271.3</v>
-      </c>
-      <c r="G1266">
-        <v>271.7</v>
-      </c>
-      <c r="H1266">
-        <v>269.2</v>
-      </c>
-      <c r="I1266">
-        <v>269.49</v>
-      </c>
-      <c r="J1266">
-        <v>269.86</v>
-      </c>
-      <c r="K1266" s="3">
-        <v>113320</v>
-      </c>
-      <c r="L1266" s="3">
-        <v>138187</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:12">
-      <c r="A1267" s="1">
-        <v>42769</v>
-      </c>
-      <c r="B1267" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1267">
-        <v>269.8</v>
-      </c>
-      <c r="D1267" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1267">
-        <v>0.6</v>
-      </c>
-      <c r="F1267">
-        <v>269.7</v>
-      </c>
-      <c r="G1267">
-        <v>269.95</v>
-      </c>
-      <c r="H1267">
-        <v>267.89999999999998</v>
-      </c>
-      <c r="I1267">
-        <v>268.85000000000002</v>
-      </c>
-      <c r="J1267">
-        <v>269.25</v>
-      </c>
-      <c r="K1267" s="3">
-        <v>116593</v>
-      </c>
-      <c r="L1267" s="3">
-        <v>137342</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:12">
-      <c r="A1268" s="1">
-        <v>42768</v>
-      </c>
-      <c r="B1268" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1268">
-        <v>269.2</v>
-      </c>
-      <c r="D1268" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1268">
-        <v>1</v>
-      </c>
-      <c r="F1268">
-        <v>269.95</v>
-      </c>
-      <c r="G1268">
-        <v>271.60000000000002</v>
-      </c>
-      <c r="H1268">
-        <v>268.5</v>
-      </c>
-      <c r="I1268">
-        <v>268.49</v>
-      </c>
-      <c r="J1268">
-        <v>268.89999999999998</v>
-      </c>
-      <c r="K1268" s="3">
-        <v>116104</v>
-      </c>
-      <c r="L1268" s="3">
-        <v>138097</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:12">
-      <c r="A1269" s="1">
-        <v>42767</v>
-      </c>
-      <c r="B1269" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1269">
-        <v>270.2</v>
-      </c>
-      <c r="D1269" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1269">
-        <v>1</v>
-      </c>
-      <c r="F1269">
-        <v>269.60000000000002</v>
-      </c>
-      <c r="G1269">
-        <v>270.3</v>
-      </c>
-      <c r="H1269">
-        <v>269.45</v>
-      </c>
-      <c r="I1269">
-        <v>269.56</v>
-      </c>
-      <c r="J1269">
-        <v>269.98</v>
-      </c>
-      <c r="K1269" s="3">
-        <v>61713</v>
-      </c>
-      <c r="L1269" s="3">
-        <v>137237</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:12">
-      <c r="A1270" s="1">
-        <v>42766</v>
-      </c>
-      <c r="B1270" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1270">
-        <v>269.2</v>
-      </c>
-      <c r="D1270" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1270">
-        <v>1.8</v>
-      </c>
-      <c r="F1270">
-        <v>269.89999999999998</v>
-      </c>
-      <c r="G1270">
-        <v>270.3</v>
-      </c>
-      <c r="H1270">
-        <v>268.95</v>
-      </c>
-      <c r="I1270">
-        <v>268.08999999999997</v>
-      </c>
-      <c r="J1270">
-        <v>268.52</v>
-      </c>
-      <c r="K1270" s="3">
-        <v>80052</v>
-      </c>
-      <c r="L1270" s="3">
-        <v>137213</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:12">
-      <c r="A1271" s="1">
-        <v>42761</v>
-      </c>
-      <c r="B1271" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1271">
-        <v>271</v>
-      </c>
-      <c r="D1271" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1271">
-        <v>2.75</v>
-      </c>
-      <c r="F1271">
-        <v>269.5</v>
-      </c>
-      <c r="G1271">
-        <v>271.5</v>
-      </c>
-      <c r="H1271">
-        <v>268.75</v>
-      </c>
-      <c r="I1271">
-        <v>270.48</v>
-      </c>
-      <c r="J1271">
-        <v>270.98</v>
-      </c>
-      <c r="K1271" s="3">
-        <v>118928</v>
-      </c>
-      <c r="L1271" s="3">
-        <v>138993</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:12">
-      <c r="A1272" s="1">
-        <v>42760</v>
-      </c>
-      <c r="B1272" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1272">
-        <v>268.25</v>
-      </c>
-      <c r="D1272" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1272">
-        <v>0.25</v>
-      </c>
-      <c r="F1272">
-        <v>269.5</v>
-      </c>
-      <c r="G1272">
-        <v>269.5</v>
-      </c>
-      <c r="H1272">
-        <v>267.55</v>
-      </c>
-      <c r="I1272">
-        <v>268.14999999999998</v>
-      </c>
-      <c r="J1272">
-        <v>268.66000000000003</v>
-      </c>
-      <c r="K1272" s="3">
-        <v>96884</v>
-      </c>
-      <c r="L1272" s="3">
-        <v>138234</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:12">
-      <c r="A1273" s="1">
-        <v>42759</v>
-      </c>
-      <c r="B1273" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1273">
-        <v>268</v>
-      </c>
-      <c r="D1273" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1273">
-        <v>0.85</v>
-      </c>
-      <c r="F1273">
-        <v>267.55</v>
-      </c>
-      <c r="G1273">
-        <v>268.89999999999998</v>
-      </c>
-      <c r="H1273">
-        <v>267</v>
-      </c>
-      <c r="I1273">
-        <v>267.3</v>
-      </c>
-      <c r="J1273">
-        <v>267.82</v>
-      </c>
-      <c r="K1273" s="3">
-        <v>85381</v>
-      </c>
-      <c r="L1273" s="3">
-        <v>139385</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:12">
-      <c r="A1274" s="1">
-        <v>42758</v>
-      </c>
-      <c r="B1274" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1274">
-        <v>267.14999999999998</v>
-      </c>
-      <c r="D1274" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1274">
-        <v>0.45</v>
-      </c>
-      <c r="F1274">
-        <v>267.25</v>
-      </c>
-      <c r="G1274">
-        <v>268.45</v>
-      </c>
-      <c r="H1274">
-        <v>265.89999999999998</v>
-      </c>
-      <c r="I1274">
-        <v>267.12</v>
-      </c>
-      <c r="J1274">
-        <v>267.64999999999998</v>
-      </c>
-      <c r="K1274" s="3">
-        <v>97368</v>
-      </c>
-      <c r="L1274" s="3">
-        <v>140701</v>
-      </c>
-    </row>
-    <row r="1275" spans="1:12">
-      <c r="A1275" s="1">
-        <v>42755</v>
-      </c>
-      <c r="B1275" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1275">
-        <v>267.60000000000002</v>
-      </c>
-      <c r="D1275" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1275">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F1275">
-        <v>267.25</v>
-      </c>
-      <c r="G1275">
-        <v>268</v>
-      </c>
-      <c r="H1275">
-        <v>266.95</v>
-      </c>
-      <c r="I1275">
-        <v>266.52</v>
-      </c>
-      <c r="J1275">
-        <v>267.08</v>
-      </c>
-      <c r="K1275" s="3">
-        <v>75514</v>
-      </c>
-      <c r="L1275" s="3">
-        <v>139476</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:12">
-      <c r="A1276" s="1">
-        <v>42754</v>
-      </c>
-      <c r="B1276" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1276">
-        <v>268.14999999999998</v>
-      </c>
-      <c r="D1276" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1276">
-        <v>0.2</v>
-      </c>
-      <c r="F1276">
-        <v>269.2</v>
-      </c>
-      <c r="G1276">
-        <v>270.8</v>
-      </c>
-      <c r="H1276">
-        <v>266.85000000000002</v>
-      </c>
-      <c r="I1276">
-        <v>267.7</v>
-      </c>
-      <c r="J1276">
-        <v>268.27999999999997</v>
-      </c>
-      <c r="K1276" s="3">
-        <v>145432</v>
-      </c>
-      <c r="L1276" s="3">
-        <v>138410</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:12">
-      <c r="A1277" s="1">
-        <v>42753</v>
-      </c>
-      <c r="B1277" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1277">
-        <v>267.95</v>
-      </c>
-      <c r="D1277" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1277">
-        <v>0.45</v>
-      </c>
-      <c r="F1277">
-        <v>268.14999999999998</v>
-      </c>
-      <c r="G1277">
-        <v>268.8</v>
-      </c>
-      <c r="H1277">
-        <v>266.10000000000002</v>
-      </c>
-      <c r="I1277">
-        <v>267.08</v>
-      </c>
-      <c r="J1277">
-        <v>267.67</v>
-      </c>
-      <c r="K1277" s="3">
-        <v>130395</v>
-      </c>
-      <c r="L1277" s="3">
-        <v>139938</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:12">
-      <c r="A1278" s="1">
-        <v>42752</v>
-      </c>
-      <c r="B1278" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1278">
-        <v>268.39999999999998</v>
-      </c>
-      <c r="D1278" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1278">
-        <v>1</v>
-      </c>
-      <c r="F1278">
-        <v>267.45</v>
-      </c>
-      <c r="G1278">
-        <v>269.25</v>
-      </c>
-      <c r="H1278">
-        <v>267.39999999999998</v>
-      </c>
-      <c r="I1278">
-        <v>267.37</v>
-      </c>
-      <c r="J1278">
-        <v>267.97000000000003</v>
-      </c>
-      <c r="K1278" s="3">
-        <v>95998</v>
-      </c>
-      <c r="L1278" s="3">
-        <v>141911</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:12">
-      <c r="A1279" s="1">
-        <v>42751</v>
-      </c>
-      <c r="B1279" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1279">
-        <v>267.39999999999998</v>
-      </c>
-      <c r="D1279" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1279">
-        <v>1.25</v>
-      </c>
-      <c r="F1279">
-        <v>268.35000000000002</v>
-      </c>
-      <c r="G1279">
-        <v>269.14999999999998</v>
-      </c>
-      <c r="H1279">
-        <v>266.35000000000002</v>
-      </c>
-      <c r="I1279">
-        <v>266.14999999999998</v>
-      </c>
-      <c r="J1279">
-        <v>266.76</v>
-      </c>
-      <c r="K1279" s="3">
-        <v>135817</v>
-      </c>
-      <c r="L1279" s="3">
-        <v>138374</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:12">
-      <c r="A1280" s="1">
-        <v>42748</v>
-      </c>
-      <c r="B1280" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1280">
-        <v>268.64999999999998</v>
-      </c>
-      <c r="D1280" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1280">
-        <v>0.2</v>
-      </c>
-      <c r="F1280">
-        <v>268.85000000000002</v>
-      </c>
-      <c r="G1280">
-        <v>269.3</v>
-      </c>
-      <c r="H1280">
-        <v>268.55</v>
-      </c>
-      <c r="I1280">
-        <v>267.91000000000003</v>
-      </c>
-      <c r="J1280">
-        <v>268.56</v>
-      </c>
-      <c r="K1280" s="3">
-        <v>69894</v>
-      </c>
-      <c r="L1280" s="3">
-        <v>135815</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:12">
-      <c r="A1281" s="1">
-        <v>42747</v>
-      </c>
-      <c r="B1281" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1281">
-        <v>268.85000000000002</v>
-      </c>
-      <c r="D1281" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1281">
-        <v>0.2</v>
-      </c>
-      <c r="F1281">
-        <v>268.85000000000002</v>
-      </c>
-      <c r="G1281">
-        <v>269.89999999999998</v>
-      </c>
-      <c r="H1281">
-        <v>268.64999999999998</v>
-      </c>
-      <c r="I1281">
-        <v>269.95</v>
-      </c>
-      <c r="J1281">
-        <v>270.62</v>
-      </c>
-      <c r="K1281" s="3">
-        <v>155730</v>
-      </c>
-      <c r="L1281" s="3">
-        <v>135483</v>
-      </c>
-    </row>
-    <row r="1282" spans="1:12">
-      <c r="A1282" s="1">
-        <v>42746</v>
-      </c>
-      <c r="B1282" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1282">
-        <v>269.05</v>
-      </c>
-      <c r="D1282" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1282">
-        <v>5.05</v>
-      </c>
-      <c r="F1282">
-        <v>264.2</v>
-      </c>
-      <c r="G1282">
-        <v>269.60000000000002</v>
-      </c>
-      <c r="H1282">
-        <v>264.14999999999998</v>
-      </c>
-      <c r="I1282">
-        <v>268.14999999999998</v>
-      </c>
-      <c r="J1282">
-        <v>268.83</v>
-      </c>
-      <c r="K1282" s="3">
-        <v>193691</v>
-      </c>
-      <c r="L1282" s="3">
-        <v>144618</v>
-      </c>
-    </row>
-    <row r="1283" spans="1:12">
-      <c r="A1283" s="1">
-        <v>42745</v>
-      </c>
-      <c r="B1283" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1283">
-        <v>264</v>
-      </c>
-      <c r="D1283" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1283">
-        <v>0.05</v>
-      </c>
-      <c r="F1283">
-        <v>263.2</v>
-      </c>
-      <c r="G1283">
-        <v>264.3</v>
-      </c>
-      <c r="H1283">
-        <v>263.2</v>
-      </c>
-      <c r="I1283">
-        <v>263.73</v>
-      </c>
-      <c r="J1283">
-        <v>264.41000000000003</v>
-      </c>
-      <c r="K1283" s="3">
-        <v>86405</v>
-      </c>
-      <c r="L1283" s="3">
-        <v>136411</v>
-      </c>
-    </row>
-    <row r="1284" spans="1:12">
-      <c r="A1284" s="1">
-        <v>42744</v>
-      </c>
-      <c r="B1284" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1284">
-        <v>264.05</v>
-      </c>
-      <c r="D1284" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1284">
-        <v>0.4</v>
-      </c>
-      <c r="F1284">
-        <v>263.95</v>
-      </c>
-      <c r="G1284">
-        <v>264.64999999999998</v>
-      </c>
-      <c r="H1284">
-        <v>263.7</v>
-      </c>
-      <c r="I1284">
-        <v>263.74</v>
-      </c>
-      <c r="J1284">
-        <v>264.43</v>
-      </c>
-      <c r="K1284" s="3">
-        <v>83543</v>
-      </c>
-      <c r="L1284" s="3">
-        <v>136814</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:12">
-      <c r="A1285" s="1">
-        <v>42741</v>
-      </c>
-      <c r="B1285" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1285">
-        <v>263.64999999999998</v>
-      </c>
-      <c r="D1285" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1285">
-        <v>1</v>
-      </c>
-      <c r="F1285">
-        <v>262.95</v>
-      </c>
-      <c r="G1285">
-        <v>264.14999999999998</v>
-      </c>
-      <c r="H1285">
-        <v>262.89999999999998</v>
-      </c>
-      <c r="I1285">
-        <v>263.2</v>
-      </c>
-      <c r="J1285">
-        <v>263.93</v>
-      </c>
-      <c r="K1285" s="3">
-        <v>89902</v>
-      </c>
-      <c r="L1285" s="3">
-        <v>136434</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:12">
-      <c r="A1286" s="1">
-        <v>42740</v>
-      </c>
-      <c r="B1286" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1286">
-        <v>262.64999999999998</v>
-      </c>
-      <c r="D1286" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1286">
-        <v>0.7</v>
-      </c>
-      <c r="F1286">
-        <v>263.05</v>
-      </c>
-      <c r="G1286">
-        <v>263.35000000000002</v>
-      </c>
-      <c r="H1286">
-        <v>262.3</v>
-      </c>
-      <c r="I1286">
-        <v>261.98</v>
-      </c>
-      <c r="J1286">
-        <v>262.72000000000003</v>
-      </c>
-      <c r="K1286" s="3">
-        <v>86761</v>
-      </c>
-      <c r="L1286" s="3">
-        <v>134598</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:12">
-      <c r="A1287" s="1">
-        <v>42739</v>
-      </c>
-      <c r="B1287" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1287">
-        <v>263.35000000000002</v>
-      </c>
-      <c r="D1287" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1287">
-        <v>0.15</v>
-      </c>
-      <c r="F1287">
-        <v>263</v>
-      </c>
-      <c r="G1287">
-        <v>263.55</v>
-      </c>
-      <c r="H1287">
-        <v>262.8</v>
-      </c>
-      <c r="I1287">
-        <v>263.12</v>
-      </c>
-      <c r="J1287">
-        <v>263.87</v>
-      </c>
-      <c r="K1287" s="3">
-        <v>72336</v>
-      </c>
-      <c r="L1287" s="3">
-        <v>134545</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:12">
-      <c r="A1288" s="1">
-        <v>42738</v>
-      </c>
-      <c r="B1288" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1288">
-        <v>263.2</v>
-      </c>
-      <c r="D1288" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1288">
-        <v>2</v>
-      </c>
-      <c r="F1288">
-        <v>261.75</v>
-      </c>
-      <c r="G1288">
-        <v>263.2</v>
-      </c>
-      <c r="H1288">
-        <v>261.35000000000002</v>
-      </c>
-      <c r="I1288">
-        <v>262.97000000000003</v>
-      </c>
-      <c r="J1288">
-        <v>263.73</v>
-      </c>
-      <c r="K1288" s="3">
-        <v>89599</v>
-      </c>
-      <c r="L1288" s="3">
-        <v>136692</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:12">
-      <c r="A1289" s="1">
-        <v>42737</v>
-      </c>
-      <c r="B1289" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1289">
-        <v>261.2</v>
-      </c>
-      <c r="D1289" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1289">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F1289">
-        <v>260.05</v>
-      </c>
-      <c r="G1289">
-        <v>261.89999999999998</v>
-      </c>
-      <c r="H1289">
-        <v>259.25</v>
-      </c>
-      <c r="I1289">
-        <v>260.36</v>
-      </c>
-      <c r="J1289">
-        <v>261.13</v>
-      </c>
-      <c r="K1289" s="3">
-        <v>81174</v>
-      </c>
-      <c r="L1289" s="3">
-        <v>135393</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KOSPI_Futures.xlsx
+++ b/KOSPI_Futures.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF28ED01-FA2E-4FE3-95F1-6190FA7F2FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DE3D77B-2C87-4C89-B5B7-3259786F497D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="15">
   <si>
     <t>일자</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V1087"/>
+  <dimension ref="A1:V1227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1070" workbookViewId="0">
-      <selection activeCell="A1289" sqref="A1088:XFD1289"/>
+    <sheetView tabSelected="1" topLeftCell="A1200" workbookViewId="0">
+      <selection activeCell="R1216" sqref="R1216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -24385,6 +24385,9 @@
       <c r="A631" s="1">
         <v>43718</v>
       </c>
+      <c r="B631" s="2">
+        <v>0</v>
+      </c>
       <c r="C631">
         <v>268.8</v>
       </c>
@@ -24420,6 +24423,9 @@
       <c r="A632" s="1">
         <v>43717</v>
       </c>
+      <c r="B632" s="2">
+        <v>0</v>
+      </c>
       <c r="C632">
         <v>267.64999999999998</v>
       </c>
@@ -24455,6 +24461,9 @@
       <c r="A633" s="1">
         <v>43714</v>
       </c>
+      <c r="B633" s="2">
+        <v>0</v>
+      </c>
       <c r="C633">
         <v>265.75</v>
       </c>
@@ -24490,6 +24499,9 @@
       <c r="A634" s="1">
         <v>43713</v>
       </c>
+      <c r="B634" s="2">
+        <v>0</v>
+      </c>
       <c r="C634">
         <v>264.7</v>
       </c>
@@ -24525,6 +24537,9 @@
       <c r="A635" s="1">
         <v>43712</v>
       </c>
+      <c r="B635" s="2">
+        <v>0</v>
+      </c>
       <c r="C635">
         <v>261.89999999999998</v>
       </c>
@@ -24560,6 +24575,9 @@
       <c r="A636" s="1">
         <v>43711</v>
       </c>
+      <c r="B636" s="2">
+        <v>0</v>
+      </c>
       <c r="C636">
         <v>257.95</v>
       </c>
@@ -24595,6 +24613,9 @@
       <c r="A637" s="1">
         <v>43710</v>
       </c>
+      <c r="B637" s="2">
+        <v>0</v>
+      </c>
       <c r="C637">
         <v>259.35000000000002</v>
       </c>
@@ -24630,6 +24651,9 @@
       <c r="A638" s="1">
         <v>43707</v>
       </c>
+      <c r="B638" s="2">
+        <v>0</v>
+      </c>
       <c r="C638">
         <v>259.14999999999998</v>
       </c>
@@ -24665,6 +24689,9 @@
       <c r="A639" s="1">
         <v>43706</v>
       </c>
+      <c r="B639" s="2">
+        <v>0</v>
+      </c>
       <c r="C639">
         <v>254.2</v>
       </c>
@@ -24700,6 +24727,9 @@
       <c r="A640" s="1">
         <v>43705</v>
       </c>
+      <c r="B640" s="2">
+        <v>0</v>
+      </c>
       <c r="C640">
         <v>255.85</v>
       </c>
@@ -24735,6 +24765,9 @@
       <c r="A641" s="1">
         <v>43704</v>
       </c>
+      <c r="B641" s="2">
+        <v>0</v>
+      </c>
       <c r="C641">
         <v>254</v>
       </c>
@@ -24770,6 +24803,9 @@
       <c r="A642" s="1">
         <v>43703</v>
       </c>
+      <c r="B642" s="2">
+        <v>0</v>
+      </c>
       <c r="C642">
         <v>252.6</v>
       </c>
@@ -24805,6 +24841,9 @@
       <c r="A643" s="1">
         <v>43700</v>
       </c>
+      <c r="B643" s="2">
+        <v>0</v>
+      </c>
       <c r="C643">
         <v>256.35000000000002</v>
       </c>
@@ -24840,6 +24879,9 @@
       <c r="A644" s="1">
         <v>43699</v>
       </c>
+      <c r="B644" s="2">
+        <v>0</v>
+      </c>
       <c r="C644">
         <v>256.39999999999998</v>
       </c>
@@ -24875,6 +24917,9 @@
       <c r="A645" s="1">
         <v>43698</v>
       </c>
+      <c r="B645" s="2">
+        <v>0</v>
+      </c>
       <c r="C645">
         <v>258.39999999999998</v>
       </c>
@@ -24910,6 +24955,9 @@
       <c r="A646" s="1">
         <v>43697</v>
       </c>
+      <c r="B646" s="2">
+        <v>0</v>
+      </c>
       <c r="C646">
         <v>258</v>
       </c>
@@ -24945,6 +24993,9 @@
       <c r="A647" s="1">
         <v>43696</v>
       </c>
+      <c r="B647" s="2">
+        <v>0</v>
+      </c>
       <c r="C647">
         <v>255.75</v>
       </c>
@@ -24980,6 +25031,9 @@
       <c r="A648" s="1">
         <v>43693</v>
       </c>
+      <c r="B648" s="2">
+        <v>0</v>
+      </c>
       <c r="C648">
         <v>254.05</v>
       </c>
@@ -25015,6 +25069,9 @@
       <c r="A649" s="1">
         <v>43691</v>
       </c>
+      <c r="B649" s="2">
+        <v>0</v>
+      </c>
       <c r="C649">
         <v>255.2</v>
       </c>
@@ -25050,6 +25107,9 @@
       <c r="A650" s="1">
         <v>43690</v>
       </c>
+      <c r="B650" s="2">
+        <v>0</v>
+      </c>
       <c r="C650">
         <v>252.05</v>
       </c>
@@ -25085,6 +25145,9 @@
       <c r="A651" s="1">
         <v>43689</v>
       </c>
+      <c r="B651" s="2">
+        <v>0</v>
+      </c>
       <c r="C651">
         <v>255.45</v>
       </c>
@@ -25120,6 +25183,9 @@
       <c r="A652" s="1">
         <v>43686</v>
       </c>
+      <c r="B652" s="2">
+        <v>0</v>
+      </c>
       <c r="C652">
         <v>255.25</v>
       </c>
@@ -25155,6 +25221,9 @@
       <c r="A653" s="1">
         <v>43685</v>
       </c>
+      <c r="B653" s="2">
+        <v>0</v>
+      </c>
       <c r="C653">
         <v>253.6</v>
       </c>
@@ -25190,6 +25259,9 @@
       <c r="A654" s="1">
         <v>43684</v>
       </c>
+      <c r="B654" s="2">
+        <v>0</v>
+      </c>
       <c r="C654">
         <v>253</v>
       </c>
@@ -25225,6 +25297,9 @@
       <c r="A655" s="1">
         <v>43683</v>
       </c>
+      <c r="B655" s="2">
+        <v>0</v>
+      </c>
       <c r="C655">
         <v>253.65</v>
       </c>
@@ -25260,6 +25335,9 @@
       <c r="A656" s="1">
         <v>43682</v>
       </c>
+      <c r="B656" s="2">
+        <v>0</v>
+      </c>
       <c r="C656">
         <v>256.95</v>
       </c>
@@ -25295,6 +25373,9 @@
       <c r="A657" s="1">
         <v>43679</v>
       </c>
+      <c r="B657" s="2">
+        <v>0</v>
+      </c>
       <c r="C657">
         <v>263.14999999999998</v>
       </c>
@@ -25330,6 +25411,9 @@
       <c r="A658" s="1">
         <v>43678</v>
       </c>
+      <c r="B658" s="2">
+        <v>0</v>
+      </c>
       <c r="C658">
         <v>266.2</v>
       </c>
@@ -25365,6 +25449,9 @@
       <c r="A659" s="1">
         <v>43677</v>
       </c>
+      <c r="B659" s="2">
+        <v>0</v>
+      </c>
       <c r="C659">
         <v>266.85000000000002</v>
       </c>
@@ -25400,6 +25487,9 @@
       <c r="A660" s="1">
         <v>43676</v>
       </c>
+      <c r="B660" s="2">
+        <v>0</v>
+      </c>
       <c r="C660">
         <v>269.39999999999998</v>
       </c>
@@ -25435,6 +25525,9 @@
       <c r="A661" s="1">
         <v>43675</v>
       </c>
+      <c r="B661" s="2">
+        <v>0</v>
+      </c>
       <c r="C661">
         <v>268.39999999999998</v>
       </c>
@@ -25470,6 +25563,9 @@
       <c r="A662" s="1">
         <v>43672</v>
       </c>
+      <c r="B662" s="2">
+        <v>0</v>
+      </c>
       <c r="C662">
         <v>272.55</v>
       </c>
@@ -25505,6 +25601,9 @@
       <c r="A663" s="1">
         <v>43671</v>
       </c>
+      <c r="B663" s="2">
+        <v>0</v>
+      </c>
       <c r="C663">
         <v>273.8</v>
       </c>
@@ -25540,6 +25639,9 @@
       <c r="A664" s="1">
         <v>43670</v>
       </c>
+      <c r="B664" s="2">
+        <v>0</v>
+      </c>
       <c r="C664">
         <v>274.05</v>
       </c>
@@ -25575,6 +25677,9 @@
       <c r="A665" s="1">
         <v>43669</v>
       </c>
+      <c r="B665" s="2">
+        <v>0</v>
+      </c>
       <c r="C665">
         <v>276.45</v>
       </c>
@@ -25610,6 +25715,9 @@
       <c r="A666" s="1">
         <v>43668</v>
       </c>
+      <c r="B666" s="2">
+        <v>0</v>
+      </c>
       <c r="C666">
         <v>275.14999999999998</v>
       </c>
@@ -25645,6 +25753,9 @@
       <c r="A667" s="1">
         <v>43665</v>
       </c>
+      <c r="B667" s="2">
+        <v>0</v>
+      </c>
       <c r="C667">
         <v>275.14999999999998</v>
       </c>
@@ -25680,6 +25791,9 @@
       <c r="A668" s="1">
         <v>43664</v>
       </c>
+      <c r="B668" s="2">
+        <v>0</v>
+      </c>
       <c r="C668">
         <v>271.10000000000002</v>
       </c>
@@ -25715,6 +25829,9 @@
       <c r="A669" s="1">
         <v>43663</v>
       </c>
+      <c r="B669" s="2">
+        <v>0</v>
+      </c>
       <c r="C669">
         <v>271.85000000000002</v>
       </c>
@@ -25750,6 +25867,9 @@
       <c r="A670" s="1">
         <v>43662</v>
       </c>
+      <c r="B670" s="2">
+        <v>0</v>
+      </c>
       <c r="C670">
         <v>274.7</v>
       </c>
@@ -25785,6 +25905,9 @@
       <c r="A671" s="1">
         <v>43661</v>
       </c>
+      <c r="B671" s="2">
+        <v>0</v>
+      </c>
       <c r="C671">
         <v>273.5</v>
       </c>
@@ -25820,6 +25943,9 @@
       <c r="A672" s="1">
         <v>43658</v>
       </c>
+      <c r="B672" s="2">
+        <v>0</v>
+      </c>
       <c r="C672">
         <v>273.45</v>
       </c>
@@ -25855,6 +25981,9 @@
       <c r="A673" s="1">
         <v>43657</v>
       </c>
+      <c r="B673" s="2">
+        <v>0</v>
+      </c>
       <c r="C673">
         <v>273</v>
       </c>
@@ -25890,6 +26019,9 @@
       <c r="A674" s="1">
         <v>43656</v>
       </c>
+      <c r="B674" s="2">
+        <v>0</v>
+      </c>
       <c r="C674">
         <v>269.64999999999998</v>
       </c>
@@ -25925,6 +26057,9 @@
       <c r="A675" s="1">
         <v>43655</v>
       </c>
+      <c r="B675" s="2">
+        <v>0</v>
+      </c>
       <c r="C675">
         <v>268</v>
       </c>
@@ -25960,6 +26095,9 @@
       <c r="A676" s="1">
         <v>43654</v>
       </c>
+      <c r="B676" s="2">
+        <v>0</v>
+      </c>
       <c r="C676">
         <v>269.2</v>
       </c>
@@ -25995,6 +26133,9 @@
       <c r="A677" s="1">
         <v>43651</v>
       </c>
+      <c r="B677" s="2">
+        <v>0</v>
+      </c>
       <c r="C677">
         <v>274.85000000000002</v>
       </c>
@@ -26030,6 +26171,9 @@
       <c r="A678" s="1">
         <v>43650</v>
       </c>
+      <c r="B678" s="2">
+        <v>0</v>
+      </c>
       <c r="C678">
         <v>275.55</v>
       </c>
@@ -26065,6 +26209,9 @@
       <c r="A679" s="1">
         <v>43649</v>
       </c>
+      <c r="B679" s="2">
+        <v>0</v>
+      </c>
       <c r="C679">
         <v>273</v>
       </c>
@@ -26100,6 +26247,9 @@
       <c r="A680" s="1">
         <v>43648</v>
       </c>
+      <c r="B680" s="2">
+        <v>0</v>
+      </c>
       <c r="C680">
         <v>277</v>
       </c>
@@ -26135,6 +26285,9 @@
       <c r="A681" s="1">
         <v>43647</v>
       </c>
+      <c r="B681" s="2">
+        <v>0</v>
+      </c>
       <c r="C681">
         <v>278.10000000000002</v>
       </c>
@@ -26170,6 +26323,9 @@
       <c r="A682" s="1">
         <v>43644</v>
       </c>
+      <c r="B682" s="2">
+        <v>0</v>
+      </c>
       <c r="C682">
         <v>278.39999999999998</v>
       </c>
@@ -26205,6 +26361,9 @@
       <c r="A683" s="1">
         <v>43643</v>
       </c>
+      <c r="B683" s="2">
+        <v>0</v>
+      </c>
       <c r="C683">
         <v>279.2</v>
       </c>
@@ -26240,6 +26399,9 @@
       <c r="A684" s="1">
         <v>43642</v>
       </c>
+      <c r="B684" s="2">
+        <v>0</v>
+      </c>
       <c r="C684">
         <v>275.75</v>
       </c>
@@ -26275,6 +26437,9 @@
       <c r="A685" s="1">
         <v>43641</v>
       </c>
+      <c r="B685" s="2">
+        <v>0</v>
+      </c>
       <c r="C685">
         <v>275.05</v>
       </c>
@@ -26310,6 +26475,9 @@
       <c r="A686" s="1">
         <v>43640</v>
       </c>
+      <c r="B686" s="2">
+        <v>0</v>
+      </c>
       <c r="C686">
         <v>275.7</v>
       </c>
@@ -26345,6 +26513,9 @@
       <c r="A687" s="1">
         <v>43637</v>
       </c>
+      <c r="B687" s="2">
+        <v>0</v>
+      </c>
       <c r="C687">
         <v>275.7</v>
       </c>
@@ -26380,6 +26551,9 @@
       <c r="A688" s="1">
         <v>43636</v>
       </c>
+      <c r="B688" s="2">
+        <v>0</v>
+      </c>
       <c r="C688">
         <v>276.10000000000002</v>
       </c>
@@ -26415,6 +26589,9 @@
       <c r="A689" s="1">
         <v>43635</v>
       </c>
+      <c r="B689" s="2">
+        <v>0</v>
+      </c>
       <c r="C689">
         <v>274.85000000000002</v>
       </c>
@@ -26450,6 +26627,9 @@
       <c r="A690" s="1">
         <v>43634</v>
       </c>
+      <c r="B690" s="2">
+        <v>0</v>
+      </c>
       <c r="C690">
         <v>271.64999999999998</v>
       </c>
@@ -26485,6 +26665,9 @@
       <c r="A691" s="1">
         <v>43633</v>
       </c>
+      <c r="B691" s="2">
+        <v>0</v>
+      </c>
       <c r="C691">
         <v>270.25</v>
       </c>
@@ -26520,6 +26703,9 @@
       <c r="A692" s="1">
         <v>43630</v>
       </c>
+      <c r="B692" s="2">
+        <v>0</v>
+      </c>
       <c r="C692">
         <v>269.95</v>
       </c>
@@ -26555,6 +26741,9 @@
       <c r="A693" s="1">
         <v>43629</v>
       </c>
+      <c r="B693" s="2">
+        <v>0</v>
+      </c>
       <c r="C693">
         <v>272</v>
       </c>
@@ -26592,6 +26781,9 @@
       <c r="A694" s="1">
         <v>43628</v>
       </c>
+      <c r="B694" s="2">
+        <v>0</v>
+      </c>
       <c r="C694">
         <v>272.14999999999998</v>
       </c>
@@ -26630,6 +26822,9 @@
       <c r="A695" s="1">
         <v>43627</v>
       </c>
+      <c r="B695" s="2">
+        <v>0</v>
+      </c>
       <c r="C695">
         <v>273.14999999999998</v>
       </c>
@@ -26668,6 +26863,9 @@
       <c r="A696" s="1">
         <v>43626</v>
       </c>
+      <c r="B696" s="2">
+        <v>0</v>
+      </c>
       <c r="C696">
         <v>271.7</v>
       </c>
@@ -26706,6 +26904,9 @@
       <c r="A697" s="1">
         <v>43623</v>
       </c>
+      <c r="B697" s="2">
+        <v>0</v>
+      </c>
       <c r="C697">
         <v>267.60000000000002</v>
       </c>
@@ -26744,6 +26945,9 @@
       <c r="A698" s="1">
         <v>43621</v>
       </c>
+      <c r="B698" s="2">
+        <v>0</v>
+      </c>
       <c r="C698">
         <v>267.95</v>
       </c>
@@ -26782,6 +26986,9 @@
       <c r="A699" s="1">
         <v>43620</v>
       </c>
+      <c r="B699" s="2">
+        <v>0</v>
+      </c>
       <c r="C699">
         <v>267.05</v>
       </c>
@@ -26820,6 +27027,9 @@
       <c r="A700" s="1">
         <v>43619</v>
       </c>
+      <c r="B700" s="2">
+        <v>0</v>
+      </c>
       <c r="C700">
         <v>268.05</v>
       </c>
@@ -26858,6 +27068,9 @@
       <c r="A701" s="1">
         <v>43616</v>
       </c>
+      <c r="B701" s="2">
+        <v>0</v>
+      </c>
       <c r="C701">
         <v>263.5</v>
       </c>
@@ -26896,6 +27109,9 @@
       <c r="A702" s="1">
         <v>43615</v>
       </c>
+      <c r="B702" s="2">
+        <v>0</v>
+      </c>
       <c r="C702">
         <v>264.3</v>
       </c>
@@ -26934,6 +27150,9 @@
       <c r="A703" s="1">
         <v>43614</v>
       </c>
+      <c r="B703" s="2">
+        <v>0</v>
+      </c>
       <c r="C703">
         <v>261.10000000000002</v>
       </c>
@@ -26972,6 +27191,9 @@
       <c r="A704" s="1">
         <v>43613</v>
       </c>
+      <c r="B704" s="2">
+        <v>0</v>
+      </c>
       <c r="C704">
         <v>264.89999999999998</v>
       </c>
@@ -27010,6 +27232,9 @@
       <c r="A705" s="1">
         <v>43612</v>
       </c>
+      <c r="B705" s="2">
+        <v>0</v>
+      </c>
       <c r="C705">
         <v>264.5</v>
       </c>
@@ -27048,6 +27273,9 @@
       <c r="A706" s="1">
         <v>43609</v>
       </c>
+      <c r="B706" s="2">
+        <v>0</v>
+      </c>
       <c r="C706">
         <v>264.95</v>
       </c>
@@ -27086,6 +27314,9 @@
       <c r="A707" s="1">
         <v>43608</v>
       </c>
+      <c r="B707" s="2">
+        <v>0</v>
+      </c>
       <c r="C707">
         <v>266.14999999999998</v>
       </c>
@@ -27124,6 +27355,9 @@
       <c r="A708" s="1">
         <v>43607</v>
       </c>
+      <c r="B708" s="2">
+        <v>0</v>
+      </c>
       <c r="C708">
         <v>267.2</v>
       </c>
@@ -27162,6 +27396,9 @@
       <c r="A709" s="1">
         <v>43606</v>
       </c>
+      <c r="B709" s="2">
+        <v>0</v>
+      </c>
       <c r="C709">
         <v>266.64999999999998</v>
       </c>
@@ -27200,6 +27437,9 @@
       <c r="A710" s="1">
         <v>43605</v>
       </c>
+      <c r="B710" s="2">
+        <v>0</v>
+      </c>
       <c r="C710">
         <v>265.3</v>
       </c>
@@ -27238,6 +27478,9 @@
       <c r="A711" s="1">
         <v>43602</v>
       </c>
+      <c r="B711" s="2">
+        <v>0</v>
+      </c>
       <c r="C711">
         <v>264.8</v>
       </c>
@@ -27276,6 +27519,9 @@
       <c r="A712" s="1">
         <v>43601</v>
       </c>
+      <c r="B712" s="2">
+        <v>0</v>
+      </c>
       <c r="C712">
         <v>266.35000000000002</v>
       </c>
@@ -27314,6 +27560,9 @@
       <c r="A713" s="1">
         <v>43600</v>
       </c>
+      <c r="B713" s="2">
+        <v>0</v>
+      </c>
       <c r="C713">
         <v>270.2</v>
       </c>
@@ -27352,6 +27601,9 @@
       <c r="A714" s="1">
         <v>43599</v>
       </c>
+      <c r="B714" s="2">
+        <v>0</v>
+      </c>
       <c r="C714">
         <v>268.64999999999998</v>
       </c>
@@ -27390,6 +27642,9 @@
       <c r="A715" s="1">
         <v>43598</v>
       </c>
+      <c r="B715" s="2">
+        <v>0</v>
+      </c>
       <c r="C715">
         <v>269.05</v>
       </c>
@@ -27428,6 +27683,9 @@
       <c r="A716" s="1">
         <v>43595</v>
       </c>
+      <c r="B716" s="2">
+        <v>0</v>
+      </c>
       <c r="C716">
         <v>271.95</v>
       </c>
@@ -27466,6 +27724,9 @@
       <c r="A717" s="1">
         <v>43594</v>
       </c>
+      <c r="B717" s="2">
+        <v>0</v>
+      </c>
       <c r="C717">
         <v>272.25</v>
       </c>
@@ -27504,6 +27765,9 @@
       <c r="A718" s="1">
         <v>43593</v>
       </c>
+      <c r="B718" s="2">
+        <v>0</v>
+      </c>
       <c r="C718">
         <v>280.14999999999998</v>
       </c>
@@ -27542,6 +27806,9 @@
       <c r="A719" s="1">
         <v>43592</v>
       </c>
+      <c r="B719" s="2">
+        <v>0</v>
+      </c>
       <c r="C719">
         <v>281.8</v>
       </c>
@@ -27580,6 +27847,9 @@
       <c r="A720" s="1">
         <v>43588</v>
       </c>
+      <c r="B720" s="2">
+        <v>0</v>
+      </c>
       <c r="C720">
         <v>283.95</v>
       </c>
@@ -27618,6 +27888,9 @@
       <c r="A721" s="1">
         <v>43587</v>
       </c>
+      <c r="B721" s="2">
+        <v>0</v>
+      </c>
       <c r="C721">
         <v>286.85000000000002</v>
       </c>
@@ -27656,6 +27929,9 @@
       <c r="A722" s="1">
         <v>43585</v>
       </c>
+      <c r="B722" s="2">
+        <v>0</v>
+      </c>
       <c r="C722">
         <v>285.39999999999998</v>
       </c>
@@ -27694,6 +27970,9 @@
       <c r="A723" s="1">
         <v>43584</v>
       </c>
+      <c r="B723" s="2">
+        <v>0</v>
+      </c>
       <c r="C723">
         <v>287.64999999999998</v>
       </c>
@@ -27732,6 +28011,9 @@
       <c r="A724" s="1">
         <v>43581</v>
       </c>
+      <c r="B724" s="2">
+        <v>0</v>
+      </c>
       <c r="C724">
         <v>281.75</v>
       </c>
@@ -27770,6 +28052,9 @@
       <c r="A725" s="1">
         <v>43580</v>
       </c>
+      <c r="B725" s="2">
+        <v>0</v>
+      </c>
       <c r="C725">
         <v>283.25</v>
       </c>
@@ -27808,6 +28093,9 @@
       <c r="A726" s="1">
         <v>43579</v>
       </c>
+      <c r="B726" s="2">
+        <v>0</v>
+      </c>
       <c r="C726">
         <v>284.25</v>
       </c>
@@ -27846,6 +28134,9 @@
       <c r="A727" s="1">
         <v>43578</v>
       </c>
+      <c r="B727" s="2">
+        <v>0</v>
+      </c>
       <c r="C727">
         <v>287</v>
       </c>
@@ -27884,6 +28175,9 @@
       <c r="A728" s="1">
         <v>43577</v>
       </c>
+      <c r="B728" s="2">
+        <v>0</v>
+      </c>
       <c r="C728">
         <v>286.5</v>
       </c>
@@ -27922,6 +28216,9 @@
       <c r="A729" s="1">
         <v>43574</v>
       </c>
+      <c r="B729" s="2">
+        <v>0</v>
+      </c>
       <c r="C729">
         <v>286.55</v>
       </c>
@@ -27960,6 +28257,9 @@
       <c r="A730" s="1">
         <v>43573</v>
       </c>
+      <c r="B730" s="2">
+        <v>0</v>
+      </c>
       <c r="C730">
         <v>286.5</v>
       </c>
@@ -27998,6 +28298,9 @@
       <c r="A731" s="1">
         <v>43572</v>
       </c>
+      <c r="B731" s="2">
+        <v>0</v>
+      </c>
       <c r="C731">
         <v>291.55</v>
       </c>
@@ -28036,6 +28339,9 @@
       <c r="A732" s="1">
         <v>43571</v>
       </c>
+      <c r="B732" s="2">
+        <v>0</v>
+      </c>
       <c r="C732">
         <v>291.64999999999998</v>
       </c>
@@ -28074,6 +28380,9 @@
       <c r="A733" s="1">
         <v>43570</v>
       </c>
+      <c r="B733" s="2">
+        <v>0</v>
+      </c>
       <c r="C733">
         <v>290.75</v>
       </c>
@@ -28112,6 +28421,9 @@
       <c r="A734" s="1">
         <v>43567</v>
       </c>
+      <c r="B734" s="2">
+        <v>0</v>
+      </c>
       <c r="C734">
         <v>289.45</v>
       </c>
@@ -28150,6 +28462,9 @@
       <c r="A735" s="1">
         <v>43566</v>
       </c>
+      <c r="B735" s="2">
+        <v>0</v>
+      </c>
       <c r="C735">
         <v>288.3</v>
       </c>
@@ -28188,6 +28503,9 @@
       <c r="A736" s="1">
         <v>43565</v>
       </c>
+      <c r="B736" s="2">
+        <v>0</v>
+      </c>
       <c r="C736">
         <v>289.2</v>
       </c>
@@ -28226,6 +28544,9 @@
       <c r="A737" s="1">
         <v>43564</v>
       </c>
+      <c r="B737" s="2">
+        <v>0</v>
+      </c>
       <c r="C737">
         <v>287.75</v>
       </c>
@@ -28264,6 +28585,9 @@
       <c r="A738" s="1">
         <v>43563</v>
       </c>
+      <c r="B738" s="2">
+        <v>0</v>
+      </c>
       <c r="C738">
         <v>287.25</v>
       </c>
@@ -28302,6 +28626,9 @@
       <c r="A739" s="1">
         <v>43560</v>
       </c>
+      <c r="B739" s="2">
+        <v>0</v>
+      </c>
       <c r="C739">
         <v>288</v>
       </c>
@@ -28340,6 +28667,9 @@
       <c r="A740" s="1">
         <v>43559</v>
       </c>
+      <c r="B740" s="2">
+        <v>0</v>
+      </c>
       <c r="C740">
         <v>287.3</v>
       </c>
@@ -28378,6 +28708,9 @@
       <c r="A741" s="1">
         <v>43558</v>
       </c>
+      <c r="B741" s="2">
+        <v>0</v>
+      </c>
       <c r="C741">
         <v>286.85000000000002</v>
       </c>
@@ -28416,6 +28749,9 @@
       <c r="A742" s="1">
         <v>43557</v>
       </c>
+      <c r="B742" s="2">
+        <v>0</v>
+      </c>
       <c r="C742">
         <v>282.5</v>
       </c>
@@ -28454,6 +28790,9 @@
       <c r="A743" s="1">
         <v>43556</v>
       </c>
+      <c r="B743" s="2">
+        <v>0</v>
+      </c>
       <c r="C743">
         <v>281.45</v>
       </c>
@@ -28492,6 +28831,9 @@
       <c r="A744" s="1">
         <v>43553</v>
       </c>
+      <c r="B744" s="2">
+        <v>0</v>
+      </c>
       <c r="C744">
         <v>277.2</v>
       </c>
@@ -28530,6 +28872,9 @@
       <c r="A745" s="1">
         <v>43552</v>
       </c>
+      <c r="B745" s="2">
+        <v>0</v>
+      </c>
       <c r="C745">
         <v>276.39999999999998</v>
       </c>
@@ -28568,6 +28913,9 @@
       <c r="A746" s="1">
         <v>43551</v>
       </c>
+      <c r="B746" s="2">
+        <v>0</v>
+      </c>
       <c r="C746">
         <v>278</v>
       </c>
@@ -28606,6 +28954,9 @@
       <c r="A747" s="1">
         <v>43550</v>
       </c>
+      <c r="B747" s="2">
+        <v>0</v>
+      </c>
       <c r="C747">
         <v>278</v>
       </c>
@@ -28644,6 +28995,9 @@
       <c r="A748" s="1">
         <v>43549</v>
       </c>
+      <c r="B748" s="2">
+        <v>0</v>
+      </c>
       <c r="C748">
         <v>277.8</v>
       </c>
@@ -28682,6 +29036,9 @@
       <c r="A749" s="1">
         <v>43546</v>
       </c>
+      <c r="B749" s="2">
+        <v>0</v>
+      </c>
       <c r="C749">
         <v>283.35000000000002</v>
       </c>
@@ -28720,6 +29077,9 @@
       <c r="A750" s="1">
         <v>43545</v>
       </c>
+      <c r="B750" s="2">
+        <v>0</v>
+      </c>
       <c r="C750">
         <v>282.8</v>
       </c>
@@ -28758,6 +29118,9 @@
       <c r="A751" s="1">
         <v>43544</v>
       </c>
+      <c r="B751" s="2">
+        <v>0</v>
+      </c>
       <c r="C751">
         <v>280.89999999999998</v>
       </c>
@@ -28796,6 +29159,9 @@
       <c r="A752" s="1">
         <v>43543</v>
       </c>
+      <c r="B752" s="2">
+        <v>0</v>
+      </c>
       <c r="C752">
         <v>280.55</v>
       </c>
@@ -28834,6 +29200,9 @@
       <c r="A753" s="1">
         <v>43542</v>
       </c>
+      <c r="B753" s="2">
+        <v>0</v>
+      </c>
       <c r="C753">
         <v>280.75</v>
       </c>
@@ -41558,6 +41927,5326 @@
       </c>
       <c r="L1087" s="3">
         <v>267760</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:12">
+      <c r="A1088" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B1088" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1088">
+        <v>334.4</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1088">
+        <v>3.6</v>
+      </c>
+      <c r="F1088">
+        <v>331</v>
+      </c>
+      <c r="G1088">
+        <v>334.85</v>
+      </c>
+      <c r="H1088">
+        <v>330.2</v>
+      </c>
+      <c r="I1088">
+        <v>333.57</v>
+      </c>
+      <c r="J1088">
+        <v>334.21</v>
+      </c>
+      <c r="K1088" s="3">
+        <v>207723</v>
+      </c>
+      <c r="L1088" s="3">
+        <v>259467</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:12">
+      <c r="A1089" s="1">
+        <v>43038</v>
+      </c>
+      <c r="B1089" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1089">
+        <v>330.8</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1089">
+        <v>0.6</v>
+      </c>
+      <c r="F1089">
+        <v>331.95</v>
+      </c>
+      <c r="G1089">
+        <v>332.1</v>
+      </c>
+      <c r="H1089">
+        <v>330.3</v>
+      </c>
+      <c r="I1089">
+        <v>330.38</v>
+      </c>
+      <c r="J1089">
+        <v>331.03</v>
+      </c>
+      <c r="K1089" s="3">
+        <v>138515</v>
+      </c>
+      <c r="L1089" s="3">
+        <v>254957</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:12">
+      <c r="A1090" s="1">
+        <v>43035</v>
+      </c>
+      <c r="B1090" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1090">
+        <v>330.2</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1090">
+        <v>3.1</v>
+      </c>
+      <c r="F1090">
+        <v>327.75</v>
+      </c>
+      <c r="G1090">
+        <v>330.35</v>
+      </c>
+      <c r="H1090">
+        <v>327.45</v>
+      </c>
+      <c r="I1090">
+        <v>329.23</v>
+      </c>
+      <c r="J1090">
+        <v>329.93</v>
+      </c>
+      <c r="K1090" s="3">
+        <v>159046</v>
+      </c>
+      <c r="L1090" s="3">
+        <v>257006</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:12">
+      <c r="A1091" s="1">
+        <v>43034</v>
+      </c>
+      <c r="B1091" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1091">
+        <v>327.10000000000002</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1091">
+        <v>3</v>
+      </c>
+      <c r="F1091">
+        <v>329.85</v>
+      </c>
+      <c r="G1091">
+        <v>330.1</v>
+      </c>
+      <c r="H1091">
+        <v>327.10000000000002</v>
+      </c>
+      <c r="I1091">
+        <v>326.99</v>
+      </c>
+      <c r="J1091">
+        <v>327.7</v>
+      </c>
+      <c r="K1091" s="3">
+        <v>157991</v>
+      </c>
+      <c r="L1091" s="3">
+        <v>253237</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:12">
+      <c r="A1092" s="1">
+        <v>43033</v>
+      </c>
+      <c r="B1092" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1092">
+        <v>330.1</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1092">
+        <v>0.2</v>
+      </c>
+      <c r="F1092">
+        <v>330.05</v>
+      </c>
+      <c r="G1092">
+        <v>330.65</v>
+      </c>
+      <c r="H1092">
+        <v>328.7</v>
+      </c>
+      <c r="I1092">
+        <v>329.31</v>
+      </c>
+      <c r="J1092">
+        <v>330.04</v>
+      </c>
+      <c r="K1092" s="3">
+        <v>174523</v>
+      </c>
+      <c r="L1092" s="3">
+        <v>256128</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:12">
+      <c r="A1093" s="1">
+        <v>43032</v>
+      </c>
+      <c r="B1093" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1093">
+        <v>329.9</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1093">
+        <v>0.5</v>
+      </c>
+      <c r="F1093">
+        <v>330.2</v>
+      </c>
+      <c r="G1093">
+        <v>330.8</v>
+      </c>
+      <c r="H1093">
+        <v>329.8</v>
+      </c>
+      <c r="I1093">
+        <v>328.96</v>
+      </c>
+      <c r="J1093">
+        <v>329.7</v>
+      </c>
+      <c r="K1093" s="3">
+        <v>116091</v>
+      </c>
+      <c r="L1093" s="3">
+        <v>254240</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:12">
+      <c r="A1094" s="1">
+        <v>43031</v>
+      </c>
+      <c r="B1094" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1094">
+        <v>330.4</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1094">
+        <v>0.8</v>
+      </c>
+      <c r="F1094">
+        <v>330.55</v>
+      </c>
+      <c r="G1094">
+        <v>331.1</v>
+      </c>
+      <c r="H1094">
+        <v>329.25</v>
+      </c>
+      <c r="I1094">
+        <v>329.45</v>
+      </c>
+      <c r="J1094">
+        <v>330.21</v>
+      </c>
+      <c r="K1094" s="3">
+        <v>178744</v>
+      </c>
+      <c r="L1094" s="3">
+        <v>248786</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:12">
+      <c r="A1095" s="1">
+        <v>43028</v>
+      </c>
+      <c r="B1095" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1095">
+        <v>329.6</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1095">
+        <v>2.15</v>
+      </c>
+      <c r="F1095">
+        <v>327.60000000000002</v>
+      </c>
+      <c r="G1095">
+        <v>329.65</v>
+      </c>
+      <c r="H1095">
+        <v>327.60000000000002</v>
+      </c>
+      <c r="I1095">
+        <v>328.89</v>
+      </c>
+      <c r="J1095">
+        <v>329.69</v>
+      </c>
+      <c r="K1095" s="3">
+        <v>150556</v>
+      </c>
+      <c r="L1095" s="3">
+        <v>251869</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:12">
+      <c r="A1096" s="1">
+        <v>43027</v>
+      </c>
+      <c r="B1096" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1096">
+        <v>327.45</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1096">
+        <v>1.75</v>
+      </c>
+      <c r="F1096">
+        <v>330.05</v>
+      </c>
+      <c r="G1096">
+        <v>330.25</v>
+      </c>
+      <c r="H1096">
+        <v>327.10000000000002</v>
+      </c>
+      <c r="I1096">
+        <v>326.47000000000003</v>
+      </c>
+      <c r="J1096">
+        <v>327.27999999999997</v>
+      </c>
+      <c r="K1096" s="3">
+        <v>172806</v>
+      </c>
+      <c r="L1096" s="3">
+        <v>248910</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:12">
+      <c r="A1097" s="1">
+        <v>43026</v>
+      </c>
+      <c r="B1097" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1097">
+        <v>329.2</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1097">
+        <v>0.05</v>
+      </c>
+      <c r="F1097">
+        <v>328.85</v>
+      </c>
+      <c r="G1097">
+        <v>330.1</v>
+      </c>
+      <c r="H1097">
+        <v>328.3</v>
+      </c>
+      <c r="I1097">
+        <v>328.4</v>
+      </c>
+      <c r="J1097">
+        <v>329.23</v>
+      </c>
+      <c r="K1097" s="3">
+        <v>136154</v>
+      </c>
+      <c r="L1097" s="3">
+        <v>247651</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:12">
+      <c r="A1098" s="1">
+        <v>43025</v>
+      </c>
+      <c r="B1098" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1098">
+        <v>329.15</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1098">
+        <v>0.3</v>
+      </c>
+      <c r="F1098">
+        <v>328.9</v>
+      </c>
+      <c r="G1098">
+        <v>329.85</v>
+      </c>
+      <c r="H1098">
+        <v>328.7</v>
+      </c>
+      <c r="I1098">
+        <v>328.51</v>
+      </c>
+      <c r="J1098">
+        <v>329.36</v>
+      </c>
+      <c r="K1098" s="3">
+        <v>128127</v>
+      </c>
+      <c r="L1098" s="3">
+        <v>250060</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:12">
+      <c r="A1099" s="1">
+        <v>43024</v>
+      </c>
+      <c r="B1099" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1099">
+        <v>328.85</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1099">
+        <v>0.2</v>
+      </c>
+      <c r="F1099">
+        <v>329</v>
+      </c>
+      <c r="G1099">
+        <v>330.25</v>
+      </c>
+      <c r="H1099">
+        <v>328.15</v>
+      </c>
+      <c r="I1099">
+        <v>327.82</v>
+      </c>
+      <c r="J1099">
+        <v>328.68</v>
+      </c>
+      <c r="K1099" s="3">
+        <v>132287</v>
+      </c>
+      <c r="L1099" s="3">
+        <v>255806</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:12">
+      <c r="A1100" s="1">
+        <v>43021</v>
+      </c>
+      <c r="B1100" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1100">
+        <v>328.65</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1100">
+        <v>0.35</v>
+      </c>
+      <c r="F1100">
+        <v>328.4</v>
+      </c>
+      <c r="G1100">
+        <v>329.3</v>
+      </c>
+      <c r="H1100">
+        <v>327.9</v>
+      </c>
+      <c r="I1100">
+        <v>327.35000000000002</v>
+      </c>
+      <c r="J1100">
+        <v>328.25</v>
+      </c>
+      <c r="K1100" s="3">
+        <v>126207</v>
+      </c>
+      <c r="L1100" s="3">
+        <v>256793</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:12">
+      <c r="A1101" s="1">
+        <v>43020</v>
+      </c>
+      <c r="B1101" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1101">
+        <v>329</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1101">
+        <v>2.4</v>
+      </c>
+      <c r="F1101">
+        <v>326.95</v>
+      </c>
+      <c r="G1101">
+        <v>329.1</v>
+      </c>
+      <c r="H1101">
+        <v>326.8</v>
+      </c>
+      <c r="I1101">
+        <v>328.11</v>
+      </c>
+      <c r="J1101">
+        <v>329.03</v>
+      </c>
+      <c r="K1101" s="3">
+        <v>234844</v>
+      </c>
+      <c r="L1101" s="3">
+        <v>257555</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:12">
+      <c r="A1102" s="1">
+        <v>43019</v>
+      </c>
+      <c r="B1102" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1102">
+        <v>326.60000000000002</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1102">
+        <v>3.1</v>
+      </c>
+      <c r="F1102">
+        <v>324.5</v>
+      </c>
+      <c r="G1102">
+        <v>326.89999999999998</v>
+      </c>
+      <c r="H1102">
+        <v>324.10000000000002</v>
+      </c>
+      <c r="I1102">
+        <v>326.12</v>
+      </c>
+      <c r="J1102">
+        <v>327.05</v>
+      </c>
+      <c r="K1102" s="3">
+        <v>203158</v>
+      </c>
+      <c r="L1102" s="3">
+        <v>262677</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:12">
+      <c r="A1103" s="1">
+        <v>43018</v>
+      </c>
+      <c r="B1103" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1103">
+        <v>323.5</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1103">
+        <v>5.85</v>
+      </c>
+      <c r="F1103">
+        <v>322.3</v>
+      </c>
+      <c r="G1103">
+        <v>324.85000000000002</v>
+      </c>
+      <c r="H1103">
+        <v>321.39999999999998</v>
+      </c>
+      <c r="I1103">
+        <v>322.49</v>
+      </c>
+      <c r="J1103">
+        <v>323.43</v>
+      </c>
+      <c r="K1103" s="3">
+        <v>233665</v>
+      </c>
+      <c r="L1103" s="3">
+        <v>264135</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:12">
+      <c r="A1104" s="1">
+        <v>43007</v>
+      </c>
+      <c r="B1104" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1104">
+        <v>317.64999999999998</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1104">
+        <v>2.7</v>
+      </c>
+      <c r="F1104">
+        <v>315.10000000000002</v>
+      </c>
+      <c r="G1104">
+        <v>317.64999999999998</v>
+      </c>
+      <c r="H1104">
+        <v>315.05</v>
+      </c>
+      <c r="I1104">
+        <v>316.27</v>
+      </c>
+      <c r="J1104">
+        <v>317.35000000000002</v>
+      </c>
+      <c r="K1104" s="3">
+        <v>198447</v>
+      </c>
+      <c r="L1104" s="3">
+        <v>254588</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:12">
+      <c r="A1105" s="1">
+        <v>43006</v>
+      </c>
+      <c r="B1105" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1105">
+        <v>314.95</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1105">
+        <v>0.2</v>
+      </c>
+      <c r="F1105">
+        <v>314.8</v>
+      </c>
+      <c r="G1105">
+        <v>315.89999999999998</v>
+      </c>
+      <c r="H1105">
+        <v>313.95</v>
+      </c>
+      <c r="I1105">
+        <v>313.85000000000002</v>
+      </c>
+      <c r="J1105">
+        <v>314.94</v>
+      </c>
+      <c r="K1105" s="3">
+        <v>192313</v>
+      </c>
+      <c r="L1105" s="3">
+        <v>246372</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:12">
+      <c r="A1106" s="1">
+        <v>43005</v>
+      </c>
+      <c r="B1106" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1106">
+        <v>314.75</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1106">
+        <v>0.4</v>
+      </c>
+      <c r="F1106">
+        <v>315.55</v>
+      </c>
+      <c r="G1106">
+        <v>315.60000000000002</v>
+      </c>
+      <c r="H1106">
+        <v>314.3</v>
+      </c>
+      <c r="I1106">
+        <v>313.82</v>
+      </c>
+      <c r="J1106">
+        <v>314.89999999999998</v>
+      </c>
+      <c r="K1106" s="3">
+        <v>129512</v>
+      </c>
+      <c r="L1106" s="3">
+        <v>256109</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:12">
+      <c r="A1107" s="1">
+        <v>43004</v>
+      </c>
+      <c r="B1107" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1107">
+        <v>315.14999999999998</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1107">
+        <v>2</v>
+      </c>
+      <c r="F1107">
+        <v>315.8</v>
+      </c>
+      <c r="G1107">
+        <v>316.5</v>
+      </c>
+      <c r="H1107">
+        <v>314.64999999999998</v>
+      </c>
+      <c r="I1107">
+        <v>314.29000000000002</v>
+      </c>
+      <c r="J1107">
+        <v>315.39</v>
+      </c>
+      <c r="K1107" s="3">
+        <v>205195</v>
+      </c>
+      <c r="L1107" s="3">
+        <v>259067</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:12">
+      <c r="A1108" s="1">
+        <v>43003</v>
+      </c>
+      <c r="B1108" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1108">
+        <v>317.14999999999998</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1108">
+        <v>0.05</v>
+      </c>
+      <c r="F1108">
+        <v>317.64999999999998</v>
+      </c>
+      <c r="G1108">
+        <v>317.95</v>
+      </c>
+      <c r="H1108">
+        <v>316.2</v>
+      </c>
+      <c r="I1108">
+        <v>316.39999999999998</v>
+      </c>
+      <c r="J1108">
+        <v>317.52</v>
+      </c>
+      <c r="K1108" s="3">
+        <v>154007</v>
+      </c>
+      <c r="L1108" s="3">
+        <v>263048</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:12">
+      <c r="A1109" s="1">
+        <v>43000</v>
+      </c>
+      <c r="B1109" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1109">
+        <v>317.10000000000002</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1109">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F1109">
+        <v>318.95</v>
+      </c>
+      <c r="G1109">
+        <v>320.10000000000002</v>
+      </c>
+      <c r="H1109">
+        <v>316.39999999999998</v>
+      </c>
+      <c r="I1109">
+        <v>316.70999999999998</v>
+      </c>
+      <c r="J1109">
+        <v>317.88</v>
+      </c>
+      <c r="K1109" s="3">
+        <v>235346</v>
+      </c>
+      <c r="L1109" s="3">
+        <v>263204</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:12">
+      <c r="A1110" s="1">
+        <v>42999</v>
+      </c>
+      <c r="B1110" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1110">
+        <v>319.39999999999998</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1110">
+        <v>0.25</v>
+      </c>
+      <c r="F1110">
+        <v>318.7</v>
+      </c>
+      <c r="G1110">
+        <v>319.85000000000002</v>
+      </c>
+      <c r="H1110">
+        <v>318.35000000000002</v>
+      </c>
+      <c r="I1110">
+        <v>318.25</v>
+      </c>
+      <c r="J1110">
+        <v>319.44</v>
+      </c>
+      <c r="K1110" s="3">
+        <v>155468</v>
+      </c>
+      <c r="L1110" s="3">
+        <v>264875</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:12">
+      <c r="A1111" s="1">
+        <v>42998</v>
+      </c>
+      <c r="B1111" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1111">
+        <v>319.14999999999998</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1111">
+        <v>0.25</v>
+      </c>
+      <c r="F1111">
+        <v>320.10000000000002</v>
+      </c>
+      <c r="G1111">
+        <v>321.60000000000002</v>
+      </c>
+      <c r="H1111">
+        <v>318.14999999999998</v>
+      </c>
+      <c r="I1111">
+        <v>318.48</v>
+      </c>
+      <c r="J1111">
+        <v>319.69</v>
+      </c>
+      <c r="K1111" s="3">
+        <v>181751</v>
+      </c>
+      <c r="L1111" s="3">
+        <v>266237</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:12">
+      <c r="A1112" s="1">
+        <v>42997</v>
+      </c>
+      <c r="B1112" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1112">
+        <v>319.39999999999998</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1112">
+        <v>0.65</v>
+      </c>
+      <c r="F1112">
+        <v>319.64999999999998</v>
+      </c>
+      <c r="G1112">
+        <v>320.2</v>
+      </c>
+      <c r="H1112">
+        <v>319.10000000000002</v>
+      </c>
+      <c r="I1112">
+        <v>318.51</v>
+      </c>
+      <c r="J1112">
+        <v>319.73</v>
+      </c>
+      <c r="K1112" s="3">
+        <v>125392</v>
+      </c>
+      <c r="L1112" s="3">
+        <v>266153</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:12">
+      <c r="A1113" s="1">
+        <v>42996</v>
+      </c>
+      <c r="B1113" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1113">
+        <v>320.05</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1113">
+        <v>5.5</v>
+      </c>
+      <c r="F1113">
+        <v>314.85000000000002</v>
+      </c>
+      <c r="G1113">
+        <v>320.05</v>
+      </c>
+      <c r="H1113">
+        <v>314.64999999999998</v>
+      </c>
+      <c r="I1113">
+        <v>318.93</v>
+      </c>
+      <c r="J1113">
+        <v>320.17</v>
+      </c>
+      <c r="K1113" s="3">
+        <v>208085</v>
+      </c>
+      <c r="L1113" s="3">
+        <v>271074</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:12">
+      <c r="A1114" s="1">
+        <v>42993</v>
+      </c>
+      <c r="B1114" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1114">
+        <v>314.55</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1114">
+        <v>0.95</v>
+      </c>
+      <c r="F1114">
+        <v>312.55</v>
+      </c>
+      <c r="G1114">
+        <v>314.60000000000002</v>
+      </c>
+      <c r="H1114">
+        <v>311.75</v>
+      </c>
+      <c r="I1114">
+        <v>313.69</v>
+      </c>
+      <c r="J1114">
+        <v>314.95999999999998</v>
+      </c>
+      <c r="K1114" s="3">
+        <v>194080</v>
+      </c>
+      <c r="L1114" s="3">
+        <v>262386</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:12">
+      <c r="A1115" s="1">
+        <v>42992</v>
+      </c>
+      <c r="B1115" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1115">
+        <v>311.60000000000002</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1115">
+        <v>1.7</v>
+      </c>
+      <c r="F1115">
+        <v>310.75</v>
+      </c>
+      <c r="G1115">
+        <v>311.7</v>
+      </c>
+      <c r="H1115">
+        <v>309.75</v>
+      </c>
+      <c r="I1115">
+        <v>312.52</v>
+      </c>
+      <c r="J1115">
+        <v>312.52999999999997</v>
+      </c>
+      <c r="K1115" s="3">
+        <v>223114</v>
+      </c>
+      <c r="L1115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:12">
+      <c r="A1116" s="1">
+        <v>42991</v>
+      </c>
+      <c r="B1116" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1116">
+        <v>309.89999999999998</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1116">
+        <v>0.65</v>
+      </c>
+      <c r="F1116">
+        <v>311</v>
+      </c>
+      <c r="G1116">
+        <v>312.35000000000002</v>
+      </c>
+      <c r="H1116">
+        <v>309.75</v>
+      </c>
+      <c r="I1116">
+        <v>310</v>
+      </c>
+      <c r="J1116">
+        <v>310.02999999999997</v>
+      </c>
+      <c r="K1116" s="3">
+        <v>215527</v>
+      </c>
+      <c r="L1116" s="3">
+        <v>168432</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:12">
+      <c r="A1117" s="1">
+        <v>42990</v>
+      </c>
+      <c r="B1117" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1117">
+        <v>310.55</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1117">
+        <v>0.05</v>
+      </c>
+      <c r="F1117">
+        <v>311.85000000000002</v>
+      </c>
+      <c r="G1117">
+        <v>311.89999999999998</v>
+      </c>
+      <c r="H1117">
+        <v>309.85000000000002</v>
+      </c>
+      <c r="I1117">
+        <v>310.42</v>
+      </c>
+      <c r="J1117">
+        <v>310.45999999999998</v>
+      </c>
+      <c r="K1117" s="3">
+        <v>154358</v>
+      </c>
+      <c r="L1117" s="3">
+        <v>210183</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:12">
+      <c r="A1118" s="1">
+        <v>42989</v>
+      </c>
+      <c r="B1118" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1118">
+        <v>310.60000000000002</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1118">
+        <v>3</v>
+      </c>
+      <c r="F1118">
+        <v>308.85000000000002</v>
+      </c>
+      <c r="G1118">
+        <v>311.5</v>
+      </c>
+      <c r="H1118">
+        <v>308.64999999999998</v>
+      </c>
+      <c r="I1118">
+        <v>309.83</v>
+      </c>
+      <c r="J1118">
+        <v>309.88</v>
+      </c>
+      <c r="K1118" s="3">
+        <v>199611</v>
+      </c>
+      <c r="L1118" s="3">
+        <v>254940</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:12">
+      <c r="A1119" s="1">
+        <v>42986</v>
+      </c>
+      <c r="B1119" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1119">
+        <v>307.60000000000002</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1119">
+        <v>0.05</v>
+      </c>
+      <c r="F1119">
+        <v>307.8</v>
+      </c>
+      <c r="G1119">
+        <v>308.10000000000002</v>
+      </c>
+      <c r="H1119">
+        <v>306.85000000000002</v>
+      </c>
+      <c r="I1119">
+        <v>307.43</v>
+      </c>
+      <c r="J1119">
+        <v>307.52</v>
+      </c>
+      <c r="K1119" s="3">
+        <v>117186</v>
+      </c>
+      <c r="L1119" s="3">
+        <v>289040</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:12">
+      <c r="A1120" s="1">
+        <v>42985</v>
+      </c>
+      <c r="B1120" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1120">
+        <v>307.55</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1120">
+        <v>3.9</v>
+      </c>
+      <c r="F1120">
+        <v>304.55</v>
+      </c>
+      <c r="G1120">
+        <v>307.7</v>
+      </c>
+      <c r="H1120">
+        <v>304.3</v>
+      </c>
+      <c r="I1120">
+        <v>306.97000000000003</v>
+      </c>
+      <c r="J1120">
+        <v>307.07</v>
+      </c>
+      <c r="K1120" s="3">
+        <v>197147</v>
+      </c>
+      <c r="L1120" s="3">
+        <v>290655</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:12">
+      <c r="A1121" s="1">
+        <v>42984</v>
+      </c>
+      <c r="B1121" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1121">
+        <v>303.64999999999998</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1121">
+        <v>0.4</v>
+      </c>
+      <c r="F1121">
+        <v>304.10000000000002</v>
+      </c>
+      <c r="G1121">
+        <v>304.2</v>
+      </c>
+      <c r="H1121">
+        <v>302.7</v>
+      </c>
+      <c r="I1121">
+        <v>303.18</v>
+      </c>
+      <c r="J1121">
+        <v>303.29000000000002</v>
+      </c>
+      <c r="K1121" s="3">
+        <v>161567</v>
+      </c>
+      <c r="L1121" s="3">
+        <v>287299</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:12">
+      <c r="A1122" s="1">
+        <v>42983</v>
+      </c>
+      <c r="B1122" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1122">
+        <v>304.05</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1122">
+        <v>0.8</v>
+      </c>
+      <c r="F1122">
+        <v>305.95</v>
+      </c>
+      <c r="G1122">
+        <v>306</v>
+      </c>
+      <c r="H1122">
+        <v>303.5</v>
+      </c>
+      <c r="I1122">
+        <v>304.06</v>
+      </c>
+      <c r="J1122">
+        <v>304.19</v>
+      </c>
+      <c r="K1122" s="3">
+        <v>191694</v>
+      </c>
+      <c r="L1122" s="3">
+        <v>287878</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:12">
+      <c r="A1123" s="1">
+        <v>42982</v>
+      </c>
+      <c r="B1123" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1123">
+        <v>304.85000000000002</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1123">
+        <v>2.8</v>
+      </c>
+      <c r="F1123">
+        <v>303.10000000000002</v>
+      </c>
+      <c r="G1123">
+        <v>306.60000000000002</v>
+      </c>
+      <c r="H1123">
+        <v>303</v>
+      </c>
+      <c r="I1123">
+        <v>304.19</v>
+      </c>
+      <c r="J1123">
+        <v>304.33</v>
+      </c>
+      <c r="K1123" s="3">
+        <v>219499</v>
+      </c>
+      <c r="L1123" s="3">
+        <v>290176</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:12">
+      <c r="A1124" s="1">
+        <v>42979</v>
+      </c>
+      <c r="B1124" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1124">
+        <v>307.64999999999998</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1124">
+        <v>0.35</v>
+      </c>
+      <c r="F1124">
+        <v>309.10000000000002</v>
+      </c>
+      <c r="G1124">
+        <v>309.5</v>
+      </c>
+      <c r="H1124">
+        <v>306.85000000000002</v>
+      </c>
+      <c r="I1124">
+        <v>307.77999999999997</v>
+      </c>
+      <c r="J1124">
+        <v>307.95999999999998</v>
+      </c>
+      <c r="K1124" s="3">
+        <v>175475</v>
+      </c>
+      <c r="L1124" s="3">
+        <v>282351</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:12">
+      <c r="A1125" s="1">
+        <v>42978</v>
+      </c>
+      <c r="B1125" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1125">
+        <v>308</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1125">
+        <v>2.35</v>
+      </c>
+      <c r="F1125">
+        <v>309.89999999999998</v>
+      </c>
+      <c r="G1125">
+        <v>310.55</v>
+      </c>
+      <c r="H1125">
+        <v>307.39999999999998</v>
+      </c>
+      <c r="I1125">
+        <v>308.27999999999997</v>
+      </c>
+      <c r="J1125">
+        <v>308.47000000000003</v>
+      </c>
+      <c r="K1125" s="3">
+        <v>173453</v>
+      </c>
+      <c r="L1125" s="3">
+        <v>280351</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:12">
+      <c r="A1126" s="1">
+        <v>42977</v>
+      </c>
+      <c r="B1126" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1126">
+        <v>310.35000000000002</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1126">
+        <v>1.85</v>
+      </c>
+      <c r="F1126">
+        <v>309.5</v>
+      </c>
+      <c r="G1126">
+        <v>310.35000000000002</v>
+      </c>
+      <c r="H1126">
+        <v>308.64999999999998</v>
+      </c>
+      <c r="I1126">
+        <v>309.64999999999998</v>
+      </c>
+      <c r="J1126">
+        <v>309.86</v>
+      </c>
+      <c r="K1126" s="3">
+        <v>119325</v>
+      </c>
+      <c r="L1126" s="3">
+        <v>286335</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:12">
+      <c r="A1127" s="1">
+        <v>42976</v>
+      </c>
+      <c r="B1127" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1127">
+        <v>308.5</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1127">
+        <v>1.05</v>
+      </c>
+      <c r="F1127">
+        <v>307.95</v>
+      </c>
+      <c r="G1127">
+        <v>309.10000000000002</v>
+      </c>
+      <c r="H1127">
+        <v>304.45</v>
+      </c>
+      <c r="I1127">
+        <v>308.64</v>
+      </c>
+      <c r="J1127">
+        <v>308.86</v>
+      </c>
+      <c r="K1127" s="3">
+        <v>278950</v>
+      </c>
+      <c r="L1127" s="3">
+        <v>285540</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:12">
+      <c r="A1128" s="1">
+        <v>42975</v>
+      </c>
+      <c r="B1128" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1128">
+        <v>309.55</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1128">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F1128">
+        <v>311.10000000000002</v>
+      </c>
+      <c r="G1128">
+        <v>312.05</v>
+      </c>
+      <c r="H1128">
+        <v>309.35000000000002</v>
+      </c>
+      <c r="I1128">
+        <v>309.52999999999997</v>
+      </c>
+      <c r="J1128">
+        <v>309.76</v>
+      </c>
+      <c r="K1128" s="3">
+        <v>161149</v>
+      </c>
+      <c r="L1128" s="3">
+        <v>289825</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:12">
+      <c r="A1129" s="1">
+        <v>42972</v>
+      </c>
+      <c r="B1129" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1129">
+        <v>311.60000000000002</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1129">
+        <v>0.15</v>
+      </c>
+      <c r="F1129">
+        <v>312.25</v>
+      </c>
+      <c r="G1129">
+        <v>312.55</v>
+      </c>
+      <c r="H1129">
+        <v>310.75</v>
+      </c>
+      <c r="I1129">
+        <v>311.20999999999998</v>
+      </c>
+      <c r="J1129">
+        <v>311.48</v>
+      </c>
+      <c r="K1129" s="3">
+        <v>179932</v>
+      </c>
+      <c r="L1129" s="3">
+        <v>289382</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:12">
+      <c r="A1130" s="1">
+        <v>42971</v>
+      </c>
+      <c r="B1130" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1130">
+        <v>311.45</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1130">
+        <v>1.5</v>
+      </c>
+      <c r="F1130">
+        <v>310</v>
+      </c>
+      <c r="G1130">
+        <v>312.05</v>
+      </c>
+      <c r="H1130">
+        <v>309.95</v>
+      </c>
+      <c r="I1130">
+        <v>310.73</v>
+      </c>
+      <c r="J1130">
+        <v>311.02</v>
+      </c>
+      <c r="K1130" s="3">
+        <v>168399</v>
+      </c>
+      <c r="L1130" s="3">
+        <v>288918</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:12">
+      <c r="A1131" s="1">
+        <v>42970</v>
+      </c>
+      <c r="B1131" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1131">
+        <v>309.95</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1131">
+        <v>0.1</v>
+      </c>
+      <c r="F1131">
+        <v>311.5</v>
+      </c>
+      <c r="G1131">
+        <v>311.7</v>
+      </c>
+      <c r="H1131">
+        <v>309.25</v>
+      </c>
+      <c r="I1131">
+        <v>309.70999999999998</v>
+      </c>
+      <c r="J1131">
+        <v>310.01</v>
+      </c>
+      <c r="K1131" s="3">
+        <v>148411</v>
+      </c>
+      <c r="L1131" s="3">
+        <v>291378</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:12">
+      <c r="A1132" s="1">
+        <v>42969</v>
+      </c>
+      <c r="B1132" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1132">
+        <v>310.05</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1132">
+        <v>1.65</v>
+      </c>
+      <c r="F1132">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="G1132">
+        <v>310.35000000000002</v>
+      </c>
+      <c r="H1132">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="I1132">
+        <v>309.33999999999997</v>
+      </c>
+      <c r="J1132">
+        <v>309.64999999999998</v>
+      </c>
+      <c r="K1132" s="3">
+        <v>153587</v>
+      </c>
+      <c r="L1132" s="3">
+        <v>288561</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:12">
+      <c r="A1133" s="1">
+        <v>42968</v>
+      </c>
+      <c r="B1133" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1133">
+        <v>308.39999999999998</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1133">
+        <v>0.7</v>
+      </c>
+      <c r="F1133">
+        <v>309.75</v>
+      </c>
+      <c r="G1133">
+        <v>309.8</v>
+      </c>
+      <c r="H1133">
+        <v>307.89999999999998</v>
+      </c>
+      <c r="I1133">
+        <v>308.14</v>
+      </c>
+      <c r="J1133">
+        <v>308.45999999999998</v>
+      </c>
+      <c r="K1133" s="3">
+        <v>147682</v>
+      </c>
+      <c r="L1133" s="3">
+        <v>288256</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:12">
+      <c r="A1134" s="1">
+        <v>42965</v>
+      </c>
+      <c r="B1134" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1134">
+        <v>309.10000000000002</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1134">
+        <v>0.15</v>
+      </c>
+      <c r="F1134">
+        <v>306.5</v>
+      </c>
+      <c r="G1134">
+        <v>309.3</v>
+      </c>
+      <c r="H1134">
+        <v>306.3</v>
+      </c>
+      <c r="I1134">
+        <v>308.39</v>
+      </c>
+      <c r="J1134">
+        <v>308.75</v>
+      </c>
+      <c r="K1134" s="3">
+        <v>178616</v>
+      </c>
+      <c r="L1134" s="3">
+        <v>290254</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:12">
+      <c r="A1135" s="1">
+        <v>42964</v>
+      </c>
+      <c r="B1135" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1135">
+        <v>309.25</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1135">
+        <v>1.65</v>
+      </c>
+      <c r="F1135">
+        <v>308.2</v>
+      </c>
+      <c r="G1135">
+        <v>309.85000000000002</v>
+      </c>
+      <c r="H1135">
+        <v>307.3</v>
+      </c>
+      <c r="I1135">
+        <v>309.02</v>
+      </c>
+      <c r="J1135">
+        <v>309.39999999999998</v>
+      </c>
+      <c r="K1135" s="3">
+        <v>193569</v>
+      </c>
+      <c r="L1135" s="3">
+        <v>290598</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:12">
+      <c r="A1136" s="1">
+        <v>42963</v>
+      </c>
+      <c r="B1136" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1136">
+        <v>307.60000000000002</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1136">
+        <v>1.65</v>
+      </c>
+      <c r="F1136">
+        <v>308.75</v>
+      </c>
+      <c r="G1136">
+        <v>309.14999999999998</v>
+      </c>
+      <c r="H1136">
+        <v>307.10000000000002</v>
+      </c>
+      <c r="I1136">
+        <v>307.16000000000003</v>
+      </c>
+      <c r="J1136">
+        <v>307.55</v>
+      </c>
+      <c r="K1136" s="3">
+        <v>171426</v>
+      </c>
+      <c r="L1136" s="3">
+        <v>288252</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:12">
+      <c r="A1137" s="1">
+        <v>42961</v>
+      </c>
+      <c r="B1137" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1137">
+        <v>305.95</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1137">
+        <v>3.1</v>
+      </c>
+      <c r="F1137">
+        <v>305.2</v>
+      </c>
+      <c r="G1137">
+        <v>306.39999999999998</v>
+      </c>
+      <c r="H1137">
+        <v>304.45</v>
+      </c>
+      <c r="I1137">
+        <v>304.93</v>
+      </c>
+      <c r="J1137">
+        <v>305.33999999999997</v>
+      </c>
+      <c r="K1137" s="3">
+        <v>179096</v>
+      </c>
+      <c r="L1137" s="3">
+        <v>281911</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:12">
+      <c r="A1138" s="1">
+        <v>42958</v>
+      </c>
+      <c r="B1138" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1138">
+        <v>302.85000000000002</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1138">
+        <v>5.75</v>
+      </c>
+      <c r="F1138">
+        <v>303.89999999999998</v>
+      </c>
+      <c r="G1138">
+        <v>305.39999999999998</v>
+      </c>
+      <c r="H1138">
+        <v>302.3</v>
+      </c>
+      <c r="I1138">
+        <v>302.72000000000003</v>
+      </c>
+      <c r="J1138">
+        <v>303.17</v>
+      </c>
+      <c r="K1138" s="3">
+        <v>289680</v>
+      </c>
+      <c r="L1138" s="3">
+        <v>284492</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:12">
+      <c r="A1139" s="1">
+        <v>42957</v>
+      </c>
+      <c r="B1139" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1139">
+        <v>308.60000000000002</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1139">
+        <v>1.4</v>
+      </c>
+      <c r="F1139">
+        <v>309</v>
+      </c>
+      <c r="G1139">
+        <v>310.35000000000002</v>
+      </c>
+      <c r="H1139">
+        <v>306.39999999999998</v>
+      </c>
+      <c r="I1139">
+        <v>308.37</v>
+      </c>
+      <c r="J1139">
+        <v>308.83999999999997</v>
+      </c>
+      <c r="K1139" s="3">
+        <v>375099</v>
+      </c>
+      <c r="L1139" s="3">
+        <v>270127</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:12">
+      <c r="A1140" s="1">
+        <v>42956</v>
+      </c>
+      <c r="B1140" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1140">
+        <v>310</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1140">
+        <v>4.2</v>
+      </c>
+      <c r="F1140">
+        <v>311.7</v>
+      </c>
+      <c r="G1140">
+        <v>312.7</v>
+      </c>
+      <c r="H1140">
+        <v>309.64999999999998</v>
+      </c>
+      <c r="I1140">
+        <v>309.52</v>
+      </c>
+      <c r="J1140">
+        <v>310.01</v>
+      </c>
+      <c r="K1140" s="3">
+        <v>272029</v>
+      </c>
+      <c r="L1140" s="3">
+        <v>268711</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:12">
+      <c r="A1141" s="1">
+        <v>42955</v>
+      </c>
+      <c r="B1141" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1141">
+        <v>314.2</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1141">
+        <v>0.05</v>
+      </c>
+      <c r="F1141">
+        <v>315.10000000000002</v>
+      </c>
+      <c r="G1141">
+        <v>316.2</v>
+      </c>
+      <c r="H1141">
+        <v>312.25</v>
+      </c>
+      <c r="I1141">
+        <v>313.39999999999998</v>
+      </c>
+      <c r="J1141">
+        <v>313.91000000000003</v>
+      </c>
+      <c r="K1141" s="3">
+        <v>258916</v>
+      </c>
+      <c r="L1141" s="3">
+        <v>267006</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:12">
+      <c r="A1142" s="1">
+        <v>42954</v>
+      </c>
+      <c r="B1142" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1142">
+        <v>314.25</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1142">
+        <v>0.05</v>
+      </c>
+      <c r="F1142">
+        <v>314.64999999999998</v>
+      </c>
+      <c r="G1142">
+        <v>316.3</v>
+      </c>
+      <c r="H1142">
+        <v>314.10000000000002</v>
+      </c>
+      <c r="I1142">
+        <v>313.95999999999998</v>
+      </c>
+      <c r="J1142">
+        <v>314.48</v>
+      </c>
+      <c r="K1142" s="3">
+        <v>190281</v>
+      </c>
+      <c r="L1142" s="3">
+        <v>268272</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:12">
+      <c r="A1143" s="1">
+        <v>42951</v>
+      </c>
+      <c r="B1143" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1143">
+        <v>314.2</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1143">
+        <v>1.2</v>
+      </c>
+      <c r="F1143">
+        <v>312.89999999999998</v>
+      </c>
+      <c r="G1143">
+        <v>314.89999999999998</v>
+      </c>
+      <c r="H1143">
+        <v>312.55</v>
+      </c>
+      <c r="I1143">
+        <v>313.45999999999998</v>
+      </c>
+      <c r="J1143">
+        <v>314.02</v>
+      </c>
+      <c r="K1143" s="3">
+        <v>218550</v>
+      </c>
+      <c r="L1143" s="3">
+        <v>267775</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:12">
+      <c r="A1144" s="1">
+        <v>42950</v>
+      </c>
+      <c r="B1144" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1144">
+        <v>313</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1144">
+        <v>5.5</v>
+      </c>
+      <c r="F1144">
+        <v>317.55</v>
+      </c>
+      <c r="G1144">
+        <v>317.64999999999998</v>
+      </c>
+      <c r="H1144">
+        <v>310.7</v>
+      </c>
+      <c r="I1144">
+        <v>312.29000000000002</v>
+      </c>
+      <c r="J1144">
+        <v>312.87</v>
+      </c>
+      <c r="K1144" s="3">
+        <v>369407</v>
+      </c>
+      <c r="L1144" s="3">
+        <v>273271</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:12">
+      <c r="A1145" s="1">
+        <v>42949</v>
+      </c>
+      <c r="B1145" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1145">
+        <v>318.5</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1145">
+        <v>0.6</v>
+      </c>
+      <c r="F1145">
+        <v>318.75</v>
+      </c>
+      <c r="G1145">
+        <v>319.45</v>
+      </c>
+      <c r="H1145">
+        <v>318.10000000000002</v>
+      </c>
+      <c r="I1145">
+        <v>317.69</v>
+      </c>
+      <c r="J1145">
+        <v>318.29000000000002</v>
+      </c>
+      <c r="K1145" s="3">
+        <v>129388</v>
+      </c>
+      <c r="L1145" s="3">
+        <v>270284</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:12">
+      <c r="A1146" s="1">
+        <v>42948</v>
+      </c>
+      <c r="B1146" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1146">
+        <v>317.89999999999998</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1146">
+        <v>3</v>
+      </c>
+      <c r="F1146">
+        <v>314.14999999999998</v>
+      </c>
+      <c r="G1146">
+        <v>319.45</v>
+      </c>
+      <c r="H1146">
+        <v>313.85000000000002</v>
+      </c>
+      <c r="I1146">
+        <v>317.04000000000002</v>
+      </c>
+      <c r="J1146">
+        <v>317.64999999999998</v>
+      </c>
+      <c r="K1146" s="3">
+        <v>268590</v>
+      </c>
+      <c r="L1146" s="3">
+        <v>270320</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:12">
+      <c r="A1147" s="1">
+        <v>42947</v>
+      </c>
+      <c r="B1147" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1147">
+        <v>314.89999999999998</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1147">
+        <v>1</v>
+      </c>
+      <c r="F1147">
+        <v>313.35000000000002</v>
+      </c>
+      <c r="G1147">
+        <v>315.5</v>
+      </c>
+      <c r="H1147">
+        <v>313.25</v>
+      </c>
+      <c r="I1147">
+        <v>314.60000000000002</v>
+      </c>
+      <c r="J1147">
+        <v>315.22000000000003</v>
+      </c>
+      <c r="K1147" s="3">
+        <v>199083</v>
+      </c>
+      <c r="L1147" s="3">
+        <v>275522</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:12">
+      <c r="A1148" s="1">
+        <v>42944</v>
+      </c>
+      <c r="B1148" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1148">
+        <v>313.89999999999998</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1148">
+        <v>7.3</v>
+      </c>
+      <c r="F1148">
+        <v>320</v>
+      </c>
+      <c r="G1148">
+        <v>320.2</v>
+      </c>
+      <c r="H1148">
+        <v>313.89999999999998</v>
+      </c>
+      <c r="I1148">
+        <v>314.13</v>
+      </c>
+      <c r="J1148">
+        <v>314.79000000000002</v>
+      </c>
+      <c r="K1148" s="3">
+        <v>315478</v>
+      </c>
+      <c r="L1148" s="3">
+        <v>277258</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:12">
+      <c r="A1149" s="1">
+        <v>42943</v>
+      </c>
+      <c r="B1149" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1149">
+        <v>321.2</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1149">
+        <v>0.9</v>
+      </c>
+      <c r="F1149">
+        <v>321.2</v>
+      </c>
+      <c r="G1149">
+        <v>322.14999999999998</v>
+      </c>
+      <c r="H1149">
+        <v>320.35000000000002</v>
+      </c>
+      <c r="I1149">
+        <v>320.51</v>
+      </c>
+      <c r="J1149">
+        <v>321.2</v>
+      </c>
+      <c r="K1149" s="3">
+        <v>178263</v>
+      </c>
+      <c r="L1149" s="3">
+        <v>276357</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:12">
+      <c r="A1150" s="1">
+        <v>42942</v>
+      </c>
+      <c r="B1150" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1150">
+        <v>320.3</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1150">
+        <v>0.7</v>
+      </c>
+      <c r="F1150">
+        <v>321.45</v>
+      </c>
+      <c r="G1150">
+        <v>321.60000000000002</v>
+      </c>
+      <c r="H1150">
+        <v>319.5</v>
+      </c>
+      <c r="I1150">
+        <v>319.45999999999998</v>
+      </c>
+      <c r="J1150">
+        <v>320.16000000000003</v>
+      </c>
+      <c r="K1150" s="3">
+        <v>206966</v>
+      </c>
+      <c r="L1150" s="3">
+        <v>275822</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:12">
+      <c r="A1151" s="1">
+        <v>42941</v>
+      </c>
+      <c r="B1151" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1151">
+        <v>321</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1151">
+        <v>1.6</v>
+      </c>
+      <c r="F1151">
+        <v>322.55</v>
+      </c>
+      <c r="G1151">
+        <v>322.75</v>
+      </c>
+      <c r="H1151">
+        <v>320.7</v>
+      </c>
+      <c r="I1151">
+        <v>320.14999999999998</v>
+      </c>
+      <c r="J1151">
+        <v>320.87</v>
+      </c>
+      <c r="K1151" s="3">
+        <v>139018</v>
+      </c>
+      <c r="L1151" s="3">
+        <v>276333</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:12">
+      <c r="A1152" s="1">
+        <v>42940</v>
+      </c>
+      <c r="B1152" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1152">
+        <v>322.60000000000002</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1152">
+        <v>0.15</v>
+      </c>
+      <c r="F1152">
+        <v>322.55</v>
+      </c>
+      <c r="G1152">
+        <v>322.64999999999998</v>
+      </c>
+      <c r="H1152">
+        <v>321.64999999999998</v>
+      </c>
+      <c r="I1152">
+        <v>322.01</v>
+      </c>
+      <c r="J1152">
+        <v>322.75</v>
+      </c>
+      <c r="K1152" s="3">
+        <v>98286</v>
+      </c>
+      <c r="L1152" s="3">
+        <v>275880</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:12">
+      <c r="A1153" s="1">
+        <v>42937</v>
+      </c>
+      <c r="B1153" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1153">
+        <v>322.45</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1153">
+        <v>1.5</v>
+      </c>
+      <c r="F1153">
+        <v>320.7</v>
+      </c>
+      <c r="G1153">
+        <v>322.64999999999998</v>
+      </c>
+      <c r="H1153">
+        <v>320.7</v>
+      </c>
+      <c r="I1153">
+        <v>321.79000000000002</v>
+      </c>
+      <c r="J1153">
+        <v>322.57</v>
+      </c>
+      <c r="K1153" s="3">
+        <v>153155</v>
+      </c>
+      <c r="L1153" s="3">
+        <v>276442</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:12">
+      <c r="A1154" s="1">
+        <v>42936</v>
+      </c>
+      <c r="B1154" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1154">
+        <v>320.95</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1154">
+        <v>0.9</v>
+      </c>
+      <c r="F1154">
+        <v>320.55</v>
+      </c>
+      <c r="G1154">
+        <v>321.55</v>
+      </c>
+      <c r="H1154">
+        <v>319.55</v>
+      </c>
+      <c r="I1154">
+        <v>320.61</v>
+      </c>
+      <c r="J1154">
+        <v>321.41000000000003</v>
+      </c>
+      <c r="K1154" s="3">
+        <v>122473</v>
+      </c>
+      <c r="L1154" s="3">
+        <v>272556</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:12">
+      <c r="A1155" s="1">
+        <v>42935</v>
+      </c>
+      <c r="B1155" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1155">
+        <v>320.05</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1155">
+        <v>0.65</v>
+      </c>
+      <c r="F1155">
+        <v>319.8</v>
+      </c>
+      <c r="G1155">
+        <v>320.05</v>
+      </c>
+      <c r="H1155">
+        <v>318.39999999999998</v>
+      </c>
+      <c r="I1155">
+        <v>318.91000000000003</v>
+      </c>
+      <c r="J1155">
+        <v>319.72000000000003</v>
+      </c>
+      <c r="K1155" s="3">
+        <v>145202</v>
+      </c>
+      <c r="L1155" s="3">
+        <v>271271</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:12">
+      <c r="A1156" s="1">
+        <v>42934</v>
+      </c>
+      <c r="B1156" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1156">
+        <v>319.39999999999998</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1156">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F1156">
+        <v>319.14999999999998</v>
+      </c>
+      <c r="G1156">
+        <v>319.39999999999998</v>
+      </c>
+      <c r="H1156">
+        <v>318.45</v>
+      </c>
+      <c r="I1156">
+        <v>318.64999999999998</v>
+      </c>
+      <c r="J1156">
+        <v>319.47000000000003</v>
+      </c>
+      <c r="K1156" s="3">
+        <v>113234</v>
+      </c>
+      <c r="L1156" s="3">
+        <v>270474</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:12">
+      <c r="A1157" s="1">
+        <v>42933</v>
+      </c>
+      <c r="B1157" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1157">
+        <v>318.85000000000002</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1157">
+        <v>0.8</v>
+      </c>
+      <c r="F1157">
+        <v>320.05</v>
+      </c>
+      <c r="G1157">
+        <v>320.3</v>
+      </c>
+      <c r="H1157">
+        <v>318.64999999999998</v>
+      </c>
+      <c r="I1157">
+        <v>318.52</v>
+      </c>
+      <c r="J1157">
+        <v>319.36</v>
+      </c>
+      <c r="K1157" s="3">
+        <v>140600</v>
+      </c>
+      <c r="L1157" s="3">
+        <v>273543</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:12">
+      <c r="A1158" s="1">
+        <v>42930</v>
+      </c>
+      <c r="B1158" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1158">
+        <v>318.05</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1158">
+        <v>0.15</v>
+      </c>
+      <c r="F1158">
+        <v>318.35000000000002</v>
+      </c>
+      <c r="G1158">
+        <v>318.8</v>
+      </c>
+      <c r="H1158">
+        <v>317.64999999999998</v>
+      </c>
+      <c r="I1158">
+        <v>317.35000000000002</v>
+      </c>
+      <c r="J1158">
+        <v>318.23</v>
+      </c>
+      <c r="K1158" s="3">
+        <v>130849</v>
+      </c>
+      <c r="L1158" s="3">
+        <v>273056</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:12">
+      <c r="A1159" s="1">
+        <v>42929</v>
+      </c>
+      <c r="B1159" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1159">
+        <v>317.89999999999998</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1159">
+        <v>3.95</v>
+      </c>
+      <c r="F1159">
+        <v>315.85000000000002</v>
+      </c>
+      <c r="G1159">
+        <v>319.10000000000002</v>
+      </c>
+      <c r="H1159">
+        <v>315.75</v>
+      </c>
+      <c r="I1159">
+        <v>316.35000000000002</v>
+      </c>
+      <c r="J1159">
+        <v>317.24</v>
+      </c>
+      <c r="K1159" s="3">
+        <v>289039</v>
+      </c>
+      <c r="L1159" s="3">
+        <v>270548</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:12">
+      <c r="A1160" s="1">
+        <v>42928</v>
+      </c>
+      <c r="B1160" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1160">
+        <v>313.95</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1160">
+        <v>0.1</v>
+      </c>
+      <c r="F1160">
+        <v>314.10000000000002</v>
+      </c>
+      <c r="G1160">
+        <v>314.85000000000002</v>
+      </c>
+      <c r="H1160">
+        <v>313.75</v>
+      </c>
+      <c r="I1160">
+        <v>313.58</v>
+      </c>
+      <c r="J1160">
+        <v>314.48</v>
+      </c>
+      <c r="K1160" s="3">
+        <v>145850</v>
+      </c>
+      <c r="L1160" s="3">
+        <v>272883</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:12">
+      <c r="A1161" s="1">
+        <v>42927</v>
+      </c>
+      <c r="B1161" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1161">
+        <v>314.05</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1161">
+        <v>1.9</v>
+      </c>
+      <c r="F1161">
+        <v>312.75</v>
+      </c>
+      <c r="G1161">
+        <v>314.35000000000002</v>
+      </c>
+      <c r="H1161">
+        <v>312.35000000000002</v>
+      </c>
+      <c r="I1161">
+        <v>313.58999999999997</v>
+      </c>
+      <c r="J1161">
+        <v>314.5</v>
+      </c>
+      <c r="K1161" s="3">
+        <v>172693</v>
+      </c>
+      <c r="L1161" s="3">
+        <v>273081</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:12">
+      <c r="A1162" s="1">
+        <v>42926</v>
+      </c>
+      <c r="B1162" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1162">
+        <v>312.14999999999998</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1162">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F1162">
+        <v>312.39999999999998</v>
+      </c>
+      <c r="G1162">
+        <v>313.3</v>
+      </c>
+      <c r="H1162">
+        <v>311.5</v>
+      </c>
+      <c r="I1162">
+        <v>311.45999999999998</v>
+      </c>
+      <c r="J1162">
+        <v>312.38</v>
+      </c>
+      <c r="K1162" s="3">
+        <v>159039</v>
+      </c>
+      <c r="L1162" s="3">
+        <v>274729</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:12">
+      <c r="A1163" s="1">
+        <v>42923</v>
+      </c>
+      <c r="B1163" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1163">
+        <v>311.60000000000002</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1163">
+        <v>0.85</v>
+      </c>
+      <c r="F1163">
+        <v>311.05</v>
+      </c>
+      <c r="G1163">
+        <v>312.14999999999998</v>
+      </c>
+      <c r="H1163">
+        <v>310.45</v>
+      </c>
+      <c r="I1163">
+        <v>310.66000000000003</v>
+      </c>
+      <c r="J1163">
+        <v>311.62</v>
+      </c>
+      <c r="K1163" s="3">
+        <v>158128</v>
+      </c>
+      <c r="L1163" s="3">
+        <v>273210</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:12">
+      <c r="A1164" s="1">
+        <v>42922</v>
+      </c>
+      <c r="B1164" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1164">
+        <v>312.45</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1164">
+        <v>0</v>
+      </c>
+      <c r="F1164">
+        <v>313.25</v>
+      </c>
+      <c r="G1164">
+        <v>313.3</v>
+      </c>
+      <c r="H1164">
+        <v>311.55</v>
+      </c>
+      <c r="I1164">
+        <v>311.88</v>
+      </c>
+      <c r="J1164">
+        <v>312.86</v>
+      </c>
+      <c r="K1164" s="3">
+        <v>155525</v>
+      </c>
+      <c r="L1164" s="3">
+        <v>271114</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:12">
+      <c r="A1165" s="1">
+        <v>42921</v>
+      </c>
+      <c r="B1165" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1165">
+        <v>312.45</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1165">
+        <v>1.45</v>
+      </c>
+      <c r="F1165">
+        <v>310.60000000000002</v>
+      </c>
+      <c r="G1165">
+        <v>312.8</v>
+      </c>
+      <c r="H1165">
+        <v>310.35000000000002</v>
+      </c>
+      <c r="I1165">
+        <v>311.77</v>
+      </c>
+      <c r="J1165">
+        <v>312.76</v>
+      </c>
+      <c r="K1165" s="3">
+        <v>177293</v>
+      </c>
+      <c r="L1165" s="3">
+        <v>266732</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:12">
+      <c r="A1166" s="1">
+        <v>42920</v>
+      </c>
+      <c r="B1166" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1166">
+        <v>311</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1166">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F1166">
+        <v>313.3</v>
+      </c>
+      <c r="G1166">
+        <v>313.60000000000002</v>
+      </c>
+      <c r="H1166">
+        <v>310.85000000000002</v>
+      </c>
+      <c r="I1166">
+        <v>310.45999999999998</v>
+      </c>
+      <c r="J1166">
+        <v>311.45999999999998</v>
+      </c>
+      <c r="K1166" s="3">
+        <v>214043</v>
+      </c>
+      <c r="L1166" s="3">
+        <v>269927</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:12">
+      <c r="A1167" s="1">
+        <v>42919</v>
+      </c>
+      <c r="B1167" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1167">
+        <v>313.3</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1167">
+        <v>0.4</v>
+      </c>
+      <c r="F1167">
+        <v>313.25</v>
+      </c>
+      <c r="G1167">
+        <v>313.64999999999998</v>
+      </c>
+      <c r="H1167">
+        <v>311.8</v>
+      </c>
+      <c r="I1167">
+        <v>312.39</v>
+      </c>
+      <c r="J1167">
+        <v>313.42</v>
+      </c>
+      <c r="K1167" s="3">
+        <v>144305</v>
+      </c>
+      <c r="L1167" s="3">
+        <v>267581</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:12">
+      <c r="A1168" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B1168" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1168">
+        <v>312.89999999999998</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1168">
+        <v>0.8</v>
+      </c>
+      <c r="F1168">
+        <v>311.45</v>
+      </c>
+      <c r="G1168">
+        <v>312.89999999999998</v>
+      </c>
+      <c r="H1168">
+        <v>311.2</v>
+      </c>
+      <c r="I1168">
+        <v>311.76</v>
+      </c>
+      <c r="J1168">
+        <v>312.83</v>
+      </c>
+      <c r="K1168" s="3">
+        <v>155268</v>
+      </c>
+      <c r="L1168" s="3">
+        <v>265111</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:12">
+      <c r="A1169" s="1">
+        <v>42915</v>
+      </c>
+      <c r="B1169" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1169">
+        <v>313.7</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1169">
+        <v>2.1</v>
+      </c>
+      <c r="F1169">
+        <v>313.2</v>
+      </c>
+      <c r="G1169">
+        <v>314.60000000000002</v>
+      </c>
+      <c r="H1169">
+        <v>313.10000000000002</v>
+      </c>
+      <c r="I1169">
+        <v>312.56</v>
+      </c>
+      <c r="J1169">
+        <v>313.64999999999998</v>
+      </c>
+      <c r="K1169" s="3">
+        <v>158749</v>
+      </c>
+      <c r="L1169" s="3">
+        <v>266482</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:12">
+      <c r="A1170" s="1">
+        <v>42914</v>
+      </c>
+      <c r="B1170" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1170">
+        <v>311.60000000000002</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1170">
+        <v>0.85</v>
+      </c>
+      <c r="F1170">
+        <v>311</v>
+      </c>
+      <c r="G1170">
+        <v>312.35000000000002</v>
+      </c>
+      <c r="H1170">
+        <v>310.85000000000002</v>
+      </c>
+      <c r="I1170">
+        <v>310.83999999999997</v>
+      </c>
+      <c r="J1170">
+        <v>311.76</v>
+      </c>
+      <c r="K1170" s="3">
+        <v>157937</v>
+      </c>
+      <c r="L1170" s="3">
+        <v>265494</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:12">
+      <c r="A1171" s="1">
+        <v>42913</v>
+      </c>
+      <c r="B1171" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1171">
+        <v>312.45</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1171">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F1171">
+        <v>311.75</v>
+      </c>
+      <c r="G1171">
+        <v>313.3</v>
+      </c>
+      <c r="H1171">
+        <v>311.60000000000002</v>
+      </c>
+      <c r="I1171">
+        <v>312.12</v>
+      </c>
+      <c r="J1171">
+        <v>313.06</v>
+      </c>
+      <c r="K1171" s="3">
+        <v>138270</v>
+      </c>
+      <c r="L1171" s="3">
+        <v>266892</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:12">
+      <c r="A1172" s="1">
+        <v>42912</v>
+      </c>
+      <c r="B1172" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1172">
+        <v>311.89999999999998</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1172">
+        <v>1.3</v>
+      </c>
+      <c r="F1172">
+        <v>311</v>
+      </c>
+      <c r="G1172">
+        <v>312.64999999999998</v>
+      </c>
+      <c r="H1172">
+        <v>310.7</v>
+      </c>
+      <c r="I1172">
+        <v>311.89</v>
+      </c>
+      <c r="J1172">
+        <v>312.83999999999997</v>
+      </c>
+      <c r="K1172" s="3">
+        <v>159320</v>
+      </c>
+      <c r="L1172" s="3">
+        <v>269716</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:12">
+      <c r="A1173" s="1">
+        <v>42909</v>
+      </c>
+      <c r="B1173" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1173">
+        <v>310.60000000000002</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1173">
+        <v>0.7</v>
+      </c>
+      <c r="F1173">
+        <v>309.7</v>
+      </c>
+      <c r="G1173">
+        <v>311.2</v>
+      </c>
+      <c r="H1173">
+        <v>309.5</v>
+      </c>
+      <c r="I1173">
+        <v>310.26</v>
+      </c>
+      <c r="J1173">
+        <v>311.25</v>
+      </c>
+      <c r="K1173" s="3">
+        <v>161929</v>
+      </c>
+      <c r="L1173" s="3">
+        <v>265767</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:12">
+      <c r="A1174" s="1">
+        <v>42908</v>
+      </c>
+      <c r="B1174" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1174">
+        <v>309.89999999999998</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1174">
+        <v>1.75</v>
+      </c>
+      <c r="F1174">
+        <v>308.7</v>
+      </c>
+      <c r="G1174">
+        <v>310</v>
+      </c>
+      <c r="H1174">
+        <v>307.8</v>
+      </c>
+      <c r="I1174">
+        <v>309.47000000000003</v>
+      </c>
+      <c r="J1174">
+        <v>310.47000000000003</v>
+      </c>
+      <c r="K1174" s="3">
+        <v>150447</v>
+      </c>
+      <c r="L1174" s="3">
+        <v>264953</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:12">
+      <c r="A1175" s="1">
+        <v>42907</v>
+      </c>
+      <c r="B1175" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1175">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1175">
+        <v>1.3</v>
+      </c>
+      <c r="F1175">
+        <v>308</v>
+      </c>
+      <c r="G1175">
+        <v>308.45</v>
+      </c>
+      <c r="H1175">
+        <v>306.64999999999998</v>
+      </c>
+      <c r="I1175">
+        <v>307.52</v>
+      </c>
+      <c r="J1175">
+        <v>308.52999999999997</v>
+      </c>
+      <c r="K1175" s="3">
+        <v>193274</v>
+      </c>
+      <c r="L1175" s="3">
+        <v>263024</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:12">
+      <c r="A1176" s="1">
+        <v>42906</v>
+      </c>
+      <c r="B1176" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1176">
+        <v>309.45</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1176">
+        <v>0.3</v>
+      </c>
+      <c r="F1176">
+        <v>310.5</v>
+      </c>
+      <c r="G1176">
+        <v>310.8</v>
+      </c>
+      <c r="H1176">
+        <v>309.14999999999998</v>
+      </c>
+      <c r="I1176">
+        <v>309.31</v>
+      </c>
+      <c r="J1176">
+        <v>310.33999999999997</v>
+      </c>
+      <c r="K1176" s="3">
+        <v>156753</v>
+      </c>
+      <c r="L1176" s="3">
+        <v>258117</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:12">
+      <c r="A1177" s="1">
+        <v>42905</v>
+      </c>
+      <c r="B1177" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1177">
+        <v>309.14999999999998</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1177">
+        <v>1.8</v>
+      </c>
+      <c r="F1177">
+        <v>307.2</v>
+      </c>
+      <c r="G1177">
+        <v>309.8</v>
+      </c>
+      <c r="H1177">
+        <v>306.60000000000002</v>
+      </c>
+      <c r="I1177">
+        <v>308.61</v>
+      </c>
+      <c r="J1177">
+        <v>309.64999999999998</v>
+      </c>
+      <c r="K1177" s="3">
+        <v>164387</v>
+      </c>
+      <c r="L1177" s="3">
+        <v>259524</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:12">
+      <c r="A1178" s="1">
+        <v>42902</v>
+      </c>
+      <c r="B1178" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1178">
+        <v>307.35000000000002</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1178">
+        <v>0.35</v>
+      </c>
+      <c r="F1178">
+        <v>307.10000000000002</v>
+      </c>
+      <c r="G1178">
+        <v>308</v>
+      </c>
+      <c r="H1178">
+        <v>306.5</v>
+      </c>
+      <c r="I1178">
+        <v>306.79000000000002</v>
+      </c>
+      <c r="J1178">
+        <v>307.87</v>
+      </c>
+      <c r="K1178" s="3">
+        <v>144347</v>
+      </c>
+      <c r="L1178" s="3">
+        <v>256380</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:12">
+      <c r="A1179" s="1">
+        <v>42901</v>
+      </c>
+      <c r="B1179" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1179">
+        <v>307</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1179">
+        <v>1.75</v>
+      </c>
+      <c r="F1179">
+        <v>308.3</v>
+      </c>
+      <c r="G1179">
+        <v>309.35000000000002</v>
+      </c>
+      <c r="H1179">
+        <v>305.5</v>
+      </c>
+      <c r="I1179">
+        <v>306.69</v>
+      </c>
+      <c r="J1179">
+        <v>307.79000000000002</v>
+      </c>
+      <c r="K1179" s="3">
+        <v>225509</v>
+      </c>
+      <c r="L1179" s="3">
+        <v>259812</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:12">
+      <c r="A1180" s="1">
+        <v>42900</v>
+      </c>
+      <c r="B1180" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1180">
+        <v>308.75</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1180">
+        <v>0.35</v>
+      </c>
+      <c r="F1180">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="G1180">
+        <v>310.7</v>
+      </c>
+      <c r="H1180">
+        <v>307.64999999999998</v>
+      </c>
+      <c r="I1180">
+        <v>307.95</v>
+      </c>
+      <c r="J1180">
+        <v>309.07</v>
+      </c>
+      <c r="K1180" s="3">
+        <v>181232</v>
+      </c>
+      <c r="L1180" s="3">
+        <v>262154</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:12">
+      <c r="A1181" s="1">
+        <v>42899</v>
+      </c>
+      <c r="B1181" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1181">
+        <v>308.39999999999998</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1181">
+        <v>1.75</v>
+      </c>
+      <c r="F1181">
+        <v>306.95</v>
+      </c>
+      <c r="G1181">
+        <v>308.85000000000002</v>
+      </c>
+      <c r="H1181">
+        <v>306.7</v>
+      </c>
+      <c r="I1181">
+        <v>308.02</v>
+      </c>
+      <c r="J1181">
+        <v>309.14999999999998</v>
+      </c>
+      <c r="K1181" s="3">
+        <v>132844</v>
+      </c>
+      <c r="L1181" s="3">
+        <v>264290</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:12">
+      <c r="A1182" s="1">
+        <v>42898</v>
+      </c>
+      <c r="B1182" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1182">
+        <v>306.64999999999998</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1182">
+        <v>3.25</v>
+      </c>
+      <c r="F1182">
+        <v>308</v>
+      </c>
+      <c r="G1182">
+        <v>308.85000000000002</v>
+      </c>
+      <c r="H1182">
+        <v>306.3</v>
+      </c>
+      <c r="I1182">
+        <v>306.24</v>
+      </c>
+      <c r="J1182">
+        <v>307.38</v>
+      </c>
+      <c r="K1182" s="3">
+        <v>173022</v>
+      </c>
+      <c r="L1182" s="3">
+        <v>262079</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:12">
+      <c r="A1183" s="1">
+        <v>42895</v>
+      </c>
+      <c r="B1183" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1183">
+        <v>309.89999999999998</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1183">
+        <v>1.9</v>
+      </c>
+      <c r="F1183">
+        <v>307.89999999999998</v>
+      </c>
+      <c r="G1183">
+        <v>310.60000000000002</v>
+      </c>
+      <c r="H1183">
+        <v>307.64999999999998</v>
+      </c>
+      <c r="I1183">
+        <v>309.38</v>
+      </c>
+      <c r="J1183">
+        <v>310.57</v>
+      </c>
+      <c r="K1183" s="3">
+        <v>202655</v>
+      </c>
+      <c r="L1183" s="3">
+        <v>270549</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:12">
+      <c r="A1184" s="1">
+        <v>42894</v>
+      </c>
+      <c r="B1184" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1184">
+        <v>306.75</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1184">
+        <v>1.25</v>
+      </c>
+      <c r="F1184">
+        <v>305.75</v>
+      </c>
+      <c r="G1184">
+        <v>306.85000000000002</v>
+      </c>
+      <c r="H1184">
+        <v>304.14999999999998</v>
+      </c>
+      <c r="I1184">
+        <v>306.25</v>
+      </c>
+      <c r="J1184">
+        <v>306.26</v>
+      </c>
+      <c r="K1184" s="3">
+        <v>200755</v>
+      </c>
+      <c r="L1184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:12">
+      <c r="A1185" s="1">
+        <v>42893</v>
+      </c>
+      <c r="B1185" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1185">
+        <v>305.5</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1185">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F1185">
+        <v>307.05</v>
+      </c>
+      <c r="G1185">
+        <v>307.64999999999998</v>
+      </c>
+      <c r="H1185">
+        <v>305.39999999999998</v>
+      </c>
+      <c r="I1185">
+        <v>305.68</v>
+      </c>
+      <c r="J1185">
+        <v>305.7</v>
+      </c>
+      <c r="K1185" s="3">
+        <v>174047</v>
+      </c>
+      <c r="L1185" s="3">
+        <v>142640</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:12">
+      <c r="A1186" s="1">
+        <v>42891</v>
+      </c>
+      <c r="B1186" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1186">
+        <v>307.7</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1186">
+        <v>0.15</v>
+      </c>
+      <c r="F1186">
+        <v>308.05</v>
+      </c>
+      <c r="G1186">
+        <v>308.7</v>
+      </c>
+      <c r="H1186">
+        <v>306.95</v>
+      </c>
+      <c r="I1186">
+        <v>307.33</v>
+      </c>
+      <c r="J1186">
+        <v>307.38</v>
+      </c>
+      <c r="K1186" s="3">
+        <v>153637</v>
+      </c>
+      <c r="L1186" s="3">
+        <v>213910</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:12">
+      <c r="A1187" s="1">
+        <v>42888</v>
+      </c>
+      <c r="B1187" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1187">
+        <v>307.85000000000002</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1187">
+        <v>3.6</v>
+      </c>
+      <c r="F1187">
+        <v>305.2</v>
+      </c>
+      <c r="G1187">
+        <v>308.10000000000002</v>
+      </c>
+      <c r="H1187">
+        <v>305.05</v>
+      </c>
+      <c r="I1187">
+        <v>307.83</v>
+      </c>
+      <c r="J1187">
+        <v>307.92</v>
+      </c>
+      <c r="K1187" s="3">
+        <v>210515</v>
+      </c>
+      <c r="L1187" s="3">
+        <v>266052</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:12">
+      <c r="A1188" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B1188" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1188">
+        <v>304.25</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1188">
+        <v>0.9</v>
+      </c>
+      <c r="F1188">
+        <v>304.7</v>
+      </c>
+      <c r="G1188">
+        <v>305.45</v>
+      </c>
+      <c r="H1188">
+        <v>303.14999999999998</v>
+      </c>
+      <c r="I1188">
+        <v>304.02999999999997</v>
+      </c>
+      <c r="J1188">
+        <v>304.13</v>
+      </c>
+      <c r="K1188" s="3">
+        <v>194357</v>
+      </c>
+      <c r="L1188" s="3">
+        <v>287440</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:12">
+      <c r="A1189" s="1">
+        <v>42886</v>
+      </c>
+      <c r="B1189" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1189">
+        <v>305.14999999999998</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1189">
+        <v>0.7</v>
+      </c>
+      <c r="F1189">
+        <v>304.14999999999998</v>
+      </c>
+      <c r="G1189">
+        <v>306.39999999999998</v>
+      </c>
+      <c r="H1189">
+        <v>303.8</v>
+      </c>
+      <c r="I1189">
+        <v>304.67</v>
+      </c>
+      <c r="J1189">
+        <v>304.77999999999997</v>
+      </c>
+      <c r="K1189" s="3">
+        <v>198417</v>
+      </c>
+      <c r="L1189" s="3">
+        <v>292887</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:12">
+      <c r="A1190" s="1">
+        <v>42885</v>
+      </c>
+      <c r="B1190" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1190">
+        <v>304.45</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1190">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F1190">
+        <v>307</v>
+      </c>
+      <c r="G1190">
+        <v>307.14999999999998</v>
+      </c>
+      <c r="H1190">
+        <v>303.2</v>
+      </c>
+      <c r="I1190">
+        <v>304.58999999999997</v>
+      </c>
+      <c r="J1190">
+        <v>304.72000000000003</v>
+      </c>
+      <c r="K1190" s="3">
+        <v>238132</v>
+      </c>
+      <c r="L1190" s="3">
+        <v>285997</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:12">
+      <c r="A1191" s="1">
+        <v>42884</v>
+      </c>
+      <c r="B1191" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1191">
+        <v>306.89999999999998</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1191">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F1191">
+        <v>308.2</v>
+      </c>
+      <c r="G1191">
+        <v>309.5</v>
+      </c>
+      <c r="H1191">
+        <v>305.25</v>
+      </c>
+      <c r="I1191">
+        <v>306.52</v>
+      </c>
+      <c r="J1191">
+        <v>306.66000000000003</v>
+      </c>
+      <c r="K1191" s="3">
+        <v>229693</v>
+      </c>
+      <c r="L1191" s="3">
+        <v>288932</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:12">
+      <c r="A1192" s="1">
+        <v>42881</v>
+      </c>
+      <c r="B1192" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1192">
+        <v>307.45</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1192">
+        <v>1.85</v>
+      </c>
+      <c r="F1192">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="G1192">
+        <v>308.75</v>
+      </c>
+      <c r="H1192">
+        <v>305.2</v>
+      </c>
+      <c r="I1192">
+        <v>306.95999999999998</v>
+      </c>
+      <c r="J1192">
+        <v>307.14</v>
+      </c>
+      <c r="K1192" s="3">
+        <v>264607</v>
+      </c>
+      <c r="L1192" s="3">
+        <v>284204</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:12">
+      <c r="A1193" s="1">
+        <v>42880</v>
+      </c>
+      <c r="B1193" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1193">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1193">
+        <v>3.6</v>
+      </c>
+      <c r="F1193">
+        <v>303.35000000000002</v>
+      </c>
+      <c r="G1193">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="H1193">
+        <v>302.39999999999998</v>
+      </c>
+      <c r="I1193">
+        <v>305.22000000000003</v>
+      </c>
+      <c r="J1193">
+        <v>305.41000000000003</v>
+      </c>
+      <c r="K1193" s="3">
+        <v>227780</v>
+      </c>
+      <c r="L1193" s="3">
+        <v>284755</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:12">
+      <c r="A1194" s="1">
+        <v>42879</v>
+      </c>
+      <c r="B1194" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1194">
+        <v>302</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1194">
+        <v>0.85</v>
+      </c>
+      <c r="F1194">
+        <v>302.25</v>
+      </c>
+      <c r="G1194">
+        <v>302.95</v>
+      </c>
+      <c r="H1194">
+        <v>301.39999999999998</v>
+      </c>
+      <c r="I1194">
+        <v>301.70999999999998</v>
+      </c>
+      <c r="J1194">
+        <v>301.91000000000003</v>
+      </c>
+      <c r="K1194" s="3">
+        <v>140933</v>
+      </c>
+      <c r="L1194" s="3">
+        <v>281928</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:12">
+      <c r="A1195" s="1">
+        <v>42878</v>
+      </c>
+      <c r="B1195" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1195">
+        <v>301.14999999999998</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1195">
+        <v>0.45</v>
+      </c>
+      <c r="F1195">
+        <v>301.14999999999998</v>
+      </c>
+      <c r="G1195">
+        <v>303.8</v>
+      </c>
+      <c r="H1195">
+        <v>300.7</v>
+      </c>
+      <c r="I1195">
+        <v>301.36</v>
+      </c>
+      <c r="J1195">
+        <v>301.57</v>
+      </c>
+      <c r="K1195" s="3">
+        <v>236516</v>
+      </c>
+      <c r="L1195" s="3">
+        <v>280062</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:12">
+      <c r="A1196" s="1">
+        <v>42877</v>
+      </c>
+      <c r="B1196" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1196">
+        <v>300.7</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1196">
+        <v>2.35</v>
+      </c>
+      <c r="F1196">
+        <v>300.35000000000002</v>
+      </c>
+      <c r="G1196">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="H1196">
+        <v>299</v>
+      </c>
+      <c r="I1196">
+        <v>300.63</v>
+      </c>
+      <c r="J1196">
+        <v>300.86</v>
+      </c>
+      <c r="K1196" s="3">
+        <v>164910</v>
+      </c>
+      <c r="L1196" s="3">
+        <v>279364</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:12">
+      <c r="A1197" s="1">
+        <v>42874</v>
+      </c>
+      <c r="B1197" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1197">
+        <v>298.35000000000002</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1197">
+        <v>0.4</v>
+      </c>
+      <c r="F1197">
+        <v>298.5</v>
+      </c>
+      <c r="G1197">
+        <v>299.25</v>
+      </c>
+      <c r="H1197">
+        <v>297.85000000000002</v>
+      </c>
+      <c r="I1197">
+        <v>298.08</v>
+      </c>
+      <c r="J1197">
+        <v>298.33999999999997</v>
+      </c>
+      <c r="K1197" s="3">
+        <v>136439</v>
+      </c>
+      <c r="L1197" s="3">
+        <v>279096</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:12">
+      <c r="A1198" s="1">
+        <v>42873</v>
+      </c>
+      <c r="B1198" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1198">
+        <v>298.75</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1198">
+        <v>0.85</v>
+      </c>
+      <c r="F1198">
+        <v>296.39999999999998</v>
+      </c>
+      <c r="G1198">
+        <v>298.89999999999998</v>
+      </c>
+      <c r="H1198">
+        <v>295.8</v>
+      </c>
+      <c r="I1198">
+        <v>298.47000000000003</v>
+      </c>
+      <c r="J1198">
+        <v>298.74</v>
+      </c>
+      <c r="K1198" s="3">
+        <v>207089</v>
+      </c>
+      <c r="L1198" s="3">
+        <v>276084</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:12">
+      <c r="A1199" s="1">
+        <v>42872</v>
+      </c>
+      <c r="B1199" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1199">
+        <v>299.60000000000002</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1199">
+        <v>0.25</v>
+      </c>
+      <c r="F1199">
+        <v>298.89999999999998</v>
+      </c>
+      <c r="G1199">
+        <v>300.14999999999998</v>
+      </c>
+      <c r="H1199">
+        <v>298.2</v>
+      </c>
+      <c r="I1199">
+        <v>299.33999999999997</v>
+      </c>
+      <c r="J1199">
+        <v>299.63</v>
+      </c>
+      <c r="K1199" s="3">
+        <v>185296</v>
+      </c>
+      <c r="L1199" s="3">
+        <v>275875</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:12">
+      <c r="A1200" s="1">
+        <v>42871</v>
+      </c>
+      <c r="B1200" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1200">
+        <v>299.35000000000002</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1200">
+        <v>0.4</v>
+      </c>
+      <c r="F1200">
+        <v>301.25</v>
+      </c>
+      <c r="G1200">
+        <v>302.10000000000002</v>
+      </c>
+      <c r="H1200">
+        <v>298.3</v>
+      </c>
+      <c r="I1200">
+        <v>299.67</v>
+      </c>
+      <c r="J1200">
+        <v>299.97000000000003</v>
+      </c>
+      <c r="K1200" s="3">
+        <v>202872</v>
+      </c>
+      <c r="L1200" s="3">
+        <v>276360</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:12">
+      <c r="A1201" s="1">
+        <v>42870</v>
+      </c>
+      <c r="B1201" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1201">
+        <v>299.75</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1201">
+        <v>1</v>
+      </c>
+      <c r="F1201">
+        <v>299.05</v>
+      </c>
+      <c r="G1201">
+        <v>300.3</v>
+      </c>
+      <c r="H1201">
+        <v>297.85000000000002</v>
+      </c>
+      <c r="I1201">
+        <v>298.87</v>
+      </c>
+      <c r="J1201">
+        <v>299.18</v>
+      </c>
+      <c r="K1201" s="3">
+        <v>158822</v>
+      </c>
+      <c r="L1201" s="3">
+        <v>275692</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:12">
+      <c r="A1202" s="1">
+        <v>42867</v>
+      </c>
+      <c r="B1202" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1202">
+        <v>298.75</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1202">
+        <v>1.45</v>
+      </c>
+      <c r="F1202">
+        <v>300.2</v>
+      </c>
+      <c r="G1202">
+        <v>300.5</v>
+      </c>
+      <c r="H1202">
+        <v>298.2</v>
+      </c>
+      <c r="I1202">
+        <v>298.25</v>
+      </c>
+      <c r="J1202">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="K1202" s="3">
+        <v>196177</v>
+      </c>
+      <c r="L1202" s="3">
+        <v>276395</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:12">
+      <c r="A1203" s="1">
+        <v>42866</v>
+      </c>
+      <c r="B1203" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1203">
+        <v>300.2</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1203">
+        <v>3.65</v>
+      </c>
+      <c r="F1203">
+        <v>298.10000000000002</v>
+      </c>
+      <c r="G1203">
+        <v>300.60000000000002</v>
+      </c>
+      <c r="H1203">
+        <v>296.85000000000002</v>
+      </c>
+      <c r="I1203">
+        <v>299.75</v>
+      </c>
+      <c r="J1203">
+        <v>300.12</v>
+      </c>
+      <c r="K1203" s="3">
+        <v>380171</v>
+      </c>
+      <c r="L1203" s="3">
+        <v>282684</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:12">
+      <c r="A1204" s="1">
+        <v>42865</v>
+      </c>
+      <c r="B1204" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1204">
+        <v>296.55</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1204">
+        <v>4.25</v>
+      </c>
+      <c r="F1204">
+        <v>300.8</v>
+      </c>
+      <c r="G1204">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="H1204">
+        <v>295.85000000000002</v>
+      </c>
+      <c r="I1204">
+        <v>296.19</v>
+      </c>
+      <c r="J1204">
+        <v>296.57</v>
+      </c>
+      <c r="K1204" s="3">
+        <v>514035</v>
+      </c>
+      <c r="L1204" s="3">
+        <v>298022</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:12">
+      <c r="A1205" s="1">
+        <v>42863</v>
+      </c>
+      <c r="B1205" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1205">
+        <v>300.8</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1205">
+        <v>7.95</v>
+      </c>
+      <c r="F1205">
+        <v>293.05</v>
+      </c>
+      <c r="G1205">
+        <v>300.8</v>
+      </c>
+      <c r="H1205">
+        <v>292.95</v>
+      </c>
+      <c r="I1205">
+        <v>299.86</v>
+      </c>
+      <c r="J1205">
+        <v>300.27</v>
+      </c>
+      <c r="K1205" s="3">
+        <v>303136</v>
+      </c>
+      <c r="L1205" s="3">
+        <v>300394</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:12">
+      <c r="A1206" s="1">
+        <v>42859</v>
+      </c>
+      <c r="B1206" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1206">
+        <v>292.85000000000002</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1206">
+        <v>2.7</v>
+      </c>
+      <c r="F1206">
+        <v>290.95</v>
+      </c>
+      <c r="G1206">
+        <v>292.85000000000002</v>
+      </c>
+      <c r="H1206">
+        <v>290.8</v>
+      </c>
+      <c r="I1206">
+        <v>292.47000000000003</v>
+      </c>
+      <c r="J1206">
+        <v>292.92</v>
+      </c>
+      <c r="K1206" s="3">
+        <v>154661</v>
+      </c>
+      <c r="L1206" s="3">
+        <v>292409</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:12">
+      <c r="A1207" s="1">
+        <v>42857</v>
+      </c>
+      <c r="B1207" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1207">
+        <v>290.14999999999998</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1207">
+        <v>2.25</v>
+      </c>
+      <c r="F1207">
+        <v>289.10000000000002</v>
+      </c>
+      <c r="G1207">
+        <v>291.64999999999998</v>
+      </c>
+      <c r="H1207">
+        <v>288.64999999999998</v>
+      </c>
+      <c r="I1207">
+        <v>289.64999999999998</v>
+      </c>
+      <c r="J1207">
+        <v>290.12</v>
+      </c>
+      <c r="K1207" s="3">
+        <v>209155</v>
+      </c>
+      <c r="L1207" s="3">
+        <v>286564</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:12">
+      <c r="A1208" s="1">
+        <v>42853</v>
+      </c>
+      <c r="B1208" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1208">
+        <v>287.89999999999998</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1208">
+        <v>0.45</v>
+      </c>
+      <c r="F1208">
+        <v>287.5</v>
+      </c>
+      <c r="G1208">
+        <v>288.89999999999998</v>
+      </c>
+      <c r="H1208">
+        <v>287.3</v>
+      </c>
+      <c r="I1208">
+        <v>287.20999999999998</v>
+      </c>
+      <c r="J1208">
+        <v>287.73</v>
+      </c>
+      <c r="K1208" s="3">
+        <v>180746</v>
+      </c>
+      <c r="L1208" s="3">
+        <v>288184</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:12">
+      <c r="A1209" s="1">
+        <v>42852</v>
+      </c>
+      <c r="B1209" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1209">
+        <v>287.45</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1209">
+        <v>0.9</v>
+      </c>
+      <c r="F1209">
+        <v>286.55</v>
+      </c>
+      <c r="G1209">
+        <v>287.55</v>
+      </c>
+      <c r="H1209">
+        <v>286.14999999999998</v>
+      </c>
+      <c r="I1209">
+        <v>287.33999999999997</v>
+      </c>
+      <c r="J1209">
+        <v>287.87</v>
+      </c>
+      <c r="K1209" s="3">
+        <v>152103</v>
+      </c>
+      <c r="L1209" s="3">
+        <v>289044</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:12">
+      <c r="A1210" s="1">
+        <v>42851</v>
+      </c>
+      <c r="B1210" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1210">
+        <v>286.55</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1210">
+        <v>1.25</v>
+      </c>
+      <c r="F1210">
+        <v>286.10000000000002</v>
+      </c>
+      <c r="G1210">
+        <v>287.35000000000002</v>
+      </c>
+      <c r="H1210">
+        <v>285.85000000000002</v>
+      </c>
+      <c r="I1210">
+        <v>286.77999999999997</v>
+      </c>
+      <c r="J1210">
+        <v>287.32</v>
+      </c>
+      <c r="K1210" s="3">
+        <v>183116</v>
+      </c>
+      <c r="L1210" s="3">
+        <v>294588</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:12">
+      <c r="A1211" s="1">
+        <v>42850</v>
+      </c>
+      <c r="B1211" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1211">
+        <v>285.3</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1211">
+        <v>3.35</v>
+      </c>
+      <c r="F1211">
+        <v>282.14999999999998</v>
+      </c>
+      <c r="G1211">
+        <v>285.39999999999998</v>
+      </c>
+      <c r="H1211">
+        <v>282.10000000000002</v>
+      </c>
+      <c r="I1211">
+        <v>285.41000000000003</v>
+      </c>
+      <c r="J1211">
+        <v>285.95999999999998</v>
+      </c>
+      <c r="K1211" s="3">
+        <v>205637</v>
+      </c>
+      <c r="L1211" s="3">
+        <v>288494</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:12">
+      <c r="A1212" s="1">
+        <v>42849</v>
+      </c>
+      <c r="B1212" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1212">
+        <v>281.95</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1212">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F1212">
+        <v>282</v>
+      </c>
+      <c r="G1212">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="H1212">
+        <v>281.3</v>
+      </c>
+      <c r="I1212">
+        <v>281.95999999999998</v>
+      </c>
+      <c r="J1212">
+        <v>282.52</v>
+      </c>
+      <c r="K1212" s="3">
+        <v>127054</v>
+      </c>
+      <c r="L1212" s="3">
+        <v>271683</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:12">
+      <c r="A1213" s="1">
+        <v>42846</v>
+      </c>
+      <c r="B1213" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1213">
+        <v>280.8</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1213">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F1213">
+        <v>279.39999999999998</v>
+      </c>
+      <c r="G1213">
+        <v>281.14999999999998</v>
+      </c>
+      <c r="H1213">
+        <v>279</v>
+      </c>
+      <c r="I1213">
+        <v>280.05</v>
+      </c>
+      <c r="J1213">
+        <v>280.64</v>
+      </c>
+      <c r="K1213" s="3">
+        <v>172513</v>
+      </c>
+      <c r="L1213" s="3">
+        <v>269608</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:12">
+      <c r="A1214" s="1">
+        <v>42845</v>
+      </c>
+      <c r="B1214" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1214">
+        <v>278.35000000000002</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1214">
+        <v>1.4</v>
+      </c>
+      <c r="F1214">
+        <v>276.45</v>
+      </c>
+      <c r="G1214">
+        <v>278.35000000000002</v>
+      </c>
+      <c r="H1214">
+        <v>276</v>
+      </c>
+      <c r="I1214">
+        <v>277.76</v>
+      </c>
+      <c r="J1214">
+        <v>278.36</v>
+      </c>
+      <c r="K1214" s="3">
+        <v>170331</v>
+      </c>
+      <c r="L1214" s="3">
+        <v>268360</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:12">
+      <c r="A1215" s="1">
+        <v>42844</v>
+      </c>
+      <c r="B1215" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1215">
+        <v>276.95</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1215">
+        <v>1.5</v>
+      </c>
+      <c r="F1215">
+        <v>277.75</v>
+      </c>
+      <c r="G1215">
+        <v>278.55</v>
+      </c>
+      <c r="H1215">
+        <v>276.25</v>
+      </c>
+      <c r="I1215">
+        <v>276.49</v>
+      </c>
+      <c r="J1215">
+        <v>277.10000000000002</v>
+      </c>
+      <c r="K1215" s="3">
+        <v>205736</v>
+      </c>
+      <c r="L1215" s="3">
+        <v>267697</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:12">
+      <c r="A1216" s="1">
+        <v>42843</v>
+      </c>
+      <c r="B1216" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1216">
+        <v>278.45</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1216">
+        <v>0.3</v>
+      </c>
+      <c r="F1216">
+        <v>279.89999999999998</v>
+      </c>
+      <c r="G1216">
+        <v>280.10000000000002</v>
+      </c>
+      <c r="H1216">
+        <v>277.55</v>
+      </c>
+      <c r="I1216">
+        <v>278.23</v>
+      </c>
+      <c r="J1216">
+        <v>278.86</v>
+      </c>
+      <c r="K1216" s="3">
+        <v>188528</v>
+      </c>
+      <c r="L1216" s="3">
+        <v>268091</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:12">
+      <c r="A1217" s="1">
+        <v>42842</v>
+      </c>
+      <c r="B1217" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1217">
+        <v>278.75</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1217">
+        <v>0.95</v>
+      </c>
+      <c r="F1217">
+        <v>278.45</v>
+      </c>
+      <c r="G1217">
+        <v>279.60000000000002</v>
+      </c>
+      <c r="H1217">
+        <v>277.85000000000002</v>
+      </c>
+      <c r="I1217">
+        <v>278.10000000000002</v>
+      </c>
+      <c r="J1217">
+        <v>278.74</v>
+      </c>
+      <c r="K1217" s="3">
+        <v>164557</v>
+      </c>
+      <c r="L1217" s="3">
+        <v>268967</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:12">
+      <c r="A1218" s="1">
+        <v>42839</v>
+      </c>
+      <c r="B1218" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1218">
+        <v>277.8</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1218">
+        <v>1.45</v>
+      </c>
+      <c r="F1218">
+        <v>278.14999999999998</v>
+      </c>
+      <c r="G1218">
+        <v>278.55</v>
+      </c>
+      <c r="H1218">
+        <v>276.2</v>
+      </c>
+      <c r="I1218">
+        <v>277.31</v>
+      </c>
+      <c r="J1218">
+        <v>277.99</v>
+      </c>
+      <c r="K1218" s="3">
+        <v>196643</v>
+      </c>
+      <c r="L1218" s="3">
+        <v>267428</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:12">
+      <c r="A1219" s="1">
+        <v>42838</v>
+      </c>
+      <c r="B1219" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1219">
+        <v>279.25</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1219">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F1219">
+        <v>276.95</v>
+      </c>
+      <c r="G1219">
+        <v>279.25</v>
+      </c>
+      <c r="H1219">
+        <v>276.3</v>
+      </c>
+      <c r="I1219">
+        <v>279.12</v>
+      </c>
+      <c r="J1219">
+        <v>279.81</v>
+      </c>
+      <c r="K1219" s="3">
+        <v>277366</v>
+      </c>
+      <c r="L1219" s="3">
+        <v>267918</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:12">
+      <c r="A1220" s="1">
+        <v>42837</v>
+      </c>
+      <c r="B1220" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1220">
+        <v>277.05</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1220">
+        <v>1.05</v>
+      </c>
+      <c r="F1220">
+        <v>276.39999999999998</v>
+      </c>
+      <c r="G1220">
+        <v>277.05</v>
+      </c>
+      <c r="H1220">
+        <v>275.75</v>
+      </c>
+      <c r="I1220">
+        <v>276.20999999999998</v>
+      </c>
+      <c r="J1220">
+        <v>276.91000000000003</v>
+      </c>
+      <c r="K1220" s="3">
+        <v>166666</v>
+      </c>
+      <c r="L1220" s="3">
+        <v>268442</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:12">
+      <c r="A1221" s="1">
+        <v>42836</v>
+      </c>
+      <c r="B1221" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1221">
+        <v>276</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1221">
+        <v>1.75</v>
+      </c>
+      <c r="F1221">
+        <v>276.95</v>
+      </c>
+      <c r="G1221">
+        <v>277.75</v>
+      </c>
+      <c r="H1221">
+        <v>275.45</v>
+      </c>
+      <c r="I1221">
+        <v>275.49</v>
+      </c>
+      <c r="J1221">
+        <v>276.2</v>
+      </c>
+      <c r="K1221" s="3">
+        <v>232163</v>
+      </c>
+      <c r="L1221" s="3">
+        <v>272159</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:12">
+      <c r="A1222" s="1">
+        <v>42835</v>
+      </c>
+      <c r="B1222" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1222">
+        <v>277.75</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1222">
+        <v>1.6</v>
+      </c>
+      <c r="F1222">
+        <v>279.3</v>
+      </c>
+      <c r="G1222">
+        <v>279.39999999999998</v>
+      </c>
+      <c r="H1222">
+        <v>277.10000000000002</v>
+      </c>
+      <c r="I1222">
+        <v>277.20999999999998</v>
+      </c>
+      <c r="J1222">
+        <v>277.94</v>
+      </c>
+      <c r="K1222" s="3">
+        <v>214420</v>
+      </c>
+      <c r="L1222" s="3">
+        <v>275348</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:12">
+      <c r="A1223" s="1">
+        <v>42832</v>
+      </c>
+      <c r="B1223" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1223">
+        <v>279.35000000000002</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1223">
+        <v>0.65</v>
+      </c>
+      <c r="F1223">
+        <v>280.25</v>
+      </c>
+      <c r="G1223">
+        <v>280.45</v>
+      </c>
+      <c r="H1223">
+        <v>278.14999999999998</v>
+      </c>
+      <c r="I1223">
+        <v>279.01</v>
+      </c>
+      <c r="J1223">
+        <v>279.77999999999997</v>
+      </c>
+      <c r="K1223" s="3">
+        <v>253113</v>
+      </c>
+      <c r="L1223" s="3">
+        <v>276059</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:12">
+      <c r="A1224" s="1">
+        <v>42831</v>
+      </c>
+      <c r="B1224" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1224">
+        <v>280</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1224">
+        <v>0.95</v>
+      </c>
+      <c r="F1224">
+        <v>280</v>
+      </c>
+      <c r="G1224">
+        <v>280.10000000000002</v>
+      </c>
+      <c r="H1224">
+        <v>278.5</v>
+      </c>
+      <c r="I1224">
+        <v>279.47000000000003</v>
+      </c>
+      <c r="J1224">
+        <v>280.26</v>
+      </c>
+      <c r="K1224" s="3">
+        <v>224077</v>
+      </c>
+      <c r="L1224" s="3">
+        <v>274139</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:12">
+      <c r="A1225" s="1">
+        <v>42830</v>
+      </c>
+      <c r="B1225" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1225">
+        <v>280.95</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1225">
+        <v>0.5</v>
+      </c>
+      <c r="F1225">
+        <v>281.5</v>
+      </c>
+      <c r="G1225">
+        <v>281.85000000000002</v>
+      </c>
+      <c r="H1225">
+        <v>279.14999999999998</v>
+      </c>
+      <c r="I1225">
+        <v>280.74</v>
+      </c>
+      <c r="J1225">
+        <v>281.54000000000002</v>
+      </c>
+      <c r="K1225" s="3">
+        <v>223520</v>
+      </c>
+      <c r="L1225" s="3">
+        <v>271057</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:12">
+      <c r="A1226" s="1">
+        <v>42829</v>
+      </c>
+      <c r="B1226" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1226">
+        <v>281.45</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1226">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F1226">
+        <v>281.8</v>
+      </c>
+      <c r="G1226">
+        <v>282.35000000000002</v>
+      </c>
+      <c r="H1226">
+        <v>280.85000000000002</v>
+      </c>
+      <c r="I1226">
+        <v>280.92</v>
+      </c>
+      <c r="J1226">
+        <v>281.74</v>
+      </c>
+      <c r="K1226" s="3">
+        <v>119074</v>
+      </c>
+      <c r="L1226" s="3">
+        <v>273362</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:12">
+      <c r="A1227" s="1">
+        <v>42828</v>
+      </c>
+      <c r="B1227" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1227">
+        <v>282</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1227">
+        <v>0.3</v>
+      </c>
+      <c r="F1227">
+        <v>282.10000000000002</v>
+      </c>
+      <c r="G1227">
+        <v>283.2</v>
+      </c>
+      <c r="H1227">
+        <v>281.55</v>
+      </c>
+      <c r="I1227">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="J1227">
+        <v>282.43</v>
+      </c>
+      <c r="K1227" s="3">
+        <v>121690</v>
+      </c>
+      <c r="L1227" s="3">
+        <v>270502</v>
       </c>
     </row>
   </sheetData>
